--- a/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
+++ b/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
@@ -9,26 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParametrosCalibracao" sheetId="1" r:id="rId1"/>
     <sheet name="CalibracaoErroCalculado" sheetId="2" r:id="rId2"/>
     <sheet name="ParametrosCenarioMenorErro" sheetId="3" r:id="rId3"/>
-    <sheet name="RankingEstrategias" sheetId="4" r:id="rId4"/>
-    <sheet name="DataFraneVulnerabilidade" sheetId="5" r:id="rId5"/>
-    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId6"/>
-    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId7"/>
-    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId8"/>
-    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId9"/>
-    <sheet name="RankingGeral" sheetId="10" r:id="rId10"/>
+    <sheet name="EstratégiasTestadas" sheetId="11" r:id="rId4"/>
+    <sheet name="RankingEstrategias" sheetId="4" r:id="rId5"/>
+    <sheet name="DataFraneVulnerabilidade" sheetId="5" r:id="rId6"/>
+    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId7"/>
+    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId8"/>
+    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId9"/>
+    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId10"/>
+    <sheet name="RankingGeral" sheetId="10" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DataFraneVulnerabilidade!$A$1:$AM$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EstratégiasTestadas!$A$1:$D$56</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="234">
   <si>
     <t>Variavel</t>
   </si>
@@ -737,12 +742,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0_ ;\-[$$-409]#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0_ ;\-[$$-409]#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -803,6 +808,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -854,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,7 +883,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,34 +892,16 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -920,31 +913,31 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -971,7 +964,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -981,33 +974,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1016,11 +1009,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4657,629 +4683,1478 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="22">
+        <v>16.5098202043628</v>
+      </c>
+      <c r="C2" s="22">
+        <v>17.623500231799301</v>
+      </c>
+      <c r="D2" s="22">
+        <v>6.82471403788945</v>
+      </c>
+      <c r="E2" s="22">
+        <v>20.2820399102858</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="22">
+        <v>16.501514370516901</v>
+      </c>
+      <c r="C3" s="22">
+        <v>17.432290136330099</v>
+      </c>
+      <c r="D3" s="22">
+        <v>6.9678607192042303</v>
+      </c>
+      <c r="E3" s="22">
+        <v>21.1959921218461</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="22">
+        <v>14.093809585171799</v>
+      </c>
+      <c r="C4" s="22">
+        <v>15.1934570375387</v>
+      </c>
+      <c r="D4" s="22">
+        <v>3.46111872265447</v>
+      </c>
+      <c r="E4" s="22">
+        <v>18.614990941272001</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.97979797979798</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="22">
+        <v>6.4312639251115202</v>
+      </c>
+      <c r="C5" s="22">
+        <v>6.5198831799004404</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3.5257219241362301</v>
+      </c>
+      <c r="E5" s="22">
+        <v>9.5537170186149005</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.95959595959596</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="22">
+        <v>5.8694700709837502</v>
+      </c>
+      <c r="C6" s="22">
+        <v>5.9053968620211803</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1.4553812189683399</v>
+      </c>
+      <c r="E6" s="22">
+        <v>9.3279416782236595</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.92929292929292895</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2.1455090119626501</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2.0433946873017499</v>
+      </c>
+      <c r="D7" s="22">
+        <v>-0.83020804737795595</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4.6542899391530401</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.47474747474747497</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1.4647824502139699</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1.53701455179029</v>
+      </c>
+      <c r="D8" s="22">
+        <v>4.3209683461856697E-2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>3.3834870021044199</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1.39885028668013</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1.3807498826187099</v>
+      </c>
+      <c r="D9" s="22">
+        <v>-0.48792378674252002</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3.1322666039800899</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1.09767081422913</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1.00102148827326</v>
+      </c>
+      <c r="D10" s="22">
+        <v>-8.03028550382692E-2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>2.0500381306361399</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1.0746167537976099</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.87144424225393902</v>
+      </c>
+      <c r="D11" s="22">
+        <v>-0.849350190274335</v>
+      </c>
+      <c r="E11" s="22">
+        <v>2.50869676508926</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.56614986627779695</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.56699935648059396</v>
+      </c>
+      <c r="D12" s="22">
+        <v>-1.0724051221270801</v>
+      </c>
+      <c r="E12" s="22">
+        <v>2.1522120408542702</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0.24952131145838999</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.33443324211754999</v>
+      </c>
+      <c r="D13" s="22">
+        <v>-1.5998223922666299</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.6103239368086999</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="22">
+        <v>0.15889392611290001</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.23473150839982801</v>
+      </c>
+      <c r="D14" s="22">
+        <v>-1.05366035070939</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1.2551816355646199</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0.23983351329581801</v>
+      </c>
+      <c r="C15" s="22">
+        <v>3.1881607107873002E-2</v>
+      </c>
+      <c r="D15" s="22">
+        <v>-1.9308112968604301</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3.2189069037481799</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="22">
+        <v>-0.52774327170384605</v>
+      </c>
+      <c r="C16" s="22">
+        <v>-0.19937023443162699</v>
+      </c>
+      <c r="D16" s="22">
+        <v>-1.76378446305817</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.60633256687539505</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="22">
+        <v>-3.6395549655044601E-2</v>
+      </c>
+      <c r="C17" s="22">
+        <v>-0.20958498057814501</v>
+      </c>
+      <c r="D17" s="22">
+        <v>-1.65152651044899</v>
+      </c>
+      <c r="E17" s="22">
+        <v>2.21918554255888</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="22">
+        <v>-0.22876798334840201</v>
+      </c>
+      <c r="C18" s="22">
+        <v>-0.222215104017601</v>
+      </c>
+      <c r="D18" s="22">
+        <v>-1.4446227471289901</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.86022993449108098</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="22">
+        <v>-0.43418965127006298</v>
+      </c>
+      <c r="C19" s="22">
+        <v>-0.255339995197917</v>
+      </c>
+      <c r="D19" s="22">
+        <v>-1.63046566545309</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.69976462330272005</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="22">
+        <v>-0.62209831802111404</v>
+      </c>
+      <c r="C20" s="22">
+        <v>-0.34265055176895798</v>
+      </c>
+      <c r="D20" s="22">
+        <v>-2.0974037195995798</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.55312394704042001</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="22">
+        <v>-0.32538219684495601</v>
+      </c>
+      <c r="C21" s="22">
+        <v>-0.38410087832193701</v>
+      </c>
+      <c r="D21" s="22">
+        <v>-1.90279514992077</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1.16491980082212</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="22">
+        <v>-0.61367153899592997</v>
+      </c>
+      <c r="C22" s="22">
+        <v>-0.40483690107079001</v>
+      </c>
+      <c r="D22" s="22">
+        <v>-2.47946783356109</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.907654068111866</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="22">
+        <v>-0.28069079898927002</v>
+      </c>
+      <c r="C23" s="22">
+        <v>-0.40575264524551102</v>
+      </c>
+      <c r="D23" s="22">
+        <v>-1.9313087884087401</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1.0548776480759601</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="22">
+        <v>-0.302004968641436</v>
+      </c>
+      <c r="C24" s="22">
+        <v>-0.45653871758522102</v>
+      </c>
+      <c r="D24" s="22">
+        <v>-2.4532323183691598</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1.9342392467837799</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="22">
+        <v>-0.44460899200253801</v>
+      </c>
+      <c r="C25" s="22">
+        <v>-0.61988275706268603</v>
+      </c>
+      <c r="D25" s="22">
+        <v>-1.86757460234797</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1.8267803125044</v>
+      </c>
+      <c r="F25" s="22">
+        <v>0</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="22">
+        <v>-0.58284247184708604</v>
+      </c>
+      <c r="C26" s="22">
+        <v>-0.67507951452733095</v>
+      </c>
+      <c r="D26" s="22">
+        <v>-1.5282105995200601</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.54948977846591496</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="22">
+        <v>-0.56638515167632797</v>
+      </c>
+      <c r="C27" s="22">
+        <v>-0.69399334795897605</v>
+      </c>
+      <c r="D27" s="22">
+        <v>-2.20837352529291</v>
+      </c>
+      <c r="E27" s="22">
+        <v>1.71194164745299</v>
+      </c>
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="22">
+        <v>-0.43761572749946598</v>
+      </c>
+      <c r="C28" s="22">
+        <v>-0.70198591572462399</v>
+      </c>
+      <c r="D28" s="22">
+        <v>-2.1322136570421102</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2.2459933168102602</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="22">
+        <v>-0.734314623872381</v>
+      </c>
+      <c r="C29" s="22">
+        <v>-0.72206686061791903</v>
+      </c>
+      <c r="D29" s="22">
+        <v>-1.90951049876523</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0.28879948197045502</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="22">
+        <v>-0.67649780793466796</v>
+      </c>
+      <c r="C30" s="22">
+        <v>-0.76735657401795798</v>
+      </c>
+      <c r="D30" s="22">
+        <v>-2.0194072213907401</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0.275879670851784</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="22">
+        <v>-0.65119326854341297</v>
+      </c>
+      <c r="C31" s="22">
+        <v>-0.77902570373932101</v>
+      </c>
+      <c r="D31" s="22">
+        <v>-2.0872283075322602</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1.5389245429706899</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="22">
+        <v>-0.58273052488649701</v>
+      </c>
+      <c r="C32" s="22">
+        <v>-0.79941907805586998</v>
+      </c>
+      <c r="D32" s="22">
+        <v>-2.99273158693879</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1.1801911793818201</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="22">
+        <v>-1.15508760243479</v>
+      </c>
+      <c r="C33" s="22">
+        <v>-0.83522043431853799</v>
+      </c>
+      <c r="D33" s="22">
+        <v>-3.6157465339930699</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0.47034203224816901</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="22">
+        <v>-0.84940938596065396</v>
+      </c>
+      <c r="C34" s="22">
+        <v>-0.837914910477074</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-2.5634162908918001</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0.79236394802051102</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="22">
+        <v>-0.84519836454740704</v>
+      </c>
+      <c r="C35" s="22">
+        <v>-0.91594754749139795</v>
+      </c>
+      <c r="D35" s="22">
+        <v>-2.75693032968615</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1.3827813411801999</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="27">
+        <v>-1.3541767603058701</v>
+      </c>
+      <c r="C36" s="27">
+        <v>-1.45580218769916</v>
+      </c>
+      <c r="D36" s="27">
+        <v>-2.4080386471297701</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0.23521545512130301</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
-    <col min="2" max="5" width="30.28515625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="5" width="30.28515625" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="54" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="54" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="54" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="54" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="54" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="54" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="54" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="54" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="54" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="54" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="54" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="54" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="54" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="54" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="54" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="54" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="54" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="35">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="54" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="54" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="54" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="54" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="54" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="35">
+      <c r="A35" s="29">
         <v>34</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="54" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="30">
         <v>35</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="55" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6202,6 +7077,978 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52479EB4-2AB3-4CF9-9C0C-258FE2EA664C}">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="3" max="5" width="15" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62">
+        <v>2</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62">
+        <v>3</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62">
+        <v>4</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>5</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>6</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>7</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>9</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>10</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
+        <v>11</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
+        <v>12</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62">
+        <v>13</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62">
+        <v>14</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62">
+        <v>15</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62">
+        <v>16</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62">
+        <v>17</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
+        <v>18</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62">
+        <v>19</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
+        <v>20</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62">
+        <v>21</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62">
+        <v>22</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62">
+        <v>23</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
+        <v>24</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="62">
+        <v>25</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="62">
+        <v>26</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
+        <v>27</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E29" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="62">
+        <v>28</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62">
+        <v>29</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E31" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="62">
+        <v>30</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E32" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62">
+        <v>31</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E33" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62">
+        <v>32</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D34" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E34" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="62">
+        <v>33</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
+        <v>34</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D36" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E36" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="62">
+        <v>35</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D37" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="62">
+        <v>36</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="E38" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="62">
+        <v>37</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D39" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E39" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
+        <v>38</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E40" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
+        <v>39</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D41" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E41" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="62">
+        <v>40</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D42" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E42" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62">
+        <v>41</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E43" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62">
+        <v>42</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="D44" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E44" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="62">
+        <v>43</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E45" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62">
+        <v>44</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E46" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62">
+        <v>45</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D47" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E47" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
+        <v>46</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D48" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E48" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
+        <v>47</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D49" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E49" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="62">
+        <v>48</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="D50" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E50" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62">
+        <v>49</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D51" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E51" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="62">
+        <v>50</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D52" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E52" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62">
+        <v>51</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D53" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E53" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
+        <v>52</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E54" s="63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="62">
+        <v>53</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="D55" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E55" s="63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="64">
+        <v>54</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="D56" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="E56" s="65">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -6220,46 +8067,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="57" t="s">
         <v>204</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -6285,7 +8132,7 @@
         <v>0.32409874540366401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
@@ -6312,7 +8159,7 @@
         <v>0.25411648784220803</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A56" si="0">A4+1</f>
         <v>3</v>
@@ -6339,7 +8186,7 @@
         <v>0.37788669678589198</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6366,7 +8213,7 @@
         <v>0.391308760647262</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6393,7 +8240,7 @@
         <v>0.37629160535366502</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6420,7 +8267,7 @@
         <v>0.47227357141550302</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6447,7 +8294,7 @@
         <v>0.51242624327084196</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6474,7 +8321,7 @@
         <v>0.40209566996988999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6501,7 +8348,7 @@
         <v>0.49687438679422502</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6528,7 +8375,7 @@
         <v>0.57140012797849804</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6555,7 +8402,7 @@
         <v>0.50296452841452299</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6582,7 +8429,7 @@
         <v>0.541227908475305</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6609,7 +8456,7 @@
         <v>0.59249085294473003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6636,7 +8483,7 @@
         <v>0.50033312745518999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6663,7 +8510,7 @@
         <v>0.66198497229035602</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6690,7 +8537,7 @@
         <v>0.58071424417872697</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6717,7 +8564,7 @@
         <v>0.61697708003584095</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6744,7 +8591,7 @@
         <v>0.63371381810354099</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6771,7 +8618,7 @@
         <v>0.71568014304106597</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6798,7 +8645,7 @@
         <v>0.66962866515945396</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6825,7 +8672,7 @@
         <v>0.69110819938752099</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6852,7 +8699,7 @@
         <v>0.64162954153481</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6879,7 +8726,7 @@
         <v>0.65703018223973597</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6906,7 +8753,7 @@
         <v>0.69561461091494403</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6933,7 +8780,7 @@
         <v>0.64289451533840603</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6960,7 +8807,7 @@
         <v>0.68991730576270105</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6987,7 +8834,7 @@
         <v>0.69578768937228597</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7014,7 +8861,7 @@
         <v>0.76667133338827498</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7041,7 +8888,7 @@
         <v>0.73284580964836299</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7068,7 +8915,7 @@
         <v>0.74129734181418905</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7095,7 +8942,7 @@
         <v>0.74186184002451805</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7122,7 +8969,7 @@
         <v>0.70437348031149505</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7149,7 +8996,7 @@
         <v>0.75791702244103798</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7176,7 +9023,7 @@
         <v>0.86007346882525404</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7203,7 +9050,7 @@
         <v>0.75859721903953403</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7230,7 +9077,7 @@
         <v>0.76967684131372804</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7257,7 +9104,7 @@
         <v>0.84677492111106101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7284,7 +9131,7 @@
         <v>0.79885963365771595</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7311,7 +9158,7 @@
         <v>0.85286841630743304</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7338,7 +9185,7 @@
         <v>0.83185214666297702</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7365,7 +9212,7 @@
         <v>0.82304427271908298</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7392,7 +9239,7 @@
         <v>0.79219313547191506</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7419,7 +9266,7 @@
         <v>0.84776601146345998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7446,7 +9293,7 @@
         <v>0.85034600693809503</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7473,7 +9320,7 @@
         <v>0.86215458235035303</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7500,7 +9347,7 @@
         <v>0.90824721062091396</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7527,7 +9374,7 @@
         <v>0.93253210266514897</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7554,7 +9401,7 @@
         <v>0.91046232247518599</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7581,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7608,7 +9455,7 @@
         <v>0.91039218527608801</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7635,7 +9482,7 @@
         <v>0.96362956052549098</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7662,7 +9509,7 @@
         <v>0.96464069969507404</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7689,30 +9536,30 @@
         <v>0.97334899128959895</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
+    <row r="56" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="15">
         <v>48</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="16">
         <v>0.9</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="16">
         <v>0.2</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="16">
         <v>0.15</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="17">
         <v>947271828.94380295</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7729,13 +9576,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -31657,12 +33539,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM201" xr:uid="{19BA01D5-3A27-47F5-8377-0E813554A2E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -31672,732 +33555,732 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="2.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="21">
         <v>0.22318934474818899</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="22">
         <v>74940.299622176099</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="22">
         <v>58346.431103176998</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="22">
         <v>74348.838371835896</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="21">
         <v>-0.17037563813571799</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="22">
         <v>1.2517383469502701</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="22">
         <v>1.58904441762066</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="22">
         <v>1.9797787662676301</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>-0.13108552535352699</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="22">
         <v>0.76092336103945002</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="22">
         <v>0.81303906753933697</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="22">
         <v>0.39757026078458901</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>-0.130240801940706</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="22">
         <v>1.3115809293724401</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="22">
         <v>1.56957507263463</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="22">
         <v>1.98090106493395</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="21">
         <v>0.10125507948644601</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="22">
         <v>0.17044410880671301</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="22">
         <v>0.15150639851360601</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="22">
         <v>0.18702973114195601</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="21">
         <v>9.9020112547010902E-2</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="22">
         <v>0.45638433448730398</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="22">
         <v>0.42780695964308302</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="22">
         <v>0.288601720490411</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="21">
         <v>8.8900118573121106E-2</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="22">
         <v>-7.4694917935112501</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="22">
         <v>-8.1771983299050497</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="22">
         <v>7.96069282867946</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <v>7.0186037764755904E-2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="22">
         <v>1.80551374974923</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="22">
         <v>1.62005386864241</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="22">
         <v>2.6424042019357898</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="21">
         <v>6.7226751455138595E-2</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="22">
         <v>0.10501642199742101</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="22">
         <v>9.8335995157460401E-2</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="22">
         <v>9.9371555152698396E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="21">
         <v>-6.3276388979105799E-2</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <v>9.5286215034781505E-2</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="22">
         <v>0.101603442757056</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="22">
         <v>9.9835465079406299E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="21">
         <v>5.8921254685190702E-2</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <v>2.31559188420513</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="22">
         <v>2.2278161620568602</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="22">
         <v>1.48971237318765</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="21">
         <v>5.84240453997927E-2</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="22">
         <v>2.6306651654079301</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="22">
         <v>2.4564455524522799</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="22">
         <v>2.9819847592455302</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <v>5.5184149413788297E-2</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="22">
         <v>0.43149649358581998</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="22">
         <v>0.41613702461475299</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="22">
         <v>0.27833117179893901</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="21">
         <v>-5.3803349226961901E-2</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="22">
         <v>0.72986166196971902</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="22">
         <v>0.75661422418238</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="22">
         <v>0.49722856656764602</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="21">
         <v>5.3681173669084703E-2</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="22">
         <v>0.15402440469383499</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="22">
         <v>0.14866865445918201</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="22">
         <v>9.9769618817721506E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="21">
         <v>-5.0167174964472698E-2</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="22">
         <v>0.219388687204916</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="22">
         <v>0.22685975320806601</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="22">
         <v>0.148923394798301</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="21">
         <v>-4.8076121938615102E-2</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="22">
         <v>0.46396282589368099</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="22">
         <v>0.51174756066147997</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="22">
         <v>0.99393904584925596</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <v>4.5360573411647599E-2</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="22">
         <v>10.3385232715288</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="22">
         <v>9.88619204313013</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="22">
         <v>9.9719027864513894</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="21">
         <v>4.53144153899942E-2</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="22">
         <v>0.103394215978235</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="22">
         <v>9.8878299452171206E-2</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="22">
         <v>9.9657393507077405E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="21">
         <v>3.8521449796331E-2</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="22">
         <v>0.47009533661402803</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="22">
         <v>0.44331271479282702</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="22">
         <v>0.69526515649864495</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="21">
         <v>-2.45491996918695E-2</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="22">
         <v>0.48177785459726602</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="22">
         <v>0.50622402374762998</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="22">
         <v>0.99580309978337</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="21">
         <v>-2.3243910220769499E-2</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="22">
         <v>0.74135279709406898</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="22">
         <v>0.75291540621337905</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="22">
         <v>0.49744681550946601</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <v>-2.2178999836945702E-2</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="22">
         <v>1966941.0092583899</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="22">
         <v>2011218.25334153</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="22">
         <v>1996358.9164824199</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="21">
         <v>-2.1459276116648399E-2</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="22">
         <v>0.93261363592520596</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="22">
         <v>0.95608636529116997</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="22">
         <v>1.0938267087095901</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="21">
         <v>1.9812321081650899E-2</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="22">
         <v>-7.8813759019110297</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="22">
         <v>-8.0392381267778603</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="22">
         <v>7.9678814115841003</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="21">
         <v>-1.8486548734765799E-2</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="22">
         <v>2.4454082762457599E-2</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="22">
         <v>2.4909107050426999E-2</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="22">
         <v>2.4613804041944701E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="21">
         <v>-1.7219093902939402E-2</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="22">
         <v>0.48707063653308402</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="22">
         <v>0.50423835092301805</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="22">
         <v>0.99701613143552104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <v>1.69082195696738E-2</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="22">
         <v>5.6382165320290698E-3</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="22">
         <v>5.4533833454364598E-3</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="22">
         <v>1.09315582182363E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="35">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="21">
         <v>1.69060989755738E-2</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="22">
         <v>-3.9499622959953702</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="22">
         <v>-4.0171005493166199</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="22">
         <v>3.97124454424717</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="21">
         <v>1.4488687135018699E-2</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="22">
         <v>0.45326609100925302</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="22">
         <v>0.44894015931162301</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="22">
         <v>0.29857306306064102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="21">
         <v>-1.1880421684131301E-2</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="22">
         <v>0.84735667217481603</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="22">
         <v>0.85090323033877202</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="22">
         <v>0.29852123588277002</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="21">
         <v>1.18534295418312E-2</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="22">
         <v>1.52289074532812</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="22">
         <v>1.4994090590576099</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="22">
         <v>1.98100357264851</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <v>1.0358221174562501E-2</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="22">
         <v>-0.246114779105782</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="22">
         <v>-0.25128679227951201</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="22">
         <v>0.49931480382278098</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="35">
+      <c r="A35" s="29">
         <v>34</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="21">
         <v>-1.0268852518567601E-2</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="22">
         <v>0.49235750836909298</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="22">
         <v>0.50257785979770897</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="22">
         <v>0.99527687345165805</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="30">
         <v>35</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="26">
         <v>3.7583641481433801E-3</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="27">
         <v>0.12572540192363099</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="27">
         <v>0.12479147982252201</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="27">
         <v>0.24849164804065399</v>
       </c>
     </row>
@@ -32407,7 +34290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -32417,1236 +34300,1236 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="13" style="35" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="43" customWidth="1"/>
-    <col min="7" max="7" width="18" style="26" customWidth="1"/>
-    <col min="8" max="9" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="2.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13" style="29" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="18" style="20" customWidth="1"/>
+    <col min="8" max="9" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="str">
+      <c r="B2" s="20" t="str">
         <f>J2&amp;G2</f>
         <v>aReferencePopulation**</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="36">
         <v>1.3226983361602701E-7</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="36">
         <v>-5.6461858270089698</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="37">
         <v>58346.431103176998</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="37">
         <v>74940.299622176099</v>
       </c>
-      <c r="G2" s="26" t="str">
+      <c r="G2" s="20" t="str">
         <f>IF(I2,"**",IF(H2,"*",""))</f>
         <v>**</v>
       </c>
-      <c r="H2" s="26" t="b">
+      <c r="H2" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="26" t="b">
+      <c r="I2" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="20" t="str">
         <f t="shared" ref="B3:B36" si="0">J3&amp;G3</f>
         <v>aSwitchForCapacityStrategy2**</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="36">
         <v>6.6123182309775301E-4</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="36">
         <v>3.5469926975150701</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="37">
         <v>1.58904441762066</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="37">
         <v>1.2517383469502701</v>
       </c>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="20" t="str">
         <f t="shared" ref="G3:G36" si="1">IF(I3,"**",IF(H3,"*",""))</f>
         <v>**</v>
       </c>
-      <c r="H3" s="26" t="b">
+      <c r="H3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="26" t="b">
+      <c r="I3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aNormalCapacityUtilization**</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="36">
         <v>3.1222431043542299E-3</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="36">
         <v>3.0312099348112902</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <v>0.81303906753933697</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="37">
         <v>0.76092336103945002</v>
       </c>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>**</v>
       </c>
-      <c r="H4" s="26" t="b">
+      <c r="H4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="26" t="b">
+      <c r="I4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aSwitchForCapacityStrategy4**</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="36">
         <v>3.1810576841710598E-3</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="36">
         <v>3.0245086679384201</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="37">
         <v>1.56957507263463</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="37">
         <v>1.3115809293724401</v>
       </c>
-      <c r="G5" s="26" t="str">
+      <c r="G5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>**</v>
       </c>
-      <c r="H5" s="26" t="b">
+      <c r="H5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="26" t="b">
+      <c r="I5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aDesiredMarketShare2*</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="36">
         <v>3.6529700672677599E-2</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="36">
         <v>-2.1243486684298998</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <v>0.42780695964308302</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="37">
         <v>0.45638433448730398</v>
       </c>
-      <c r="G6" s="26" t="str">
+      <c r="G6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H6" s="26" t="b">
+      <c r="H6" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aVolumeReportingDelay*</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="36">
         <v>3.7498446344432002E-2</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="36">
         <v>-2.1149100299111199</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="37">
         <v>0.15150639851360601</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="37">
         <v>0.17044410880671301</v>
       </c>
-      <c r="G7" s="26" t="str">
+      <c r="G7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="H7" s="26" t="b">
+      <c r="H7" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aSensOfAttractToPrice</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="36">
         <v>8.8810799403604895E-2</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="36">
         <v>-1.7246102031784001</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="37">
         <v>-8.1771983299050497</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="37">
         <v>-7.4694917935112501</v>
       </c>
-      <c r="G8" s="26" t="str">
+      <c r="G8" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H8" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26" t="s">
+      <c r="H8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aRatioOfFixedToVarCost</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="36">
         <v>0.15737292739388001</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="36">
         <v>-1.4274299123529699</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="37">
         <v>1.62005386864241</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="37">
         <v>1.80551374974923</v>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H9" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="26" t="s">
+      <c r="H9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="str">
+      <c r="B10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aOrcamentoPeD4</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="36">
         <v>0.16231498219960999</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="36">
         <v>-1.4098244631153101</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="37">
         <v>9.8335995157460401E-2</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="37">
         <v>0.10501642199742101</v>
       </c>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H10" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26" t="s">
+      <c r="H10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="str">
+      <c r="B11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aOrcamentoPeD3</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="36">
         <v>0.17622389233869901</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="36">
         <v>1.36358841065081</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="37">
         <v>0.101603442757056</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="37">
         <v>9.5286215034781505E-2</v>
       </c>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="26" t="s">
+      <c r="H11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aTempoMedioRealizacaoPeD</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="36">
         <v>0.213720212642104</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="36">
         <v>-1.2526062373201401</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="37">
         <v>2.4564455524522799</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="37">
         <v>2.6306651654079301</v>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H12" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26" t="s">
+      <c r="H12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aDesiredMarketShare4</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="36">
         <v>0.22527067470595499</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <v>-1.22083438003154</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="37">
         <v>0.41613702461475299</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="37">
         <v>0.43149649358581998</v>
       </c>
-      <c r="G13" s="26" t="str">
+      <c r="G13" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="H13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aTempoMedioAvaliacao</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="36">
         <v>0.22555481642825001</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>-1.2210832320045999</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="37">
         <v>2.2278161620568602</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="37">
         <v>2.31559188420513</v>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="H14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aFractionalDiscardRate</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="36">
         <v>0.27241834306303297</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <v>-1.1050809668111601</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="37">
         <v>0.14866865445918201</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="37">
         <v>0.15402440469383499</v>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26" t="s">
+      <c r="H15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aCapacityAcquisitionDelay</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="36">
         <v>0.27397275125669002</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="36">
         <v>1.1015067454418099</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="37">
         <v>0.75661422418238</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="37">
         <v>0.72986166196971902</v>
       </c>
-      <c r="G16" s="26" t="str">
+      <c r="G16" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H16" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="26" t="s">
+      <c r="H16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aReferenceIndustryDemandElasticity</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <v>0.29094806299884701</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>1.06215902106027</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="37">
         <v>0.51174756066147997</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="37">
         <v>0.46396282589368099</v>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="H17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aDesiredMarketShare3</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="36">
         <v>0.30868744024439398</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="36">
         <v>1.0244850294813801</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="37">
         <v>0.22685975320806601</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="37">
         <v>0.219388687204916</v>
       </c>
-      <c r="G18" s="26" t="str">
+      <c r="G18" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H18" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="26" t="s">
+      <c r="H18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aOrcamentoPeD2</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="36">
         <v>0.31317454782008902</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="36">
         <v>-1.01404303559366</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="37">
         <v>9.8878299452171206E-2</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="37">
         <v>0.103394215978235</v>
       </c>
-      <c r="G19" s="26" t="str">
+      <c r="G19" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="26" t="s">
+      <c r="H19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aTempodeInutilizacaoPatente</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="36">
         <v>0.34542505146040398</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="36">
         <v>-0.94890857504941195</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="37">
         <v>9.88619204313013</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="37">
         <v>10.3385232715288</v>
       </c>
-      <c r="G20" s="26" t="str">
+      <c r="G20" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H20" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="26" t="s">
+      <c r="H20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aInitialReorderShare</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="36">
         <v>0.40489162750562402</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="36">
         <v>-0.83689025515025095</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="37">
         <v>0.44331271479282702</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="37">
         <v>0.47009533661402803</v>
       </c>
-      <c r="G21" s="26" t="str">
+      <c r="G21" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="26" t="s">
+      <c r="H21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aPercPeDAberto3</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="36">
         <v>0.5919307017955</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="36">
         <v>0.537952487444606</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="37">
         <v>0.50622402374762998</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="37">
         <v>0.48177785459726602</v>
       </c>
-      <c r="G22" s="26" t="str">
+      <c r="G22" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H22" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="26" t="s">
+      <c r="H22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aSensOfPriceToCosts</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="36">
         <v>0.63757358848231305</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="36">
         <v>0.47290421117060799</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="37">
         <v>0.75291540621337905</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="37">
         <v>0.74135279709406898</v>
       </c>
-      <c r="G23" s="26" t="str">
+      <c r="G23" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H23" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="26" t="s">
+      <c r="H23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aCustoMedioPatente</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="36">
         <v>0.64311957014455101</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="36">
         <v>0.46503520384725</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="37">
         <v>2011218.25334153</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="37">
         <v>1966941.0092583899</v>
       </c>
-      <c r="G24" s="26" t="str">
+      <c r="G24" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H24" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="26" t="s">
+      <c r="H24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="str">
+      <c r="B25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aSensOfAttractToPerformance</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="36">
         <v>0.65144088591708604</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="36">
         <v>-0.45314901099881699</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="37">
         <v>-8.0392381267778603</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="37">
         <v>-7.8813759019110297</v>
       </c>
-      <c r="G25" s="26" t="str">
+      <c r="G25" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H25" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="26" t="s">
+      <c r="H25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aWOMStrength</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="36">
         <v>0.65778678461290296</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="36">
         <v>0.44458913111954801</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="37">
         <v>0.95608636529116997</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="37">
         <v>0.93261363592520596</v>
       </c>
-      <c r="G26" s="26" t="str">
+      <c r="G26" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H26" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="26" t="s">
+      <c r="H26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="str">
+      <c r="B27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aPercPeDAberto2</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="36">
         <v>0.71175736274814905</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="36">
         <v>0.37070222175292999</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="37">
         <v>0.50423835092301805</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="37">
         <v>0.48707063653308402</v>
       </c>
-      <c r="G27" s="26" t="str">
+      <c r="G27" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H27" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="26" t="s">
+      <c r="H27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="str">
+      <c r="B28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aInnovatorAdoptionFraction</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="36">
         <v>0.72314979972520499</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="36">
         <v>-0.35543713212330103</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="37">
         <v>5.4533833454364598E-3</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="37">
         <v>5.6382165320290698E-3</v>
       </c>
-      <c r="G28" s="26" t="str">
+      <c r="G28" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H28" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="26" t="s">
+      <c r="H28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="str">
+      <c r="B29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aPerfSlope</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="36">
         <v>0.72451253894693801</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="36">
         <v>0.35379466626588602</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="37">
         <v>2.4909107050426999E-2</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="37">
         <v>2.4454082762457599E-2</v>
       </c>
-      <c r="G29" s="26" t="str">
+      <c r="G29" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H29" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="26" t="s">
+      <c r="H29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="35">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="str">
+      <c r="B30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aSensOfAttractToAvailability</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="36">
         <v>0.72940079246415201</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="36">
         <v>-0.34711905216921801</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="37">
         <v>-4.0171005493166199</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="37">
         <v>-3.9499622959953702</v>
       </c>
-      <c r="G30" s="26" t="str">
+      <c r="G30" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H30" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="26" t="s">
+      <c r="H30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="str">
+      <c r="B31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aTaxaRejeicao</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="36">
         <v>0.75625376579364101</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="36">
         <v>-0.31137883321473597</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="37">
         <v>0.44894015931162301</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="37">
         <v>0.45326609100925302</v>
       </c>
-      <c r="G31" s="26" t="str">
+      <c r="G31" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H31" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="26" t="s">
+      <c r="H31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="26" t="str">
+      <c r="B32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aSwitchForCapacityStrategy3</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="36">
         <v>0.79447105168935495</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="36">
         <v>-0.26127021164999897</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="37">
         <v>1.4994090590576099</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="37">
         <v>1.52289074532812</v>
       </c>
-      <c r="G32" s="26" t="str">
+      <c r="G32" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H32" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="26" t="s">
+      <c r="H32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="26" t="str">
+      <c r="B33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aLCStrength</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="36">
         <v>0.80222706744064798</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="36">
         <v>0.25124907543247299</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="37">
         <v>0.85090323033877202</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="37">
         <v>0.84735667217481603</v>
       </c>
-      <c r="G33" s="26" t="str">
+      <c r="G33" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H33" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="26" t="s">
+      <c r="H33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="26" t="str">
+      <c r="B34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aPercPeDAberto4</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="36">
         <v>0.819873378067417</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="36">
         <v>0.228351405772062</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="37">
         <v>0.50257785979770897</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="37">
         <v>0.49235750836909298</v>
       </c>
-      <c r="G34" s="26" t="str">
+      <c r="G34" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H34" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="26" t="s">
+      <c r="H34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="35">
+      <c r="A35" s="29">
         <v>34</v>
       </c>
-      <c r="B35" s="26" t="str">
+      <c r="B35" s="20" t="str">
         <f t="shared" si="0"/>
         <v>aSensOfPriceToShare</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="36">
         <v>0.83480211693236905</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="36">
         <v>-0.209242071689767</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="37">
         <v>-0.25128679227951201</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="37">
         <v>-0.246114779105782</v>
       </c>
-      <c r="G35" s="26" t="str">
+      <c r="G35" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H35" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="26" t="s">
+      <c r="H35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="30">
         <v>35</v>
       </c>
-      <c r="B36" s="31" t="str">
+      <c r="B36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>aSensOfPriceToDSBalance</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="42">
         <v>0.94027165749864905</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="42">
         <v>-7.5171076687715901E-2</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="43">
         <v>0.12479147982252201</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="43">
         <v>0.12572540192363099</v>
       </c>
-      <c r="G36" s="26" t="str">
+      <c r="G36" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H36" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="26" t="s">
+      <c r="H36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -33656,7 +35539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -33668,18 +35551,18 @@
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="50" customWidth="1"/>
+    <col min="3" max="3" width="20" style="44" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>200</v>
       </c>
     </row>
@@ -33690,7 +35573,7 @@
       <c r="B2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="44">
         <v>6.8339570065970898</v>
       </c>
     </row>
@@ -33701,7 +35584,7 @@
       <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="44">
         <v>6.0234597831008001</v>
       </c>
     </row>
@@ -33712,7 +35595,7 @@
       <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="44">
         <v>4.1347067054697701</v>
       </c>
     </row>
@@ -33723,7 +35606,7 @@
       <c r="B5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="44">
         <v>3.7252434659151898</v>
       </c>
     </row>
@@ -33734,7 +35617,7 @@
       <c r="B6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="44">
         <v>3.4395380134651501</v>
       </c>
     </row>
@@ -33745,7 +35628,7 @@
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="44">
         <v>2.6743241497297601</v>
       </c>
     </row>
@@ -33756,7 +35639,7 @@
       <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="44">
         <v>2.4325415785039799</v>
       </c>
     </row>
@@ -33767,7 +35650,7 @@
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="44">
         <v>2.4265579241542801</v>
       </c>
     </row>
@@ -33778,7 +35661,7 @@
       <c r="B10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="44">
         <v>2.2629501905001002</v>
       </c>
     </row>
@@ -33789,7 +35672,7 @@
       <c r="B11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="44">
         <v>1.8687406448388799</v>
       </c>
     </row>
@@ -33800,7 +35683,7 @@
       <c r="B12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="44">
         <v>1.81331965214988</v>
       </c>
     </row>
@@ -33811,7 +35694,7 @@
       <c r="B13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="44">
         <v>1.7901665979630399</v>
       </c>
     </row>
@@ -33822,7 +35705,7 @@
       <c r="B14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="44">
         <v>1.7770098045368199</v>
       </c>
     </row>
@@ -33833,7 +35716,7 @@
       <c r="B15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="44">
         <v>1.7665237283286701</v>
       </c>
     </row>
@@ -33844,7 +35727,7 @@
       <c r="B16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="44">
         <v>1.76463166115576</v>
       </c>
     </row>
@@ -33855,7 +35738,7 @@
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="44">
         <v>1.73338875669904</v>
       </c>
     </row>
@@ -33866,7 +35749,7 @@
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="44">
         <v>1.7316776882285601</v>
       </c>
     </row>
@@ -33877,7 +35760,7 @@
       <c r="B19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="44">
         <v>1.7284907243997201</v>
       </c>
     </row>
@@ -33888,7 +35771,7 @@
       <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="44">
         <v>1.7275044643671</v>
       </c>
     </row>
@@ -33899,7 +35782,7 @@
       <c r="B21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="44">
         <v>1.68061312282124</v>
       </c>
     </row>
@@ -33910,7 +35793,7 @@
       <c r="B22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="44">
         <v>1.6725684469289299</v>
       </c>
     </row>
@@ -33921,7 +35804,7 @@
       <c r="B23" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="44">
         <v>1.66036205983412</v>
       </c>
     </row>
@@ -33932,7 +35815,7 @@
       <c r="B24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="44">
         <v>1.64234589474955</v>
       </c>
     </row>
@@ -33943,7 +35826,7 @@
       <c r="B25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="44">
         <v>1.5969804764854301</v>
       </c>
     </row>
@@ -33954,7 +35837,7 @@
       <c r="B26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="44">
         <v>1.58160103578181</v>
       </c>
     </row>
@@ -33965,7 +35848,7 @@
       <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="44">
         <v>1.5032365152634899</v>
       </c>
     </row>
@@ -33976,7 +35859,7 @@
       <c r="B28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="44">
         <v>1.4894908561015101</v>
       </c>
     </row>
@@ -33987,7 +35870,7 @@
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="44">
         <v>1.46157558683504</v>
       </c>
     </row>
@@ -33998,7 +35881,7 @@
       <c r="B30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="44">
         <v>1.40143099803079</v>
       </c>
     </row>
@@ -34009,7 +35892,7 @@
       <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="44">
         <v>1.3738208127156399</v>
       </c>
     </row>
@@ -34020,7 +35903,7 @@
       <c r="B32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="44">
         <v>1.2836440865684899</v>
       </c>
     </row>
@@ -34031,7 +35914,7 @@
       <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="44">
         <v>1.21225739319366</v>
       </c>
     </row>
@@ -34042,7 +35925,7 @@
       <c r="B34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="44">
         <v>1.1882711025281301</v>
       </c>
     </row>
@@ -34053,868 +35936,19 @@
       <c r="B35" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="44">
         <v>1.1855282301641199</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="54">
+      <c r="A36" s="48">
         <v>35</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="50">
         <v>1.1812208418944701</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="28">
-        <v>16.5098202043628</v>
-      </c>
-      <c r="C2" s="28">
-        <v>17.623500231799301</v>
-      </c>
-      <c r="D2" s="28">
-        <v>6.82471403788945</v>
-      </c>
-      <c r="E2" s="28">
-        <v>20.2820399102858</v>
-      </c>
-      <c r="F2" s="28">
-        <v>1</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="28">
-        <v>16.501514370516901</v>
-      </c>
-      <c r="C3" s="28">
-        <v>17.432290136330099</v>
-      </c>
-      <c r="D3" s="28">
-        <v>6.9678607192042303</v>
-      </c>
-      <c r="E3" s="28">
-        <v>21.1959921218461</v>
-      </c>
-      <c r="F3" s="28">
-        <v>1</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="28">
-        <v>14.093809585171799</v>
-      </c>
-      <c r="C4" s="28">
-        <v>15.1934570375387</v>
-      </c>
-      <c r="D4" s="28">
-        <v>3.46111872265447</v>
-      </c>
-      <c r="E4" s="28">
-        <v>18.614990941272001</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0.97979797979798</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="28">
-        <v>6.4312639251115202</v>
-      </c>
-      <c r="C5" s="28">
-        <v>6.5198831799004404</v>
-      </c>
-      <c r="D5" s="28">
-        <v>3.5257219241362301</v>
-      </c>
-      <c r="E5" s="28">
-        <v>9.5537170186149005</v>
-      </c>
-      <c r="F5" s="28">
-        <v>0.95959595959596</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="28">
-        <v>5.8694700709837502</v>
-      </c>
-      <c r="C6" s="28">
-        <v>5.9053968620211803</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1.4553812189683399</v>
-      </c>
-      <c r="E6" s="28">
-        <v>9.3279416782236595</v>
-      </c>
-      <c r="F6" s="28">
-        <v>0.92929292929292895</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="28">
-        <v>2.1455090119626501</v>
-      </c>
-      <c r="C7" s="28">
-        <v>2.0433946873017499</v>
-      </c>
-      <c r="D7" s="28">
-        <v>-0.83020804737795595</v>
-      </c>
-      <c r="E7" s="28">
-        <v>4.6542899391530401</v>
-      </c>
-      <c r="F7" s="28">
-        <v>0.47474747474747497</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="28">
-        <v>1.4647824502139699</v>
-      </c>
-      <c r="C8" s="28">
-        <v>1.53701455179029</v>
-      </c>
-      <c r="D8" s="28">
-        <v>4.3209683461856697E-2</v>
-      </c>
-      <c r="E8" s="28">
-        <v>3.3834870021044199</v>
-      </c>
-      <c r="F8" s="28">
-        <v>0</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="28">
-        <v>1.39885028668013</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1.3807498826187099</v>
-      </c>
-      <c r="D9" s="28">
-        <v>-0.48792378674252002</v>
-      </c>
-      <c r="E9" s="28">
-        <v>3.1322666039800899</v>
-      </c>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="28">
-        <v>1.09767081422913</v>
-      </c>
-      <c r="C10" s="28">
-        <v>1.00102148827326</v>
-      </c>
-      <c r="D10" s="28">
-        <v>-8.03028550382692E-2</v>
-      </c>
-      <c r="E10" s="28">
-        <v>2.0500381306361399</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="28">
-        <v>1.0746167537976099</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0.87144424225393902</v>
-      </c>
-      <c r="D11" s="28">
-        <v>-0.849350190274335</v>
-      </c>
-      <c r="E11" s="28">
-        <v>2.50869676508926</v>
-      </c>
-      <c r="F11" s="28">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="28">
-        <v>0.56614986627779695</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0.56699935648059396</v>
-      </c>
-      <c r="D12" s="28">
-        <v>-1.0724051221270801</v>
-      </c>
-      <c r="E12" s="28">
-        <v>2.1522120408542702</v>
-      </c>
-      <c r="F12" s="28">
-        <v>0</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0.24952131145838999</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0.33443324211754999</v>
-      </c>
-      <c r="D13" s="28">
-        <v>-1.5998223922666299</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1.6103239368086999</v>
-      </c>
-      <c r="F13" s="28">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0.15889392611290001</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0.23473150839982801</v>
-      </c>
-      <c r="D14" s="28">
-        <v>-1.05366035070939</v>
-      </c>
-      <c r="E14" s="28">
-        <v>1.2551816355646199</v>
-      </c>
-      <c r="F14" s="28">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0.23983351329581801</v>
-      </c>
-      <c r="C15" s="28">
-        <v>3.1881607107873002E-2</v>
-      </c>
-      <c r="D15" s="28">
-        <v>-1.9308112968604301</v>
-      </c>
-      <c r="E15" s="28">
-        <v>3.2189069037481799</v>
-      </c>
-      <c r="F15" s="28">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="28">
-        <v>-0.52774327170384605</v>
-      </c>
-      <c r="C16" s="28">
-        <v>-0.19937023443162699</v>
-      </c>
-      <c r="D16" s="28">
-        <v>-1.76378446305817</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0.60633256687539505</v>
-      </c>
-      <c r="F16" s="28">
-        <v>0</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="28">
-        <v>-3.6395549655044601E-2</v>
-      </c>
-      <c r="C17" s="28">
-        <v>-0.20958498057814501</v>
-      </c>
-      <c r="D17" s="28">
-        <v>-1.65152651044899</v>
-      </c>
-      <c r="E17" s="28">
-        <v>2.21918554255888</v>
-      </c>
-      <c r="F17" s="28">
-        <v>0</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="28">
-        <v>-0.22876798334840201</v>
-      </c>
-      <c r="C18" s="28">
-        <v>-0.222215104017601</v>
-      </c>
-      <c r="D18" s="28">
-        <v>-1.4446227471289901</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.86022993449108098</v>
-      </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="28">
-        <v>-0.43418965127006298</v>
-      </c>
-      <c r="C19" s="28">
-        <v>-0.255339995197917</v>
-      </c>
-      <c r="D19" s="28">
-        <v>-1.63046566545309</v>
-      </c>
-      <c r="E19" s="28">
-        <v>0.69976462330272005</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="28">
-        <v>-0.62209831802111404</v>
-      </c>
-      <c r="C20" s="28">
-        <v>-0.34265055176895798</v>
-      </c>
-      <c r="D20" s="28">
-        <v>-2.0974037195995798</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.55312394704042001</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="28">
-        <v>-0.32538219684495601</v>
-      </c>
-      <c r="C21" s="28">
-        <v>-0.38410087832193701</v>
-      </c>
-      <c r="D21" s="28">
-        <v>-1.90279514992077</v>
-      </c>
-      <c r="E21" s="28">
-        <v>1.16491980082212</v>
-      </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="28">
-        <v>-0.61367153899592997</v>
-      </c>
-      <c r="C22" s="28">
-        <v>-0.40483690107079001</v>
-      </c>
-      <c r="D22" s="28">
-        <v>-2.47946783356109</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0.907654068111866</v>
-      </c>
-      <c r="F22" s="28">
-        <v>0</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="28">
-        <v>-0.28069079898927002</v>
-      </c>
-      <c r="C23" s="28">
-        <v>-0.40575264524551102</v>
-      </c>
-      <c r="D23" s="28">
-        <v>-1.9313087884087401</v>
-      </c>
-      <c r="E23" s="28">
-        <v>1.0548776480759601</v>
-      </c>
-      <c r="F23" s="28">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="28">
-        <v>-0.302004968641436</v>
-      </c>
-      <c r="C24" s="28">
-        <v>-0.45653871758522102</v>
-      </c>
-      <c r="D24" s="28">
-        <v>-2.4532323183691598</v>
-      </c>
-      <c r="E24" s="28">
-        <v>1.9342392467837799</v>
-      </c>
-      <c r="F24" s="28">
-        <v>0</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="28">
-        <v>-0.44460899200253801</v>
-      </c>
-      <c r="C25" s="28">
-        <v>-0.61988275706268603</v>
-      </c>
-      <c r="D25" s="28">
-        <v>-1.86757460234797</v>
-      </c>
-      <c r="E25" s="28">
-        <v>1.8267803125044</v>
-      </c>
-      <c r="F25" s="28">
-        <v>0</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="28">
-        <v>-0.58284247184708604</v>
-      </c>
-      <c r="C26" s="28">
-        <v>-0.67507951452733095</v>
-      </c>
-      <c r="D26" s="28">
-        <v>-1.5282105995200601</v>
-      </c>
-      <c r="E26" s="28">
-        <v>0.54948977846591496</v>
-      </c>
-      <c r="F26" s="28">
-        <v>0</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="28">
-        <v>-0.56638515167632797</v>
-      </c>
-      <c r="C27" s="28">
-        <v>-0.69399334795897605</v>
-      </c>
-      <c r="D27" s="28">
-        <v>-2.20837352529291</v>
-      </c>
-      <c r="E27" s="28">
-        <v>1.71194164745299</v>
-      </c>
-      <c r="F27" s="28">
-        <v>0</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="28">
-        <v>-0.43761572749946598</v>
-      </c>
-      <c r="C28" s="28">
-        <v>-0.70198591572462399</v>
-      </c>
-      <c r="D28" s="28">
-        <v>-2.1322136570421102</v>
-      </c>
-      <c r="E28" s="28">
-        <v>2.2459933168102602</v>
-      </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="28">
-        <v>-0.734314623872381</v>
-      </c>
-      <c r="C29" s="28">
-        <v>-0.72206686061791903</v>
-      </c>
-      <c r="D29" s="28">
-        <v>-1.90951049876523</v>
-      </c>
-      <c r="E29" s="28">
-        <v>0.28879948197045502</v>
-      </c>
-      <c r="F29" s="28">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="28">
-        <v>-0.67649780793466796</v>
-      </c>
-      <c r="C30" s="28">
-        <v>-0.76735657401795798</v>
-      </c>
-      <c r="D30" s="28">
-        <v>-2.0194072213907401</v>
-      </c>
-      <c r="E30" s="28">
-        <v>0.275879670851784</v>
-      </c>
-      <c r="F30" s="28">
-        <v>0</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="28">
-        <v>-0.65119326854341297</v>
-      </c>
-      <c r="C31" s="28">
-        <v>-0.77902570373932101</v>
-      </c>
-      <c r="D31" s="28">
-        <v>-2.0872283075322602</v>
-      </c>
-      <c r="E31" s="28">
-        <v>1.5389245429706899</v>
-      </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="28">
-        <v>-0.58273052488649701</v>
-      </c>
-      <c r="C32" s="28">
-        <v>-0.79941907805586998</v>
-      </c>
-      <c r="D32" s="28">
-        <v>-2.99273158693879</v>
-      </c>
-      <c r="E32" s="28">
-        <v>1.1801911793818201</v>
-      </c>
-      <c r="F32" s="28">
-        <v>0</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="28">
-        <v>-1.15508760243479</v>
-      </c>
-      <c r="C33" s="28">
-        <v>-0.83522043431853799</v>
-      </c>
-      <c r="D33" s="28">
-        <v>-3.6157465339930699</v>
-      </c>
-      <c r="E33" s="28">
-        <v>0.47034203224816901</v>
-      </c>
-      <c r="F33" s="28">
-        <v>0</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="28">
-        <v>-0.84940938596065396</v>
-      </c>
-      <c r="C34" s="28">
-        <v>-0.837914910477074</v>
-      </c>
-      <c r="D34" s="28">
-        <v>-2.5634162908918001</v>
-      </c>
-      <c r="E34" s="28">
-        <v>0.79236394802051102</v>
-      </c>
-      <c r="F34" s="28">
-        <v>0</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="28">
-        <v>-0.84519836454740704</v>
-      </c>
-      <c r="C35" s="28">
-        <v>-0.91594754749139795</v>
-      </c>
-      <c r="D35" s="28">
-        <v>-2.75693032968615</v>
-      </c>
-      <c r="E35" s="28">
-        <v>1.3827813411801999</v>
-      </c>
-      <c r="F35" s="28">
-        <v>0</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="33">
-        <v>-1.3541767603058701</v>
-      </c>
-      <c r="C36" s="33">
-        <v>-1.45580218769916</v>
-      </c>
-      <c r="D36" s="33">
-        <v>-2.4080386471297701</v>
-      </c>
-      <c r="E36" s="33">
-        <v>0.23521545512130301</v>
-      </c>
-      <c r="F36" s="33">
-        <v>0</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
+++ b/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParametrosCalibracao" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,19 @@
     <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId9"/>
     <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId10"/>
     <sheet name="RankingGeral" sheetId="10" r:id="rId11"/>
+    <sheet name="RankingGeral_Modo2" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DataFraneVulnerabilidade!$A$1:$AM$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EstratégiasTestadas!$A$1:$D$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">RankingGeral_Modo2!$A$1:$L$36</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="240">
   <si>
     <t>Variavel</t>
   </si>
@@ -736,6 +738,24 @@
   <si>
     <t>Teste t</t>
   </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -747,7 +767,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -814,6 +834,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -865,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,7 +1042,25 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,23 +1075,13 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5536,7 +5572,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6159,6 +6195,1542 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B187AC-06E3-439A-B7D8-1EBFAABEB01E}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="6.5703125" style="32" customWidth="1"/>
+    <col min="8" max="11" width="30.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="29" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="32">
+        <f>VLOOKUP(A2,$H:$L,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <f>VLOOKUP(A2,$I:$L,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="32">
+        <f>VLOOKUP(A2,$J:$L,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="32">
+        <f>VLOOKUP(A2,$K:$L,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="32">
+        <f>VLOOKUP(A3,$H:$L,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="32">
+        <f>VLOOKUP(A3,$I:$L,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="32">
+        <f>VLOOKUP(A3,$J:$L,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
+        <f>VLOOKUP(A3,$K:$L,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="32">
+        <f>VLOOKUP(A4,$H:$L,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="32">
+        <f>VLOOKUP(A4,$I:$L,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="32">
+        <f>VLOOKUP(A4,$J:$L,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="32">
+        <f>VLOOKUP(A4,$K:$L,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="32">
+        <v>4</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="32">
+        <f>VLOOKUP(A5,$H:$L,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="32">
+        <f>VLOOKUP(A5,$I:$L,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="32">
+        <f>VLOOKUP(A5,$J:$L,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="32">
+        <f>VLOOKUP(A5,$K:$L,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="32">
+        <v>6</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="32">
+        <f>VLOOKUP(A6,$H:$L,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="C6" s="32">
+        <f>VLOOKUP(A6,$I:$L,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="32">
+        <f>VLOOKUP(A6,$J:$L,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="32">
+        <f>VLOOKUP(A6,$K:$L,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="32">
+        <v>8.75</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="32">
+        <f>VLOOKUP(A7,$H:$L,5,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="C7" s="32">
+        <f>VLOOKUP(A7,$I:$L,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="D7" s="32">
+        <f>VLOOKUP(A7,$J:$L,3,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="E7" s="32">
+        <f>VLOOKUP(A7,$K:$L,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="F7" s="32">
+        <v>28.25</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1.0897247358851685</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="32">
+        <f>VLOOKUP(A8,$H:$L,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="C8" s="32">
+        <f>VLOOKUP(A8,$I:$L,4,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D8" s="32">
+        <f>VLOOKUP(A8,$J:$L,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E8" s="32">
+        <f>VLOOKUP(A8,$K:$L,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="F8" s="32">
+        <v>12.5</v>
+      </c>
+      <c r="G8" s="32">
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="32">
+        <f>VLOOKUP(A9,$H:$L,5,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="C9" s="32">
+        <f>VLOOKUP(A9,$I:$L,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="D9" s="32">
+        <f>VLOOKUP(A9,$J:$L,3,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E9" s="32">
+        <f>VLOOKUP(A9,$K:$L,2,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F9" s="32">
+        <v>30.25</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1.479019945774904</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="32">
+        <f>VLOOKUP(A10,$H:$L,5,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="32">
+        <f>VLOOKUP(A10,$I:$L,4,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="32">
+        <f>VLOOKUP(A10,$J:$L,3,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E10" s="32">
+        <f>VLOOKUP(A10,$K:$L,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F10" s="32">
+        <v>15.75</v>
+      </c>
+      <c r="G10" s="32">
+        <v>1.6393596310755001</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="32">
+        <f>VLOOKUP(A11,$H:$L,5,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="C11" s="32">
+        <f>VLOOKUP(A11,$I:$L,4,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D11" s="32">
+        <f>VLOOKUP(A11,$J:$L,3,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="32">
+        <f>VLOOKUP(A11,$K:$L,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="32">
+        <v>18.75</v>
+      </c>
+      <c r="G11" s="32">
+        <v>1.6393596310755001</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="32">
+        <f>VLOOKUP(A12,$H:$L,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="32">
+        <f>VLOOKUP(A12,$I:$L,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="32">
+        <f>VLOOKUP(A12,$J:$L,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="32">
+        <f>VLOOKUP(A12,$K:$L,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="32">
+        <v>5.25</v>
+      </c>
+      <c r="G12" s="32">
+        <v>1.7853571071357126</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="32">
+        <f>VLOOKUP(A13,$H:$L,5,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="32">
+        <f>VLOOKUP(A13,$I:$L,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="32">
+        <f>VLOOKUP(A13,$J:$L,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E13" s="32">
+        <f>VLOOKUP(A13,$K:$L,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="F13" s="32">
+        <v>14.5</v>
+      </c>
+      <c r="G13" s="32">
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="32">
+        <f>VLOOKUP(A14,$H:$L,5,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="C14" s="32">
+        <f>VLOOKUP(A14,$I:$L,4,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D14" s="32">
+        <f>VLOOKUP(A14,$J:$L,3,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E14" s="32">
+        <f>VLOOKUP(A14,$K:$L,2,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="F14" s="32">
+        <v>19.5</v>
+      </c>
+      <c r="G14" s="32">
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="32">
+        <f>VLOOKUP(A15,$H:$L,5,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="C15" s="32">
+        <f>VLOOKUP(A15,$I:$L,4,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D15" s="32">
+        <f>VLOOKUP(A15,$J:$L,3,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E15" s="32">
+        <f>VLOOKUP(A15,$K:$L,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="F15" s="32">
+        <v>20.5</v>
+      </c>
+      <c r="G15" s="32">
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="32">
+        <f>VLOOKUP(A16,$H:$L,5,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="C16" s="32">
+        <f>VLOOKUP(A16,$I:$L,4,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D16" s="32">
+        <f>VLOOKUP(A16,$J:$L,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E16" s="32">
+        <f>VLOOKUP(A16,$K:$L,2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="F16" s="32">
+        <v>30.75</v>
+      </c>
+      <c r="G16" s="32">
+        <v>2.2776083947860748</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="32">
+        <f>VLOOKUP(A17,$H:$L,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="32">
+        <f>VLOOKUP(A17,$I:$L,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D17" s="32">
+        <f>VLOOKUP(A17,$J:$L,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="32">
+        <f>VLOOKUP(A17,$K:$L,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="32">
+        <v>2.2912878474779199</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="32">
+        <f>VLOOKUP(A18,$H:$L,5,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="C18" s="32">
+        <f>VLOOKUP(A18,$I:$L,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="D18" s="32">
+        <f>VLOOKUP(A18,$J:$L,3,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E18" s="32">
+        <f>VLOOKUP(A18,$K:$L,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="F18" s="32">
+        <v>32.5</v>
+      </c>
+      <c r="G18" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="32">
+        <f>VLOOKUP(A19,$H:$L,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="32">
+        <f>VLOOKUP(A19,$I:$L,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D19" s="32">
+        <f>VLOOKUP(A19,$J:$L,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="32">
+        <f>VLOOKUP(A19,$K:$L,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="G19" s="32">
+        <v>2.598076211353316</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="32">
+        <f>VLOOKUP(A20,$H:$L,5,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="C20" s="32">
+        <f>VLOOKUP(A20,$I:$L,4,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="D20" s="32">
+        <f>VLOOKUP(A20,$J:$L,3,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="E20" s="32">
+        <f>VLOOKUP(A20,$K:$L,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="F20" s="32">
+        <v>27.75</v>
+      </c>
+      <c r="G20" s="32">
+        <v>3.1124748994971831</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="32">
+        <f>VLOOKUP(A21,$H:$L,5,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="C21" s="32">
+        <f>VLOOKUP(A21,$I:$L,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="D21" s="32">
+        <f>VLOOKUP(A21,$J:$L,3,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E21" s="32">
+        <f>VLOOKUP(A21,$K:$L,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F21" s="32">
+        <v>28.25</v>
+      </c>
+      <c r="G21" s="32">
+        <v>3.7666297933298409</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="32">
+        <f>VLOOKUP(A22,$H:$L,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="32">
+        <f>VLOOKUP(A22,$I:$L,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="32">
+        <f>VLOOKUP(A22,$J:$L,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E22" s="32">
+        <f>VLOOKUP(A22,$K:$L,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F22" s="32">
+        <v>10.75</v>
+      </c>
+      <c r="G22" s="32">
+        <v>3.8324274291889728</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="32">
+        <f>VLOOKUP(A23,$H:$L,5,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="C23" s="32">
+        <f>VLOOKUP(A23,$I:$L,4,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D23" s="32">
+        <f>VLOOKUP(A23,$J:$L,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E23" s="32">
+        <f>VLOOKUP(A23,$K:$L,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="F23" s="32">
+        <v>23.25</v>
+      </c>
+      <c r="G23" s="32">
+        <v>3.897114317029974</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="32">
+        <f>VLOOKUP(A24,$H:$L,5,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="C24" s="32">
+        <f>VLOOKUP(A24,$I:$L,4,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="D24" s="32">
+        <f>VLOOKUP(A24,$J:$L,3,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E24" s="32">
+        <f>VLOOKUP(A24,$K:$L,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="F24" s="32">
+        <v>25.75</v>
+      </c>
+      <c r="G24" s="32">
+        <v>4.0850336595920478</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="32">
+        <f>VLOOKUP(A25,$H:$L,5,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="C25" s="32">
+        <f>VLOOKUP(A25,$I:$L,4,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D25" s="32">
+        <f>VLOOKUP(A25,$J:$L,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E25" s="32">
+        <f>VLOOKUP(A25,$K:$L,2,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="F25" s="32">
+        <v>24.25</v>
+      </c>
+      <c r="G25" s="32">
+        <v>4.0850336595920478</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="32">
+        <f>VLOOKUP(A26,$H:$L,5,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="C26" s="32">
+        <f>VLOOKUP(A26,$I:$L,4,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="32">
+        <f>VLOOKUP(A26,$J:$L,3,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E26" s="32">
+        <f>VLOOKUP(A26,$K:$L,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="F26" s="32">
+        <v>19.75</v>
+      </c>
+      <c r="G26" s="32">
+        <v>4.4370598373247123</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="32">
+        <f>VLOOKUP(A27,$H:$L,5,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="C27" s="32">
+        <f>VLOOKUP(A27,$I:$L,4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D27" s="32">
+        <f>VLOOKUP(A27,$J:$L,3,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="E27" s="32">
+        <f>VLOOKUP(A27,$K:$L,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="F27" s="32">
+        <v>29</v>
+      </c>
+      <c r="G27" s="32">
+        <v>4.5276925690687087</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="32">
+        <f>VLOOKUP(A28,$H:$L,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="C28" s="32">
+        <f>VLOOKUP(A28,$I:$L,4,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D28" s="32">
+        <f>VLOOKUP(A28,$J:$L,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E28" s="32">
+        <f>VLOOKUP(A28,$K:$L,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="F28" s="32">
+        <v>13.75</v>
+      </c>
+      <c r="G28" s="32">
+        <v>4.815340071064556</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="32">
+        <f>VLOOKUP(A29,$H:$L,5,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="C29" s="32">
+        <f>VLOOKUP(A29,$I:$L,4,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="D29" s="32">
+        <f>VLOOKUP(A29,$J:$L,3,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E29" s="32">
+        <f>VLOOKUP(A29,$K:$L,2,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="F29" s="32">
+        <v>30.5</v>
+      </c>
+      <c r="G29" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="32">
+        <f>VLOOKUP(A30,$H:$L,5,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="C30" s="32">
+        <f>VLOOKUP(A30,$I:$L,4,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D30" s="32">
+        <f>VLOOKUP(A30,$J:$L,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E30" s="32">
+        <f>VLOOKUP(A30,$K:$L,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="F30" s="32">
+        <v>20</v>
+      </c>
+      <c r="G30" s="32">
+        <v>5.5226805085936306</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="32">
+        <f>VLOOKUP(A31,$H:$L,5,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="C31" s="32">
+        <f>VLOOKUP(A31,$I:$L,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="D31" s="32">
+        <f>VLOOKUP(A31,$J:$L,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E31" s="32">
+        <f>VLOOKUP(A31,$K:$L,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="32">
+        <v>15.75</v>
+      </c>
+      <c r="G31" s="32">
+        <v>5.8470077817632502</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="32">
+        <f>VLOOKUP(A32,$H:$L,5,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="C32" s="32">
+        <f>VLOOKUP(A32,$I:$L,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D32" s="32">
+        <f>VLOOKUP(A32,$J:$L,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E32" s="32">
+        <f>VLOOKUP(A32,$K:$L,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="F32" s="32">
+        <v>18.25</v>
+      </c>
+      <c r="G32" s="32">
+        <v>5.9319052588523364</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="32">
+        <f>VLOOKUP(A33,$H:$L,5,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="C33" s="32">
+        <f>VLOOKUP(A33,$I:$L,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="D33" s="32">
+        <f>VLOOKUP(A33,$J:$L,3,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E33" s="32">
+        <f>VLOOKUP(A33,$K:$L,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="F33" s="32">
+        <v>19</v>
+      </c>
+      <c r="G33" s="32">
+        <v>6.9641941385920596</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="32">
+        <f>VLOOKUP(A34,$H:$L,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="C34" s="32">
+        <f>VLOOKUP(A34,$I:$L,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D34" s="32">
+        <f>VLOOKUP(A34,$J:$L,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E34" s="32">
+        <f>VLOOKUP(A34,$K:$L,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="F34" s="32">
+        <v>15.25</v>
+      </c>
+      <c r="G34" s="32">
+        <v>8.1967981553775004</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="32">
+        <f>VLOOKUP(A35,$H:$L,5,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="C35" s="32">
+        <f>VLOOKUP(A35,$I:$L,4,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="D35" s="32">
+        <f>VLOOKUP(A35,$J:$L,3,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E35" s="32">
+        <f>VLOOKUP(A35,$K:$L,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="F35" s="32">
+        <v>29.75</v>
+      </c>
+      <c r="G35" s="32">
+        <v>8.5256964524899672</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="32">
+        <f>VLOOKUP(A36,$H:$L,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="C36" s="32">
+        <f>VLOOKUP(A36,$I:$L,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D36" s="32">
+        <f>VLOOKUP(A36,$J:$L,3,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="E36" s="32">
+        <f>VLOOKUP(A36,$K:$L,2,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="F36" s="32">
+        <v>15.75</v>
+      </c>
+      <c r="G36" s="32">
+        <v>11.277743568639961</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="K36" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="L36" s="30">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L36" xr:uid="{A962AB0A-45DE-4224-AD9F-13578AB1821C}">
+    <sortState ref="A2:L36">
+      <sortCondition ref="G1:G36"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7093,15 +8665,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7121,920 +8693,920 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="57">
         <v>0.3</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="57">
         <v>0.1</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="57">
         <v>0.3</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="57">
         <v>0.1</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="57">
         <v>0.3</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="57">
         <v>0.1</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62">
+      <c r="A6" s="56">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="57">
         <v>0.3</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="57">
         <v>0.1</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62">
+      <c r="A7" s="56">
         <v>5</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="57">
         <v>0.3</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="57">
         <v>0.1</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
+      <c r="A8" s="56">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="57">
         <v>0.3</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="57">
         <v>0.1</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
+      <c r="A9" s="56">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="57">
         <v>0.2</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="57">
         <v>0.1</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
+      <c r="A10" s="56">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="57">
         <v>0.2</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="57">
         <v>0.1</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="56">
         <v>9</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="57">
         <v>0.2</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="57">
         <v>0.1</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="56">
         <v>10</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="57">
         <v>0.2</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="57">
         <v>0.1</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="56">
         <v>11</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="57">
         <v>0.2</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="57">
         <v>0.1</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="56">
         <v>12</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="57">
         <v>0.2</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="57">
         <v>0.1</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="56">
         <v>13</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="57">
         <v>0.4</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="57">
         <v>0.1</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="56">
         <v>14</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="57">
         <v>0.4</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="57">
         <v>0.1</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="56">
         <v>15</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="57">
         <v>0.4</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="57">
         <v>0.1</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+      <c r="A18" s="56">
         <v>16</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="57">
         <v>0.4</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="57">
         <v>0.1</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+      <c r="A19" s="56">
         <v>17</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="57">
         <v>0.4</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="57">
         <v>0.1</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="A20" s="56">
         <v>18</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="57">
         <v>0.4</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="57">
         <v>0.1</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="56">
         <v>19</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="57">
         <v>0.3</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="57">
         <v>0.05</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="56">
         <v>20</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="57">
         <v>0.3</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="57">
         <v>0.05</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="57">
         <v>0.3</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="57">
         <v>0.05</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="56">
         <v>22</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="57">
         <v>0.3</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="57">
         <v>0.05</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+      <c r="A25" s="56">
         <v>23</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="57">
         <v>0.3</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="57">
         <v>0.05</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+      <c r="A26" s="56">
         <v>24</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="57">
         <v>0.3</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="57">
         <v>0.05</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+      <c r="A27" s="56">
         <v>25</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="57">
         <v>0.2</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="57">
         <v>0.05</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="56">
         <v>26</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="63">
+      <c r="C28" s="57">
         <v>0.2</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="57">
         <v>0.05</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+      <c r="A29" s="56">
         <v>27</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="57">
         <v>0.2</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="57">
         <v>0.05</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62">
+      <c r="A30" s="56">
         <v>28</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="57">
         <v>0.2</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="57">
         <v>0.05</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62">
+      <c r="A31" s="56">
         <v>29</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="57">
         <v>0.2</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="57">
         <v>0.05</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="62">
+      <c r="A32" s="56">
         <v>30</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="57">
         <v>0.2</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="57">
         <v>0.05</v>
       </c>
-      <c r="E32" s="63">
+      <c r="E32" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62">
+      <c r="A33" s="56">
         <v>31</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="57">
         <v>0.4</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="57">
         <v>0.05</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="56">
         <v>32</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="57">
         <v>0.4</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="57">
         <v>0.05</v>
       </c>
-      <c r="E34" s="63">
+      <c r="E34" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62">
+      <c r="A35" s="56">
         <v>33</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="57">
         <v>0.4</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="57">
         <v>0.05</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62">
+      <c r="A36" s="56">
         <v>34</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="57">
         <v>0.4</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="57">
         <v>0.05</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E36" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62">
+      <c r="A37" s="56">
         <v>35</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="57">
         <v>0.4</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="57">
         <v>0.05</v>
       </c>
-      <c r="E37" s="63">
+      <c r="E37" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62">
+      <c r="A38" s="56">
         <v>36</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="57">
         <v>0.4</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="57">
         <v>0.05</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62">
+      <c r="A39" s="56">
         <v>37</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="57">
         <v>0.3</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="57">
         <v>0.15</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62">
+      <c r="A40" s="56">
         <v>38</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="57">
         <v>0.3</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="57">
         <v>0.15</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E40" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
+      <c r="A41" s="56">
         <v>39</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="57">
         <v>0.3</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="57">
         <v>0.15</v>
       </c>
-      <c r="E41" s="63">
+      <c r="E41" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62">
+      <c r="A42" s="56">
         <v>40</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C42" s="57">
         <v>0.3</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="57">
         <v>0.15</v>
       </c>
-      <c r="E42" s="63">
+      <c r="E42" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62">
+      <c r="A43" s="56">
         <v>41</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="63">
+      <c r="C43" s="57">
         <v>0.3</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="57">
         <v>0.15</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E43" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62">
+      <c r="A44" s="56">
         <v>42</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C44" s="57">
         <v>0.3</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="57">
         <v>0.15</v>
       </c>
-      <c r="E44" s="63">
+      <c r="E44" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62">
+      <c r="A45" s="56">
         <v>43</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="63">
+      <c r="C45" s="57">
         <v>0.2</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="57">
         <v>0.15</v>
       </c>
-      <c r="E45" s="63">
+      <c r="E45" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62">
+      <c r="A46" s="56">
         <v>44</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="57">
         <v>0.2</v>
       </c>
-      <c r="D46" s="63">
+      <c r="D46" s="57">
         <v>0.15</v>
       </c>
-      <c r="E46" s="63">
+      <c r="E46" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="62">
+      <c r="A47" s="56">
         <v>45</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="63">
+      <c r="C47" s="57">
         <v>0.2</v>
       </c>
-      <c r="D47" s="63">
+      <c r="D47" s="57">
         <v>0.15</v>
       </c>
-      <c r="E47" s="63">
+      <c r="E47" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
+      <c r="A48" s="56">
         <v>46</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="63">
+      <c r="C48" s="57">
         <v>0.2</v>
       </c>
-      <c r="D48" s="63">
+      <c r="D48" s="57">
         <v>0.15</v>
       </c>
-      <c r="E48" s="63">
+      <c r="E48" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="62">
+      <c r="A49" s="56">
         <v>47</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="63">
+      <c r="C49" s="57">
         <v>0.2</v>
       </c>
-      <c r="D49" s="63">
+      <c r="D49" s="57">
         <v>0.15</v>
       </c>
-      <c r="E49" s="63">
+      <c r="E49" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
+      <c r="A50" s="56">
         <v>48</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="57">
         <v>0.2</v>
       </c>
-      <c r="D50" s="63">
+      <c r="D50" s="57">
         <v>0.15</v>
       </c>
-      <c r="E50" s="63">
+      <c r="E50" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
+      <c r="A51" s="56">
         <v>49</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="57">
         <v>0.4</v>
       </c>
-      <c r="D51" s="63">
+      <c r="D51" s="57">
         <v>0.15</v>
       </c>
-      <c r="E51" s="63">
+      <c r="E51" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62">
+      <c r="A52" s="56">
         <v>50</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="57">
         <v>0.4</v>
       </c>
-      <c r="D52" s="63">
+      <c r="D52" s="57">
         <v>0.15</v>
       </c>
-      <c r="E52" s="63">
+      <c r="E52" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
+      <c r="A53" s="56">
         <v>51</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="63">
+      <c r="C53" s="57">
         <v>0.4</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="57">
         <v>0.15</v>
       </c>
-      <c r="E53" s="63">
+      <c r="E53" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
+      <c r="A54" s="56">
         <v>52</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="57">
         <v>0.4</v>
       </c>
-      <c r="D54" s="63">
+      <c r="D54" s="57">
         <v>0.15</v>
       </c>
-      <c r="E54" s="63">
+      <c r="E54" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="62">
+      <c r="A55" s="56">
         <v>53</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="57">
         <v>0.4</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="57">
         <v>0.15</v>
       </c>
-      <c r="E55" s="63">
+      <c r="E55" s="57">
         <v>0.9</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64">
+      <c r="A56" s="58">
         <v>54</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="65">
+      <c r="C56" s="59">
         <v>0.4</v>
       </c>
-      <c r="D56" s="65">
+      <c r="D56" s="59">
         <v>0.15</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="59">
         <v>0.9</v>
       </c>
     </row>
@@ -8067,22 +9639,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="63" t="s">
         <v>204</v>
       </c>
       <c r="I1" s="5"/>
@@ -8102,8 +9674,8 @@
       <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9580,9 +11152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
+++ b/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,33 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParametrosCalibracao" sheetId="1" r:id="rId1"/>
-    <sheet name="CalibracaoErroCalculado" sheetId="2" r:id="rId2"/>
-    <sheet name="ParametrosCenarioMenorErro" sheetId="3" r:id="rId3"/>
-    <sheet name="EstratégiasTestadas" sheetId="11" r:id="rId4"/>
-    <sheet name="RankingEstrategias" sheetId="4" r:id="rId5"/>
-    <sheet name="DataFraneVulnerabilidade" sheetId="5" r:id="rId6"/>
-    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId7"/>
-    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId8"/>
-    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId9"/>
-    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId10"/>
-    <sheet name="RankingGeral" sheetId="10" r:id="rId11"/>
-    <sheet name="RankingGeral_Modo2" sheetId="12" r:id="rId12"/>
+    <sheet name="Estatisticas_Calibracao" sheetId="13" r:id="rId2"/>
+    <sheet name="CalibracaoErroCalculado" sheetId="2" r:id="rId3"/>
+    <sheet name="ParametrosCenarioMenorErro" sheetId="3" r:id="rId4"/>
+    <sheet name="EstratégiasTestadas" sheetId="11" r:id="rId5"/>
+    <sheet name="RankingEstrategias" sheetId="4" r:id="rId6"/>
+    <sheet name="DataFraneVulnerabilidade" sheetId="5" r:id="rId7"/>
+    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId8"/>
+    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId9"/>
+    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId10"/>
+    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId11"/>
+    <sheet name="RankingGeral" sheetId="10" r:id="rId12"/>
+    <sheet name="RankingGeral_Modo2" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DataFraneVulnerabilidade!$A$1:$AM$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EstratégiasTestadas!$A$1:$D$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">RankingGeral_Modo2!$A$1:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DataFraneVulnerabilidade!$A$1:$AM$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EstratégiasTestadas!$A$1:$D$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">RankingGeral_Modo2!$A$1:$L$36</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="270">
   <si>
     <t>Variavel</t>
   </si>
@@ -756,16 +757,107 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>Thiel - UM</t>
+  </si>
+  <si>
+    <t>Thiel - US</t>
+  </si>
+  <si>
+    <t>Thiel - UC</t>
+  </si>
+  <si>
+    <t>Estatística</t>
+  </si>
+  <si>
+    <t>RSquared</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>RootMeanSquareError</t>
+  </si>
+  <si>
+    <t>Significado</t>
+  </si>
+  <si>
+    <t>Estatística Calculada</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Sigla</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Coeficiente de Correlação entre os dados Simulados e dados observados.</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Raiz do Erro médio Quadrado.</t>
+  </si>
+  <si>
+    <t>Erro Médio Quadrado</t>
+  </si>
+  <si>
+    <t>Erro Médio Absoluto</t>
+  </si>
+  <si>
+    <t>Erro Médio Absoluto Percentual</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>Estatística de Thiel - Viés (representa a parcela do erro médio qudrado correspondente à diferença entre médias dos dados e dos resultados do modelo).</t>
+  </si>
+  <si>
+    <t>Esatística de Thiel - Variação Desigual (representa a parecela de erro devida à diferença na variância entre os dados simulados e os dados observados).</t>
+  </si>
+  <si>
+    <t>Estatística de Thiel - Covariação Desigual (representa a parcela de erro devida à diferenças relacionadas à correlação imperfeita, ou seja, diferenças ponto a ponto).</t>
+  </si>
+  <si>
+    <t>Soma dos Erros Médios Quadrados</t>
+  </si>
+  <si>
+    <t>Coefficiente de Determinação. Representa a Fração da Variância dos dados explicada pelo modelo.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0_ ;\-[$$-409]#,##0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -851,7 +943,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -888,12 +980,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,6 +1161,14 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,12 +1190,27 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4719,6 +4849,424 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="A1:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="44" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="44">
+        <v>6.8339570065970898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="44">
+        <v>6.0234597831008001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="44">
+        <v>4.1347067054697701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="44">
+        <v>3.7252434659151898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="44">
+        <v>3.4395380134651501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="44">
+        <v>2.6743241497297601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2.4325415785039799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="44">
+        <v>2.4265579241542801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="44">
+        <v>2.2629501905001002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="44">
+        <v>1.8687406448388799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="44">
+        <v>1.81331965214988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1.7901665979630399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1.7770098045368199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1.7665237283286701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1.76463166115576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1.73338875669904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1.7316776882285601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="44">
+        <v>1.7284907243997201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="44">
+        <v>1.7275044643671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="44">
+        <v>1.68061312282124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1.6725684469289299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="44">
+        <v>1.66036205983412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="44">
+        <v>1.64234589474955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="44">
+        <v>1.5969804764854301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="44">
+        <v>1.58160103578181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="44">
+        <v>1.5032365152634899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="44">
+        <v>1.4894908561015101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="44">
+        <v>1.46157558683504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="44">
+        <v>1.40143099803079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="44">
+        <v>1.3738208127156399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="44">
+        <v>1.2836440865684899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="44">
+        <v>1.21225739319366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="44">
+        <v>1.1882711025281301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="44">
+        <v>1.1855282301641199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="48">
+        <v>35</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="50">
+        <v>1.1812208418944701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -5567,7 +6115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -6200,11 +6748,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B187AC-06E3-439A-B7D8-1EBFAABEB01E}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6218,25 +6766,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>239</v>
       </c>
       <c r="H1" s="39" t="s">
@@ -6260,19 +6808,19 @@
         <v>164</v>
       </c>
       <c r="B2" s="32">
-        <f>VLOOKUP(A2,$H:$L,5,FALSE)</f>
+        <f t="shared" ref="B2:B36" si="0">VLOOKUP(A2,$H:$L,5,FALSE)</f>
         <v>1</v>
       </c>
       <c r="C2" s="32">
-        <f>VLOOKUP(A2,$I:$L,4,FALSE)</f>
+        <f t="shared" ref="C2:C36" si="1">VLOOKUP(A2,$I:$L,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D2" s="32">
-        <f>VLOOKUP(A2,$J:$L,3,FALSE)</f>
+        <f t="shared" ref="D2:D36" si="2">VLOOKUP(A2,$J:$L,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E2" s="32">
-        <f>VLOOKUP(A2,$K:$L,2,FALSE)</f>
+        <f t="shared" ref="E2:E36" si="3">VLOOKUP(A2,$K:$L,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F2" s="32">
@@ -6302,19 +6850,19 @@
         <v>54</v>
       </c>
       <c r="B3" s="32">
-        <f>VLOOKUP(A3,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C3" s="32">
-        <f>VLOOKUP(A3,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D3" s="32">
-        <f>VLOOKUP(A3,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E3" s="32">
-        <f>VLOOKUP(A3,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F3" s="32">
@@ -6344,19 +6892,19 @@
         <v>167</v>
       </c>
       <c r="B4" s="32">
-        <f>VLOOKUP(A4,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C4" s="32">
-        <f>VLOOKUP(A4,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D4" s="32">
-        <f>VLOOKUP(A4,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E4" s="32">
-        <f>VLOOKUP(A4,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F4" s="32">
@@ -6386,19 +6934,19 @@
         <v>68</v>
       </c>
       <c r="B5" s="32">
-        <f>VLOOKUP(A5,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C5" s="32">
-        <f>VLOOKUP(A5,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D5" s="32">
-        <f>VLOOKUP(A5,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E5" s="32">
-        <f>VLOOKUP(A5,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F5" s="32">
@@ -6428,19 +6976,19 @@
         <v>87</v>
       </c>
       <c r="B6" s="32">
-        <f>VLOOKUP(A6,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C6" s="32">
-        <f>VLOOKUP(A6,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D6" s="32">
-        <f>VLOOKUP(A6,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E6" s="32">
-        <f>VLOOKUP(A6,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F6" s="32">
@@ -6470,19 +7018,19 @@
         <v>58</v>
       </c>
       <c r="B7" s="32">
-        <f>VLOOKUP(A7,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C7" s="32">
-        <f>VLOOKUP(A7,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D7" s="32">
-        <f>VLOOKUP(A7,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E7" s="32">
-        <f>VLOOKUP(A7,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F7" s="32">
@@ -6512,19 +7060,19 @@
         <v>116</v>
       </c>
       <c r="B8" s="32">
-        <f>VLOOKUP(A8,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C8" s="32">
-        <f>VLOOKUP(A8,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D8" s="32">
-        <f>VLOOKUP(A8,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E8" s="32">
-        <f>VLOOKUP(A8,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F8" s="32">
@@ -6554,19 +7102,19 @@
         <v>82</v>
       </c>
       <c r="B9" s="32">
-        <f>VLOOKUP(A9,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C9" s="32">
-        <f>VLOOKUP(A9,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D9" s="32">
-        <f>VLOOKUP(A9,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="E9" s="32">
-        <f>VLOOKUP(A9,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F9" s="32">
@@ -6596,19 +7144,19 @@
         <v>50</v>
       </c>
       <c r="B10" s="32">
-        <f>VLOOKUP(A10,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C10" s="32">
-        <f>VLOOKUP(A10,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D10" s="32">
-        <f>VLOOKUP(A10,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E10" s="32">
-        <f>VLOOKUP(A10,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F10" s="32">
@@ -6638,19 +7186,19 @@
         <v>138</v>
       </c>
       <c r="B11" s="32">
-        <f>VLOOKUP(A11,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C11" s="32">
-        <f>VLOOKUP(A11,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D11" s="32">
-        <f>VLOOKUP(A11,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E11" s="32">
-        <f>VLOOKUP(A11,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F11" s="32">
@@ -6680,19 +7228,19 @@
         <v>80</v>
       </c>
       <c r="B12" s="32">
-        <f>VLOOKUP(A12,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="32">
-        <f>VLOOKUP(A12,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D12" s="32">
-        <f>VLOOKUP(A12,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E12" s="32">
-        <f>VLOOKUP(A12,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F12" s="32">
@@ -6722,19 +7270,19 @@
         <v>162</v>
       </c>
       <c r="B13" s="32">
-        <f>VLOOKUP(A13,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C13" s="32">
-        <f>VLOOKUP(A13,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D13" s="32">
-        <f>VLOOKUP(A13,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E13" s="32">
-        <f>VLOOKUP(A13,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F13" s="32">
@@ -6764,19 +7312,19 @@
         <v>122</v>
       </c>
       <c r="B14" s="32">
-        <f>VLOOKUP(A14,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C14" s="32">
-        <f>VLOOKUP(A14,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D14" s="32">
-        <f>VLOOKUP(A14,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E14" s="32">
-        <f>VLOOKUP(A14,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F14" s="32">
@@ -6806,19 +7354,19 @@
         <v>101</v>
       </c>
       <c r="B15" s="32">
-        <f>VLOOKUP(A15,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C15" s="32">
-        <f>VLOOKUP(A15,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D15" s="32">
-        <f>VLOOKUP(A15,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E15" s="32">
-        <f>VLOOKUP(A15,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="F15" s="32">
@@ -6848,19 +7396,19 @@
         <v>166</v>
       </c>
       <c r="B16" s="32">
-        <f>VLOOKUP(A16,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C16" s="32">
-        <f>VLOOKUP(A16,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D16" s="32">
-        <f>VLOOKUP(A16,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="E16" s="32">
-        <f>VLOOKUP(A16,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F16" s="32">
@@ -6890,19 +7438,19 @@
         <v>160</v>
       </c>
       <c r="B17" s="32">
-        <f>VLOOKUP(A17,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="32">
-        <f>VLOOKUP(A17,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D17" s="32">
-        <f>VLOOKUP(A17,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E17" s="32">
-        <f>VLOOKUP(A17,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F17" s="32">
@@ -6928,23 +7476,23 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>118</v>
       </c>
       <c r="B18" s="32">
-        <f>VLOOKUP(A18,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C18" s="32">
-        <f>VLOOKUP(A18,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D18" s="32">
-        <f>VLOOKUP(A18,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E18" s="32">
-        <f>VLOOKUP(A18,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F18" s="32">
@@ -6953,19 +7501,19 @@
       <c r="G18" s="32">
         <v>2.5</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="63">
         <v>35</v>
       </c>
     </row>
@@ -6974,19 +7522,19 @@
         <v>91</v>
       </c>
       <c r="B19" s="32">
-        <f>VLOOKUP(A19,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C19" s="32">
-        <f>VLOOKUP(A19,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D19" s="32">
-        <f>VLOOKUP(A19,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E19" s="32">
-        <f>VLOOKUP(A19,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F19" s="32">
@@ -7016,19 +7564,19 @@
         <v>150</v>
       </c>
       <c r="B20" s="32">
-        <f>VLOOKUP(A20,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C20" s="32">
-        <f>VLOOKUP(A20,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D20" s="32">
-        <f>VLOOKUP(A20,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E20" s="32">
-        <f>VLOOKUP(A20,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="F20" s="32">
@@ -7058,19 +7606,19 @@
         <v>61</v>
       </c>
       <c r="B21" s="32">
-        <f>VLOOKUP(A21,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C21" s="32">
-        <f>VLOOKUP(A21,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D21" s="32">
-        <f>VLOOKUP(A21,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="E21" s="32">
-        <f>VLOOKUP(A21,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F21" s="32">
@@ -7100,19 +7648,19 @@
         <v>72</v>
       </c>
       <c r="B22" s="32">
-        <f>VLOOKUP(A22,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C22" s="32">
-        <f>VLOOKUP(A22,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D22" s="32">
-        <f>VLOOKUP(A22,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E22" s="32">
-        <f>VLOOKUP(A22,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F22" s="32">
@@ -7142,19 +7690,19 @@
         <v>113</v>
       </c>
       <c r="B23" s="32">
-        <f>VLOOKUP(A23,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C23" s="32">
-        <f>VLOOKUP(A23,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D23" s="32">
-        <f>VLOOKUP(A23,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E23" s="32">
-        <f>VLOOKUP(A23,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="F23" s="32">
@@ -7184,19 +7732,19 @@
         <v>78</v>
       </c>
       <c r="B24" s="32">
-        <f>VLOOKUP(A24,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C24" s="32">
-        <f>VLOOKUP(A24,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D24" s="32">
-        <f>VLOOKUP(A24,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E24" s="32">
-        <f>VLOOKUP(A24,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="F24" s="32">
@@ -7226,19 +7774,19 @@
         <v>152</v>
       </c>
       <c r="B25" s="32">
-        <f>VLOOKUP(A25,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C25" s="32">
-        <f>VLOOKUP(A25,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D25" s="32">
-        <f>VLOOKUP(A25,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E25" s="32">
-        <f>VLOOKUP(A25,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F25" s="32">
@@ -7268,19 +7816,19 @@
         <v>154</v>
       </c>
       <c r="B26" s="32">
-        <f>VLOOKUP(A26,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C26" s="32">
-        <f>VLOOKUP(A26,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D26" s="32">
-        <f>VLOOKUP(A26,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E26" s="32">
-        <f>VLOOKUP(A26,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F26" s="32">
@@ -7310,19 +7858,19 @@
         <v>105</v>
       </c>
       <c r="B27" s="32">
-        <f>VLOOKUP(A27,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="32">
-        <f>VLOOKUP(A27,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D27" s="32">
-        <f>VLOOKUP(A27,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="E27" s="32">
-        <f>VLOOKUP(A27,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="F27" s="32">
@@ -7352,19 +7900,19 @@
         <v>111</v>
       </c>
       <c r="B28" s="32">
-        <f>VLOOKUP(A28,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C28" s="32">
-        <f>VLOOKUP(A28,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D28" s="32">
-        <f>VLOOKUP(A28,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E28" s="32">
-        <f>VLOOKUP(A28,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F28" s="32">
@@ -7394,19 +7942,19 @@
         <v>153</v>
       </c>
       <c r="B29" s="32">
-        <f>VLOOKUP(A29,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C29" s="32">
-        <f>VLOOKUP(A29,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D29" s="32">
-        <f>VLOOKUP(A29,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="E29" s="32">
-        <f>VLOOKUP(A29,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="F29" s="32">
@@ -7436,19 +7984,19 @@
         <v>131</v>
       </c>
       <c r="B30" s="32">
-        <f>VLOOKUP(A30,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C30" s="32">
-        <f>VLOOKUP(A30,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D30" s="32">
-        <f>VLOOKUP(A30,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="E30" s="32">
-        <f>VLOOKUP(A30,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="F30" s="32">
@@ -7478,19 +8026,19 @@
         <v>158</v>
       </c>
       <c r="B31" s="32">
-        <f>VLOOKUP(A31,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C31" s="32">
-        <f>VLOOKUP(A31,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D31" s="32">
-        <f>VLOOKUP(A31,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E31" s="32">
-        <f>VLOOKUP(A31,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F31" s="32">
@@ -7520,19 +8068,19 @@
         <v>163</v>
       </c>
       <c r="B32" s="32">
-        <f>VLOOKUP(A32,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C32" s="32">
-        <f>VLOOKUP(A32,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D32" s="32">
-        <f>VLOOKUP(A32,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E32" s="32">
-        <f>VLOOKUP(A32,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F32" s="32">
@@ -7562,19 +8110,19 @@
         <v>35</v>
       </c>
       <c r="B33" s="32">
-        <f>VLOOKUP(A33,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C33" s="32">
-        <f>VLOOKUP(A33,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D33" s="32">
-        <f>VLOOKUP(A33,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E33" s="32">
-        <f>VLOOKUP(A33,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F33" s="32">
@@ -7604,19 +8152,19 @@
         <v>159</v>
       </c>
       <c r="B34" s="32">
-        <f>VLOOKUP(A34,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C34" s="32">
-        <f>VLOOKUP(A34,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D34" s="32">
-        <f>VLOOKUP(A34,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E34" s="32">
-        <f>VLOOKUP(A34,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F34" s="32">
@@ -7646,19 +8194,19 @@
         <v>103</v>
       </c>
       <c r="B35" s="32">
-        <f>VLOOKUP(A35,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C35" s="32">
-        <f>VLOOKUP(A35,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D35" s="32">
-        <f>VLOOKUP(A35,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="E35" s="32">
-        <f>VLOOKUP(A35,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="F35" s="32">
@@ -7688,19 +8236,19 @@
         <v>124</v>
       </c>
       <c r="B36" s="32">
-        <f>VLOOKUP(A36,$H:$L,5,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C36" s="32">
-        <f>VLOOKUP(A36,$I:$L,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D36" s="32">
-        <f>VLOOKUP(A36,$J:$L,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="E36" s="32">
-        <f>VLOOKUP(A36,$K:$L,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F36" s="32">
@@ -7737,190 +8285,400 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422D0E52-0062-4728-87AF-6A9DAC7287A5}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="75">
+        <v>0.85253621976330496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="75">
+        <v>0.923328879524141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="76">
+        <v>1817965.3903449301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="75">
+        <v>1348.31946894826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="76">
+        <v>19997619.2937942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1111.7700706988101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="77">
+        <v>0.186560817055022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="77">
+        <v>0.17245987379257199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="77">
+        <v>3.9707008041734701E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="77">
+        <v>0.78783311816569601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>177</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3">
         <v>623571410.57506204</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>26515952.550845999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>209404600.53193301</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>198868232.01707301</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1364276947.88586</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4">
         <v>56688310.052278399</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2410541.1409860002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>19036781.8665394</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>18078930.1833703</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>124025177.080533</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5">
         <v>5945.6428257392399</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1282.05969642222</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3647.4470315926101</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3579.3130160923602</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9011.6686557883804</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6">
         <v>1.22238540762418</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.20619775010010899</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.58388510726369103</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.61659872941568294</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.87835606227605</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7">
         <v>0.50123620943828995</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.5003577176725801E-3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6.8543509724560705E-4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3.7447674871571801E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.65369896621108503</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8">
         <v>3.3077141672116298E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>4.5043534615734999E-3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.7230250443704E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2.1759806633361401E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6.2214772666067002E-2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9">
         <v>0.51556302794576503</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1.0927452530489901</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.0820157709493301</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.0370477510079099</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.31871636450173901</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7930,7 +8688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B88"/>
   <sheetViews>
@@ -8648,7 +9406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52479EB4-2AB3-4CF9-9C0C-258FE2EA664C}">
   <dimension ref="A1:F56"/>
   <sheetViews>
@@ -8665,19 +9423,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="12" t="s">
         <v>205</v>
       </c>
@@ -9620,7 +10378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -9639,29 +10397,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="65" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="67" t="s">
         <v>204</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="12" t="s">
         <v>205</v>
       </c>
@@ -9674,8 +10432,8 @@
       <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="64"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11148,7 +11906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM201"/>
   <sheetViews>
@@ -35115,7 +35873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -35860,7 +36618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -37107,422 +37865,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="A1:C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="44" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="44">
-        <v>6.8339570065970898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="44">
-        <v>6.0234597831008001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="44">
-        <v>4.1347067054697701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="44">
-        <v>3.7252434659151898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="44">
-        <v>3.4395380134651501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="44">
-        <v>2.6743241497297601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="44">
-        <v>2.4325415785039799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="44">
-        <v>2.4265579241542801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="44">
-        <v>2.2629501905001002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="44">
-        <v>1.8687406448388799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="44">
-        <v>1.81331965214988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="44">
-        <v>1.7901665979630399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1.7770098045368199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="44">
-        <v>1.7665237283286701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="44">
-        <v>1.76463166115576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="44">
-        <v>1.73338875669904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="44">
-        <v>1.7316776882285601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="44">
-        <v>1.7284907243997201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="44">
-        <v>1.7275044643671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="44">
-        <v>1.68061312282124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="44">
-        <v>1.6725684469289299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="44">
-        <v>1.66036205983412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="44">
-        <v>1.64234589474955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="44">
-        <v>1.5969804764854301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="44">
-        <v>1.58160103578181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="44">
-        <v>1.5032365152634899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="44">
-        <v>1.4894908561015101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="44">
-        <v>1.46157558683504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="44">
-        <v>1.40143099803079</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="44">
-        <v>1.3738208127156399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="44">
-        <v>1.2836440865684899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="44">
-        <v>1.21225739319366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="44">
-        <v>1.1882711025281301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="44">
-        <v>1.1855282301641199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
-        <v>35</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="50">
-        <v>1.1812208418944701</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
+++ b/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
@@ -9,34 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParametrosCalibracao" sheetId="1" r:id="rId1"/>
     <sheet name="Estatisticas_Calibracao" sheetId="13" r:id="rId2"/>
-    <sheet name="CalibracaoErroCalculado" sheetId="2" r:id="rId3"/>
-    <sheet name="ParametrosCenarioMenorErro" sheetId="3" r:id="rId4"/>
-    <sheet name="EstratégiasTestadas" sheetId="11" r:id="rId5"/>
-    <sheet name="RankingEstrategias" sheetId="4" r:id="rId6"/>
-    <sheet name="DataFraneVulnerabilidade" sheetId="5" r:id="rId7"/>
-    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId8"/>
-    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId9"/>
-    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId10"/>
-    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId11"/>
-    <sheet name="RankingGeral" sheetId="10" r:id="rId12"/>
-    <sheet name="RankingGeral_Modo2" sheetId="12" r:id="rId13"/>
+    <sheet name="Resultados-Simulação-Dados" sheetId="14" r:id="rId3"/>
+    <sheet name="CalibracaoErroCalculado" sheetId="2" r:id="rId4"/>
+    <sheet name="ParametrosCenarioMenorErro" sheetId="3" r:id="rId5"/>
+    <sheet name="EstratégiasTestadas" sheetId="11" r:id="rId6"/>
+    <sheet name="RankingEstrategias" sheetId="4" r:id="rId7"/>
+    <sheet name="DataFraneVulnerabilidade" sheetId="5" r:id="rId8"/>
+    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId9"/>
+    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId10"/>
+    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId11"/>
+    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId12"/>
+    <sheet name="RankingGeral" sheetId="10" r:id="rId13"/>
+    <sheet name="RankingGeral_Modo2" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DataFraneVulnerabilidade!$A$1:$AM$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EstratégiasTestadas!$A$1:$D$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">RankingGeral_Modo2!$A$1:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">DataFraneVulnerabilidade!$A$1:$AM$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EstratégiasTestadas!$A$1:$D$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">RankingGeral_Modo2!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="274">
   <si>
     <t>Variavel</t>
   </si>
@@ -847,6 +848,18 @@
   <si>
     <t>Coefficiente de Determinação. Representa a Fração da Variância dos dados explicada pelo modelo.</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Dados Observados</t>
+  </si>
+  <si>
+    <t>Resultados Modelo</t>
+  </si>
+  <si>
+    <t>Resídulo</t>
+  </si>
 </sst>
 </file>
 
@@ -857,7 +870,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1000,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,6 +1182,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,27 +1226,13 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4849,6 +4871,1255 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13" style="29" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="18" style="20" customWidth="1"/>
+    <col min="8" max="9" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="str">
+        <f>J2&amp;G2</f>
+        <v>aReferencePopulation**</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1.3226983361602701E-7</v>
+      </c>
+      <c r="D2" s="36">
+        <v>-5.6461858270089698</v>
+      </c>
+      <c r="E2" s="37">
+        <v>58346.431103176998</v>
+      </c>
+      <c r="F2" s="37">
+        <v>74940.299622176099</v>
+      </c>
+      <c r="G2" s="20" t="str">
+        <f>IF(I2,"**",IF(H2,"*",""))</f>
+        <v>**</v>
+      </c>
+      <c r="H2" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="str">
+        <f t="shared" ref="B3:B36" si="0">J3&amp;G3</f>
+        <v>aSwitchForCapacityStrategy2**</v>
+      </c>
+      <c r="C3" s="36">
+        <v>6.6123182309775301E-4</v>
+      </c>
+      <c r="D3" s="36">
+        <v>3.5469926975150701</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1.58904441762066</v>
+      </c>
+      <c r="F3" s="37">
+        <v>1.2517383469502701</v>
+      </c>
+      <c r="G3" s="20" t="str">
+        <f t="shared" ref="G3:G36" si="1">IF(I3,"**",IF(H3,"*",""))</f>
+        <v>**</v>
+      </c>
+      <c r="H3" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aNormalCapacityUtilization**</v>
+      </c>
+      <c r="C4" s="36">
+        <v>3.1222431043542299E-3</v>
+      </c>
+      <c r="D4" s="36">
+        <v>3.0312099348112902</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.81303906753933697</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.76092336103945002</v>
+      </c>
+      <c r="G4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>**</v>
+      </c>
+      <c r="H4" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aSwitchForCapacityStrategy4**</v>
+      </c>
+      <c r="C5" s="36">
+        <v>3.1810576841710598E-3</v>
+      </c>
+      <c r="D5" s="36">
+        <v>3.0245086679384201</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1.56957507263463</v>
+      </c>
+      <c r="F5" s="37">
+        <v>1.3115809293724401</v>
+      </c>
+      <c r="G5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>**</v>
+      </c>
+      <c r="H5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aDesiredMarketShare2*</v>
+      </c>
+      <c r="C6" s="36">
+        <v>3.6529700672677599E-2</v>
+      </c>
+      <c r="D6" s="36">
+        <v>-2.1243486684298998</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.42780695964308302</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.45638433448730398</v>
+      </c>
+      <c r="G6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="H6" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aVolumeReportingDelay*</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3.7498446344432002E-2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>-2.1149100299111199</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.15150639851360601</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.17044410880671301</v>
+      </c>
+      <c r="G7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="H7" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aSensOfAttractToPrice</v>
+      </c>
+      <c r="C8" s="36">
+        <v>8.8810799403604895E-2</v>
+      </c>
+      <c r="D8" s="36">
+        <v>-1.7246102031784001</v>
+      </c>
+      <c r="E8" s="37">
+        <v>-8.1771983299050497</v>
+      </c>
+      <c r="F8" s="37">
+        <v>-7.4694917935112501</v>
+      </c>
+      <c r="G8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aRatioOfFixedToVarCost</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.15737292739388001</v>
+      </c>
+      <c r="D9" s="36">
+        <v>-1.4274299123529699</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1.62005386864241</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1.80551374974923</v>
+      </c>
+      <c r="G9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aOrcamentoPeD4</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.16231498219960999</v>
+      </c>
+      <c r="D10" s="36">
+        <v>-1.4098244631153101</v>
+      </c>
+      <c r="E10" s="37">
+        <v>9.8335995157460401E-2</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.10501642199742101</v>
+      </c>
+      <c r="G10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aOrcamentoPeD3</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.17622389233869901</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1.36358841065081</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.101603442757056</v>
+      </c>
+      <c r="F11" s="37">
+        <v>9.5286215034781505E-2</v>
+      </c>
+      <c r="G11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aTempoMedioRealizacaoPeD</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.213720212642104</v>
+      </c>
+      <c r="D12" s="36">
+        <v>-1.2526062373201401</v>
+      </c>
+      <c r="E12" s="37">
+        <v>2.4564455524522799</v>
+      </c>
+      <c r="F12" s="37">
+        <v>2.6306651654079301</v>
+      </c>
+      <c r="G12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aDesiredMarketShare4</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.22527067470595499</v>
+      </c>
+      <c r="D13" s="36">
+        <v>-1.22083438003154</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.41613702461475299</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.43149649358581998</v>
+      </c>
+      <c r="G13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aTempoMedioAvaliacao</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0.22555481642825001</v>
+      </c>
+      <c r="D14" s="36">
+        <v>-1.2210832320045999</v>
+      </c>
+      <c r="E14" s="37">
+        <v>2.2278161620568602</v>
+      </c>
+      <c r="F14" s="37">
+        <v>2.31559188420513</v>
+      </c>
+      <c r="G14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aFractionalDiscardRate</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.27241834306303297</v>
+      </c>
+      <c r="D15" s="36">
+        <v>-1.1050809668111601</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.14866865445918201</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.15402440469383499</v>
+      </c>
+      <c r="G15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aCapacityAcquisitionDelay</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.27397275125669002</v>
+      </c>
+      <c r="D16" s="36">
+        <v>1.1015067454418099</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.75661422418238</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.72986166196971902</v>
+      </c>
+      <c r="G16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aReferenceIndustryDemandElasticity</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.29094806299884701</v>
+      </c>
+      <c r="D17" s="36">
+        <v>1.06215902106027</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.51174756066147997</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.46396282589368099</v>
+      </c>
+      <c r="G17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aDesiredMarketShare3</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.30868744024439398</v>
+      </c>
+      <c r="D18" s="36">
+        <v>1.0244850294813801</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.22685975320806601</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0.219388687204916</v>
+      </c>
+      <c r="G18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aOrcamentoPeD2</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.31317454782008902</v>
+      </c>
+      <c r="D19" s="36">
+        <v>-1.01404303559366</v>
+      </c>
+      <c r="E19" s="37">
+        <v>9.8878299452171206E-2</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.103394215978235</v>
+      </c>
+      <c r="G19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aTempodeInutilizacaoPatente</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.34542505146040398</v>
+      </c>
+      <c r="D20" s="36">
+        <v>-0.94890857504941195</v>
+      </c>
+      <c r="E20" s="37">
+        <v>9.88619204313013</v>
+      </c>
+      <c r="F20" s="37">
+        <v>10.3385232715288</v>
+      </c>
+      <c r="G20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aInitialReorderShare</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.40489162750562402</v>
+      </c>
+      <c r="D21" s="36">
+        <v>-0.83689025515025095</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.44331271479282702</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.47009533661402803</v>
+      </c>
+      <c r="G21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aPercPeDAberto3</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0.5919307017955</v>
+      </c>
+      <c r="D22" s="36">
+        <v>0.537952487444606</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0.50622402374762998</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.48177785459726602</v>
+      </c>
+      <c r="G22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aSensOfPriceToCosts</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.63757358848231305</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0.47290421117060799</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.75291540621337905</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.74135279709406898</v>
+      </c>
+      <c r="G23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aCustoMedioPatente</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.64311957014455101</v>
+      </c>
+      <c r="D24" s="36">
+        <v>0.46503520384725</v>
+      </c>
+      <c r="E24" s="37">
+        <v>2011218.25334153</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1966941.0092583899</v>
+      </c>
+      <c r="G24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aSensOfAttractToPerformance</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.65144088591708604</v>
+      </c>
+      <c r="D25" s="36">
+        <v>-0.45314901099881699</v>
+      </c>
+      <c r="E25" s="37">
+        <v>-8.0392381267778603</v>
+      </c>
+      <c r="F25" s="37">
+        <v>-7.8813759019110297</v>
+      </c>
+      <c r="G25" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aWOMStrength</v>
+      </c>
+      <c r="C26" s="36">
+        <v>0.65778678461290296</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0.44458913111954801</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0.95608636529116997</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.93261363592520596</v>
+      </c>
+      <c r="G26" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aPercPeDAberto2</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.71175736274814905</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0.37070222175292999</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0.50423835092301805</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0.48707063653308402</v>
+      </c>
+      <c r="G27" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aInnovatorAdoptionFraction</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0.72314979972520499</v>
+      </c>
+      <c r="D28" s="36">
+        <v>-0.35543713212330103</v>
+      </c>
+      <c r="E28" s="37">
+        <v>5.4533833454364598E-3</v>
+      </c>
+      <c r="F28" s="37">
+        <v>5.6382165320290698E-3</v>
+      </c>
+      <c r="G28" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aPerfSlope</v>
+      </c>
+      <c r="C29" s="36">
+        <v>0.72451253894693801</v>
+      </c>
+      <c r="D29" s="36">
+        <v>0.35379466626588602</v>
+      </c>
+      <c r="E29" s="37">
+        <v>2.4909107050426999E-2</v>
+      </c>
+      <c r="F29" s="37">
+        <v>2.4454082762457599E-2</v>
+      </c>
+      <c r="G29" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aSensOfAttractToAvailability</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0.72940079246415201</v>
+      </c>
+      <c r="D30" s="36">
+        <v>-0.34711905216921801</v>
+      </c>
+      <c r="E30" s="37">
+        <v>-4.0171005493166199</v>
+      </c>
+      <c r="F30" s="37">
+        <v>-3.9499622959953702</v>
+      </c>
+      <c r="G30" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aTaxaRejeicao</v>
+      </c>
+      <c r="C31" s="36">
+        <v>0.75625376579364101</v>
+      </c>
+      <c r="D31" s="36">
+        <v>-0.31137883321473597</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0.44894015931162301</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0.45326609100925302</v>
+      </c>
+      <c r="G31" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aSwitchForCapacityStrategy3</v>
+      </c>
+      <c r="C32" s="36">
+        <v>0.79447105168935495</v>
+      </c>
+      <c r="D32" s="36">
+        <v>-0.26127021164999897</v>
+      </c>
+      <c r="E32" s="37">
+        <v>1.4994090590576099</v>
+      </c>
+      <c r="F32" s="37">
+        <v>1.52289074532812</v>
+      </c>
+      <c r="G32" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aLCStrength</v>
+      </c>
+      <c r="C33" s="36">
+        <v>0.80222706744064798</v>
+      </c>
+      <c r="D33" s="36">
+        <v>0.25124907543247299</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0.85090323033877202</v>
+      </c>
+      <c r="F33" s="37">
+        <v>0.84735667217481603</v>
+      </c>
+      <c r="G33" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aPercPeDAberto4</v>
+      </c>
+      <c r="C34" s="36">
+        <v>0.819873378067417</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0.228351405772062</v>
+      </c>
+      <c r="E34" s="37">
+        <v>0.50257785979770897</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0.49235750836909298</v>
+      </c>
+      <c r="G34" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>aSensOfPriceToShare</v>
+      </c>
+      <c r="C35" s="36">
+        <v>0.83480211693236905</v>
+      </c>
+      <c r="D35" s="36">
+        <v>-0.209242071689767</v>
+      </c>
+      <c r="E35" s="37">
+        <v>-0.25128679227951201</v>
+      </c>
+      <c r="F35" s="37">
+        <v>-0.246114779105782</v>
+      </c>
+      <c r="G35" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="30">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>aSensOfPriceToDSBalance</v>
+      </c>
+      <c r="C36" s="42">
+        <v>0.94027165749864905</v>
+      </c>
+      <c r="D36" s="42">
+        <v>-7.5171076687715901E-2</v>
+      </c>
+      <c r="E36" s="43">
+        <v>0.12479147982252201</v>
+      </c>
+      <c r="F36" s="43">
+        <v>0.12572540192363099</v>
+      </c>
+      <c r="G36" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -5266,7 +6537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -6115,7 +7386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -6748,7 +8019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B187AC-06E3-439A-B7D8-1EBFAABEB01E}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -8288,7 +9559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422D0E52-0062-4728-87AF-6A9DAC7287A5}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -8305,158 +9576,158 @@
       <c r="A1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="72" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="68">
         <v>0.85253621976330496</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="68">
         <v>0.923328879524141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="69">
         <v>1817965.3903449301</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="68">
         <v>1348.31946894826</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="69">
         <v>19997619.2937942</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="68">
         <v>1111.7700706988101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="70">
         <v>0.186560817055022</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="70">
         <v>0.17245987379257199</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="70">
         <v>3.9707008041734701E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="70">
         <v>0.78783311816569601</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="72"/>
+      <c r="D12" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8465,6 +9736,196 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2A38B7-B0FA-4680-A60C-EDAC00D474A7}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="80">
+        <v>2004</v>
+      </c>
+      <c r="B2" s="80">
+        <v>2600</v>
+      </c>
+      <c r="C2" s="81">
+        <v>2600</v>
+      </c>
+      <c r="D2" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="80">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="80">
+        <v>3500</v>
+      </c>
+      <c r="C3" s="81">
+        <v>2663.9425291299799</v>
+      </c>
+      <c r="D3" s="81">
+        <v>-836.05747087002499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="80">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="80">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="81">
+        <v>3451.2110682410998</v>
+      </c>
+      <c r="D4" s="81">
+        <v>-548.78893175890198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="80">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="80">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="81">
+        <v>4381.7954216874296</v>
+      </c>
+      <c r="D5" s="81">
+        <v>-618.20457831257102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="80">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="80">
+        <v>5050</v>
+      </c>
+      <c r="C6" s="81">
+        <v>5406.2128848381499</v>
+      </c>
+      <c r="D6" s="81">
+        <v>356.212884838153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="80">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="80">
+        <v>4600</v>
+      </c>
+      <c r="C7" s="81">
+        <v>6518.3737333930603</v>
+      </c>
+      <c r="D7" s="81">
+        <v>1918.3737333930601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="80">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="80">
+        <v>6100</v>
+      </c>
+      <c r="C8" s="81">
+        <v>7695.5469581142397</v>
+      </c>
+      <c r="D8" s="81">
+        <v>1595.5469581142399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="80">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="80">
+        <v>6500</v>
+      </c>
+      <c r="C9" s="81">
+        <v>8884.24826053783</v>
+      </c>
+      <c r="D9" s="81">
+        <v>2384.24826053783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="80">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="80">
+        <v>7771</v>
+      </c>
+      <c r="C10" s="81">
+        <v>10012.6596006031</v>
+      </c>
+      <c r="D10" s="81">
+        <v>2241.6596006031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="80">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="80">
+        <v>10310.5</v>
+      </c>
+      <c r="C11" s="81">
+        <v>11008.830938696499</v>
+      </c>
+      <c r="D11" s="81">
+        <v>698.33093869648303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="48">
+        <v>12850</v>
+      </c>
+      <c r="C12" s="82">
+        <v>11817.9525794375</v>
+      </c>
+      <c r="D12" s="82">
+        <v>-1032.0474205625201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -8688,7 +10149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B88"/>
   <sheetViews>
@@ -9406,7 +10867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52479EB4-2AB3-4CF9-9C0C-258FE2EA664C}">
   <dimension ref="A1:F56"/>
   <sheetViews>
@@ -9423,19 +10884,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="12" t="s">
         <v>205</v>
       </c>
@@ -10378,7 +11839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -10397,29 +11858,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="69" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="76" t="s">
         <v>204</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="12" t="s">
         <v>205</v>
       </c>
@@ -10432,8 +11893,8 @@
       <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="68"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11906,7 +13367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM201"/>
   <sheetViews>
@@ -35873,7 +37334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -36616,1253 +38077,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13" style="29" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="18" style="20" customWidth="1"/>
-    <col min="8" max="9" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="str">
-        <f>J2&amp;G2</f>
-        <v>aReferencePopulation**</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1.3226983361602701E-7</v>
-      </c>
-      <c r="D2" s="36">
-        <v>-5.6461858270089698</v>
-      </c>
-      <c r="E2" s="37">
-        <v>58346.431103176998</v>
-      </c>
-      <c r="F2" s="37">
-        <v>74940.299622176099</v>
-      </c>
-      <c r="G2" s="20" t="str">
-        <f>IF(I2,"**",IF(H2,"*",""))</f>
-        <v>**</v>
-      </c>
-      <c r="H2" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="str">
-        <f t="shared" ref="B3:B36" si="0">J3&amp;G3</f>
-        <v>aSwitchForCapacityStrategy2**</v>
-      </c>
-      <c r="C3" s="36">
-        <v>6.6123182309775301E-4</v>
-      </c>
-      <c r="D3" s="36">
-        <v>3.5469926975150701</v>
-      </c>
-      <c r="E3" s="37">
-        <v>1.58904441762066</v>
-      </c>
-      <c r="F3" s="37">
-        <v>1.2517383469502701</v>
-      </c>
-      <c r="G3" s="20" t="str">
-        <f t="shared" ref="G3:G36" si="1">IF(I3,"**",IF(H3,"*",""))</f>
-        <v>**</v>
-      </c>
-      <c r="H3" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aNormalCapacityUtilization**</v>
-      </c>
-      <c r="C4" s="36">
-        <v>3.1222431043542299E-3</v>
-      </c>
-      <c r="D4" s="36">
-        <v>3.0312099348112902</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0.81303906753933697</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0.76092336103945002</v>
-      </c>
-      <c r="G4" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>**</v>
-      </c>
-      <c r="H4" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aSwitchForCapacityStrategy4**</v>
-      </c>
-      <c r="C5" s="36">
-        <v>3.1810576841710598E-3</v>
-      </c>
-      <c r="D5" s="36">
-        <v>3.0245086679384201</v>
-      </c>
-      <c r="E5" s="37">
-        <v>1.56957507263463</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1.3115809293724401</v>
-      </c>
-      <c r="G5" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>**</v>
-      </c>
-      <c r="H5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aDesiredMarketShare2*</v>
-      </c>
-      <c r="C6" s="36">
-        <v>3.6529700672677599E-2</v>
-      </c>
-      <c r="D6" s="36">
-        <v>-2.1243486684298998</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0.42780695964308302</v>
-      </c>
-      <c r="F6" s="37">
-        <v>0.45638433448730398</v>
-      </c>
-      <c r="G6" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="H6" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aVolumeReportingDelay*</v>
-      </c>
-      <c r="C7" s="36">
-        <v>3.7498446344432002E-2</v>
-      </c>
-      <c r="D7" s="36">
-        <v>-2.1149100299111199</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0.15150639851360601</v>
-      </c>
-      <c r="F7" s="37">
-        <v>0.17044410880671301</v>
-      </c>
-      <c r="G7" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="H7" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aSensOfAttractToPrice</v>
-      </c>
-      <c r="C8" s="36">
-        <v>8.8810799403604895E-2</v>
-      </c>
-      <c r="D8" s="36">
-        <v>-1.7246102031784001</v>
-      </c>
-      <c r="E8" s="37">
-        <v>-8.1771983299050497</v>
-      </c>
-      <c r="F8" s="37">
-        <v>-7.4694917935112501</v>
-      </c>
-      <c r="G8" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aRatioOfFixedToVarCost</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0.15737292739388001</v>
-      </c>
-      <c r="D9" s="36">
-        <v>-1.4274299123529699</v>
-      </c>
-      <c r="E9" s="37">
-        <v>1.62005386864241</v>
-      </c>
-      <c r="F9" s="37">
-        <v>1.80551374974923</v>
-      </c>
-      <c r="G9" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H9" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aOrcamentoPeD4</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.16231498219960999</v>
-      </c>
-      <c r="D10" s="36">
-        <v>-1.4098244631153101</v>
-      </c>
-      <c r="E10" s="37">
-        <v>9.8335995157460401E-2</v>
-      </c>
-      <c r="F10" s="37">
-        <v>0.10501642199742101</v>
-      </c>
-      <c r="G10" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H10" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aOrcamentoPeD3</v>
-      </c>
-      <c r="C11" s="36">
-        <v>0.17622389233869901</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1.36358841065081</v>
-      </c>
-      <c r="E11" s="37">
-        <v>0.101603442757056</v>
-      </c>
-      <c r="F11" s="37">
-        <v>9.5286215034781505E-2</v>
-      </c>
-      <c r="G11" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aTempoMedioRealizacaoPeD</v>
-      </c>
-      <c r="C12" s="36">
-        <v>0.213720212642104</v>
-      </c>
-      <c r="D12" s="36">
-        <v>-1.2526062373201401</v>
-      </c>
-      <c r="E12" s="37">
-        <v>2.4564455524522799</v>
-      </c>
-      <c r="F12" s="37">
-        <v>2.6306651654079301</v>
-      </c>
-      <c r="G12" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aDesiredMarketShare4</v>
-      </c>
-      <c r="C13" s="36">
-        <v>0.22527067470595499</v>
-      </c>
-      <c r="D13" s="36">
-        <v>-1.22083438003154</v>
-      </c>
-      <c r="E13" s="37">
-        <v>0.41613702461475299</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0.43149649358581998</v>
-      </c>
-      <c r="G13" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aTempoMedioAvaliacao</v>
-      </c>
-      <c r="C14" s="36">
-        <v>0.22555481642825001</v>
-      </c>
-      <c r="D14" s="36">
-        <v>-1.2210832320045999</v>
-      </c>
-      <c r="E14" s="37">
-        <v>2.2278161620568602</v>
-      </c>
-      <c r="F14" s="37">
-        <v>2.31559188420513</v>
-      </c>
-      <c r="G14" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aFractionalDiscardRate</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0.27241834306303297</v>
-      </c>
-      <c r="D15" s="36">
-        <v>-1.1050809668111601</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0.14866865445918201</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.15402440469383499</v>
-      </c>
-      <c r="G15" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aCapacityAcquisitionDelay</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0.27397275125669002</v>
-      </c>
-      <c r="D16" s="36">
-        <v>1.1015067454418099</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.75661422418238</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.72986166196971902</v>
-      </c>
-      <c r="G16" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aReferenceIndustryDemandElasticity</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0.29094806299884701</v>
-      </c>
-      <c r="D17" s="36">
-        <v>1.06215902106027</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0.51174756066147997</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.46396282589368099</v>
-      </c>
-      <c r="G17" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aDesiredMarketShare3</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0.30868744024439398</v>
-      </c>
-      <c r="D18" s="36">
-        <v>1.0244850294813801</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0.22685975320806601</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0.219388687204916</v>
-      </c>
-      <c r="G18" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aOrcamentoPeD2</v>
-      </c>
-      <c r="C19" s="36">
-        <v>0.31317454782008902</v>
-      </c>
-      <c r="D19" s="36">
-        <v>-1.01404303559366</v>
-      </c>
-      <c r="E19" s="37">
-        <v>9.8878299452171206E-2</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0.103394215978235</v>
-      </c>
-      <c r="G19" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aTempodeInutilizacaoPatente</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0.34542505146040398</v>
-      </c>
-      <c r="D20" s="36">
-        <v>-0.94890857504941195</v>
-      </c>
-      <c r="E20" s="37">
-        <v>9.88619204313013</v>
-      </c>
-      <c r="F20" s="37">
-        <v>10.3385232715288</v>
-      </c>
-      <c r="G20" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
-        <v>20</v>
-      </c>
-      <c r="B21" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aInitialReorderShare</v>
-      </c>
-      <c r="C21" s="36">
-        <v>0.40489162750562402</v>
-      </c>
-      <c r="D21" s="36">
-        <v>-0.83689025515025095</v>
-      </c>
-      <c r="E21" s="37">
-        <v>0.44331271479282702</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0.47009533661402803</v>
-      </c>
-      <c r="G21" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aPercPeDAberto3</v>
-      </c>
-      <c r="C22" s="36">
-        <v>0.5919307017955</v>
-      </c>
-      <c r="D22" s="36">
-        <v>0.537952487444606</v>
-      </c>
-      <c r="E22" s="37">
-        <v>0.50622402374762998</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0.48177785459726602</v>
-      </c>
-      <c r="G22" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aSensOfPriceToCosts</v>
-      </c>
-      <c r="C23" s="36">
-        <v>0.63757358848231305</v>
-      </c>
-      <c r="D23" s="36">
-        <v>0.47290421117060799</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0.75291540621337905</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0.74135279709406898</v>
-      </c>
-      <c r="G23" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aCustoMedioPatente</v>
-      </c>
-      <c r="C24" s="36">
-        <v>0.64311957014455101</v>
-      </c>
-      <c r="D24" s="36">
-        <v>0.46503520384725</v>
-      </c>
-      <c r="E24" s="37">
-        <v>2011218.25334153</v>
-      </c>
-      <c r="F24" s="37">
-        <v>1966941.0092583899</v>
-      </c>
-      <c r="G24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aSensOfAttractToPerformance</v>
-      </c>
-      <c r="C25" s="36">
-        <v>0.65144088591708604</v>
-      </c>
-      <c r="D25" s="36">
-        <v>-0.45314901099881699</v>
-      </c>
-      <c r="E25" s="37">
-        <v>-8.0392381267778603</v>
-      </c>
-      <c r="F25" s="37">
-        <v>-7.8813759019110297</v>
-      </c>
-      <c r="G25" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aWOMStrength</v>
-      </c>
-      <c r="C26" s="36">
-        <v>0.65778678461290296</v>
-      </c>
-      <c r="D26" s="36">
-        <v>0.44458913111954801</v>
-      </c>
-      <c r="E26" s="37">
-        <v>0.95608636529116997</v>
-      </c>
-      <c r="F26" s="37">
-        <v>0.93261363592520596</v>
-      </c>
-      <c r="G26" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H26" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aPercPeDAberto2</v>
-      </c>
-      <c r="C27" s="36">
-        <v>0.71175736274814905</v>
-      </c>
-      <c r="D27" s="36">
-        <v>0.37070222175292999</v>
-      </c>
-      <c r="E27" s="37">
-        <v>0.50423835092301805</v>
-      </c>
-      <c r="F27" s="37">
-        <v>0.48707063653308402</v>
-      </c>
-      <c r="G27" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aInnovatorAdoptionFraction</v>
-      </c>
-      <c r="C28" s="36">
-        <v>0.72314979972520499</v>
-      </c>
-      <c r="D28" s="36">
-        <v>-0.35543713212330103</v>
-      </c>
-      <c r="E28" s="37">
-        <v>5.4533833454364598E-3</v>
-      </c>
-      <c r="F28" s="37">
-        <v>5.6382165320290698E-3</v>
-      </c>
-      <c r="G28" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H28" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aPerfSlope</v>
-      </c>
-      <c r="C29" s="36">
-        <v>0.72451253894693801</v>
-      </c>
-      <c r="D29" s="36">
-        <v>0.35379466626588602</v>
-      </c>
-      <c r="E29" s="37">
-        <v>2.4909107050426999E-2</v>
-      </c>
-      <c r="F29" s="37">
-        <v>2.4454082762457599E-2</v>
-      </c>
-      <c r="G29" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aSensOfAttractToAvailability</v>
-      </c>
-      <c r="C30" s="36">
-        <v>0.72940079246415201</v>
-      </c>
-      <c r="D30" s="36">
-        <v>-0.34711905216921801</v>
-      </c>
-      <c r="E30" s="37">
-        <v>-4.0171005493166199</v>
-      </c>
-      <c r="F30" s="37">
-        <v>-3.9499622959953702</v>
-      </c>
-      <c r="G30" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H30" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aTaxaRejeicao</v>
-      </c>
-      <c r="C31" s="36">
-        <v>0.75625376579364101</v>
-      </c>
-      <c r="D31" s="36">
-        <v>-0.31137883321473597</v>
-      </c>
-      <c r="E31" s="37">
-        <v>0.44894015931162301</v>
-      </c>
-      <c r="F31" s="37">
-        <v>0.45326609100925302</v>
-      </c>
-      <c r="G31" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H31" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aSwitchForCapacityStrategy3</v>
-      </c>
-      <c r="C32" s="36">
-        <v>0.79447105168935495</v>
-      </c>
-      <c r="D32" s="36">
-        <v>-0.26127021164999897</v>
-      </c>
-      <c r="E32" s="37">
-        <v>1.4994090590576099</v>
-      </c>
-      <c r="F32" s="37">
-        <v>1.52289074532812</v>
-      </c>
-      <c r="G32" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aLCStrength</v>
-      </c>
-      <c r="C33" s="36">
-        <v>0.80222706744064798</v>
-      </c>
-      <c r="D33" s="36">
-        <v>0.25124907543247299</v>
-      </c>
-      <c r="E33" s="37">
-        <v>0.85090323033877202</v>
-      </c>
-      <c r="F33" s="37">
-        <v>0.84735667217481603</v>
-      </c>
-      <c r="G33" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aPercPeDAberto4</v>
-      </c>
-      <c r="C34" s="36">
-        <v>0.819873378067417</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0.228351405772062</v>
-      </c>
-      <c r="E34" s="37">
-        <v>0.50257785979770897</v>
-      </c>
-      <c r="F34" s="37">
-        <v>0.49235750836909298</v>
-      </c>
-      <c r="G34" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H34" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>aSensOfPriceToShare</v>
-      </c>
-      <c r="C35" s="36">
-        <v>0.83480211693236905</v>
-      </c>
-      <c r="D35" s="36">
-        <v>-0.209242071689767</v>
-      </c>
-      <c r="E35" s="37">
-        <v>-0.25128679227951201</v>
-      </c>
-      <c r="F35" s="37">
-        <v>-0.246114779105782</v>
-      </c>
-      <c r="G35" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
-        <v>35</v>
-      </c>
-      <c r="B36" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>aSensOfPriceToDSBalance</v>
-      </c>
-      <c r="C36" s="42">
-        <v>0.94027165749864905</v>
-      </c>
-      <c r="D36" s="42">
-        <v>-7.5171076687715901E-2</v>
-      </c>
-      <c r="E36" s="43">
-        <v>0.12479147982252201</v>
-      </c>
-      <c r="F36" s="43">
-        <v>0.12572540192363099</v>
-      </c>
-      <c r="G36" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
+++ b/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParametrosCalibracao" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,25 @@
     <sheet name="EstratégiasTestadas" sheetId="11" r:id="rId6"/>
     <sheet name="RankingEstrategias" sheetId="4" r:id="rId7"/>
     <sheet name="DataFraneVulnerabilidade" sheetId="5" r:id="rId8"/>
-    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId9"/>
-    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId10"/>
-    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId11"/>
-    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId12"/>
-    <sheet name="RankingGeral" sheetId="10" r:id="rId13"/>
-    <sheet name="RankingGeral_Modo2" sheetId="12" r:id="rId14"/>
+    <sheet name="Planilha1" sheetId="15" r:id="rId9"/>
+    <sheet name="RankingVariaveisMedia" sheetId="6" r:id="rId10"/>
+    <sheet name="RankingVariaveisMediaTesteT" sheetId="7" r:id="rId11"/>
+    <sheet name="RankingVariaveisRandomForest" sheetId="8" r:id="rId12"/>
+    <sheet name="RankingVariaveisBoruta" sheetId="9" r:id="rId13"/>
+    <sheet name="RankingGeral" sheetId="10" r:id="rId14"/>
+    <sheet name="RankingGeral_Modo2" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">DataFraneVulnerabilidade!$A$1:$AM$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EstratégiasTestadas!$A$1:$D$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">RankingGeral_Modo2!$A$1:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">RankingGeral_Modo2!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="276">
   <si>
     <t>Variavel</t>
   </si>
@@ -860,6 +861,12 @@
   <si>
     <t>Resídulo</t>
   </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Valores por Cenário</t>
+  </si>
 </sst>
 </file>
 
@@ -1013,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,6 +1212,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,13 +1242,16 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4871,6 +4890,751 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.22318934474818899</v>
+      </c>
+      <c r="D2" s="22">
+        <v>74940.299622176099</v>
+      </c>
+      <c r="E2" s="22">
+        <v>58346.431103176998</v>
+      </c>
+      <c r="F2" s="22">
+        <v>74348.838371835896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-0.17037563813571799</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1.2517383469502701</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1.58904441762066</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1.9797787662676301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="21">
+        <v>-0.13108552535352699</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.76092336103945002</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.81303906753933697</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.39757026078458901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="21">
+        <v>-0.130240801940706</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1.3115809293724401</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1.56957507263463</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1.98090106493395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.10125507948644601</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.17044410880671301</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.15150639851360601</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.18702973114195601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="21">
+        <v>9.9020112547010902E-2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.45638433448730398</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.42780695964308302</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.288601720490411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="21">
+        <v>8.8900118573121106E-2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>-7.4694917935112501</v>
+      </c>
+      <c r="E8" s="22">
+        <v>-8.1771983299050497</v>
+      </c>
+      <c r="F8" s="22">
+        <v>7.96069282867946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="21">
+        <v>7.0186037764755904E-2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1.80551374974923</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1.62005386864241</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2.6424042019357898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="21">
+        <v>6.7226751455138595E-2</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.10501642199742101</v>
+      </c>
+      <c r="E10" s="22">
+        <v>9.8335995157460401E-2</v>
+      </c>
+      <c r="F10" s="22">
+        <v>9.9371555152698396E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="21">
+        <v>-6.3276388979105799E-2</v>
+      </c>
+      <c r="D11" s="22">
+        <v>9.5286215034781505E-2</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.101603442757056</v>
+      </c>
+      <c r="F11" s="22">
+        <v>9.9835465079406299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="21">
+        <v>5.8921254685190702E-2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>2.31559188420513</v>
+      </c>
+      <c r="E12" s="22">
+        <v>2.2278161620568602</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1.48971237318765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="21">
+        <v>5.84240453997927E-2</v>
+      </c>
+      <c r="D13" s="22">
+        <v>2.6306651654079301</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2.4564455524522799</v>
+      </c>
+      <c r="F13" s="22">
+        <v>2.9819847592455302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="21">
+        <v>5.5184149413788297E-2</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.43149649358581998</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.41613702461475299</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.27833117179893901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="21">
+        <v>-5.3803349226961901E-2</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.72986166196971902</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.75661422418238</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.49722856656764602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="21">
+        <v>5.3681173669084703E-2</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.15402440469383499</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.14866865445918201</v>
+      </c>
+      <c r="F16" s="22">
+        <v>9.9769618817721506E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="21">
+        <v>-5.0167174964472698E-2</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.219388687204916</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.22685975320806601</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.148923394798301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-4.8076121938615102E-2</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.46396282589368099</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.51174756066147997</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.99393904584925596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="21">
+        <v>4.5360573411647599E-2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>10.3385232715288</v>
+      </c>
+      <c r="E19" s="22">
+        <v>9.88619204313013</v>
+      </c>
+      <c r="F19" s="22">
+        <v>9.9719027864513894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="21">
+        <v>4.53144153899942E-2</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.103394215978235</v>
+      </c>
+      <c r="E20" s="22">
+        <v>9.8878299452171206E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>9.9657393507077405E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="21">
+        <v>3.8521449796331E-2</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.47009533661402803</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.44331271479282702</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.69526515649864495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="21">
+        <v>-2.45491996918695E-2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.48177785459726602</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.50622402374762998</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0.99580309978337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="21">
+        <v>-2.3243910220769499E-2</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0.74135279709406898</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.75291540621337905</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0.49744681550946601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="21">
+        <v>-2.2178999836945702E-2</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1966941.0092583899</v>
+      </c>
+      <c r="E24" s="22">
+        <v>2011218.25334153</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1996358.9164824199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="21">
+        <v>-2.1459276116648399E-2</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0.93261363592520596</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0.95608636529116997</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1.0938267087095901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1.9812321081650899E-2</v>
+      </c>
+      <c r="D26" s="22">
+        <v>-7.8813759019110297</v>
+      </c>
+      <c r="E26" s="22">
+        <v>-8.0392381267778603</v>
+      </c>
+      <c r="F26" s="22">
+        <v>7.9678814115841003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="21">
+        <v>-1.8486548734765799E-2</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2.4454082762457599E-2</v>
+      </c>
+      <c r="E27" s="22">
+        <v>2.4909107050426999E-2</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2.4613804041944701E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="21">
+        <v>-1.7219093902939402E-2</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0.48707063653308402</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0.50423835092301805</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0.99701613143552104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1.69082195696738E-2</v>
+      </c>
+      <c r="D29" s="22">
+        <v>5.6382165320290698E-3</v>
+      </c>
+      <c r="E29" s="22">
+        <v>5.4533833454364598E-3</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1.09315582182363E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1.69060989755738E-2</v>
+      </c>
+      <c r="D30" s="22">
+        <v>-3.9499622959953702</v>
+      </c>
+      <c r="E30" s="22">
+        <v>-4.0171005493166199</v>
+      </c>
+      <c r="F30" s="22">
+        <v>3.97124454424717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1.4488687135018699E-2</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0.45326609100925302</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0.44894015931162301</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0.29857306306064102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="21">
+        <v>-1.1880421684131301E-2</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0.84735667217481603</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0.85090323033877202</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.29852123588277002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1.18534295418312E-2</v>
+      </c>
+      <c r="D33" s="22">
+        <v>1.52289074532812</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1.4994090590576099</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1.98100357264851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="21">
+        <v>1.0358221174562501E-2</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-0.246114779105782</v>
+      </c>
+      <c r="E34" s="22">
+        <v>-0.25128679227951201</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.49931480382278098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="21">
+        <v>-1.0268852518567601E-2</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0.49235750836909298</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0.50257785979770897</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0.99527687345165805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="30">
+        <v>35</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="26">
+        <v>3.7583641481433801E-3</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0.12572540192363099</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0.12479147982252201</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0.24849164804065399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -6119,7 +6883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -6537,7 +7301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -7386,7 +8150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -8019,7 +8783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B187AC-06E3-439A-B7D8-1EBFAABEB01E}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -9739,8 +10503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2A38B7-B0FA-4680-A60C-EDAC00D474A7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9766,142 +10530,142 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="80">
+      <c r="A2" s="73">
         <v>2004</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="73">
         <v>2600</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="74">
         <v>2600</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="80">
+      <c r="A3" s="73">
         <v>2005</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="73">
         <v>3500</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="74">
         <v>2663.9425291299799</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="74">
         <v>-836.05747087002499</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="80">
+      <c r="A4" s="73">
         <v>2006</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="73">
         <v>4000</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="74">
         <v>3451.2110682410998</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="74">
         <v>-548.78893175890198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80">
+      <c r="A5" s="73">
         <v>2007</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="73">
         <v>5000</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="74">
         <v>4381.7954216874296</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="74">
         <v>-618.20457831257102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="80">
+      <c r="A6" s="73">
         <v>2008</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="73">
         <v>5050</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="74">
         <v>5406.2128848381499</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="74">
         <v>356.212884838153</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="73">
         <v>2009</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="73">
         <v>4600</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="74">
         <v>6518.3737333930603</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="74">
         <v>1918.3737333930601</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+      <c r="A8" s="73">
         <v>2010</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="73">
         <v>6100</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="74">
         <v>7695.5469581142397</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="74">
         <v>1595.5469581142399</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="73">
         <v>2011</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="73">
         <v>6500</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="74">
         <v>8884.24826053783</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="74">
         <v>2384.24826053783</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+      <c r="A10" s="73">
         <v>2012</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="73">
         <v>7771</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="74">
         <v>10012.6596006031</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="74">
         <v>2241.6596006031</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="80">
+      <c r="A11" s="73">
         <v>2013</v>
       </c>
-      <c r="B11" s="80">
+      <c r="B11" s="73">
         <v>10310.5</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="74">
         <v>11008.830938696499</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="74">
         <v>698.33093869648303</v>
       </c>
     </row>
@@ -9912,10 +10676,10 @@
       <c r="B12" s="48">
         <v>12850</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="75">
         <v>11817.9525794375</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="75">
         <v>-1032.0474205625201</v>
       </c>
     </row>
@@ -10884,19 +11648,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="12" t="s">
         <v>205</v>
       </c>
@@ -11858,29 +12622,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="78" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="79" t="s">
         <v>204</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="12" t="s">
         <v>205</v>
       </c>
@@ -11893,8 +12657,8 @@
       <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13371,7 +14135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AG183" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:AM201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37335,746 +38101,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E840D7B-0F65-49D5-BE69-D231A6EC72E8}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="28.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="84">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="84">
+        <v>2</v>
+      </c>
+      <c r="D2" s="84">
+        <v>3</v>
+      </c>
+      <c r="E2" s="84">
+        <v>4</v>
+      </c>
+      <c r="F2" s="84">
+        <v>5</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="85">
+        <v>0</v>
+      </c>
+      <c r="C3" s="85">
+        <v>0</v>
+      </c>
+      <c r="D3" s="85">
+        <v>1</v>
+      </c>
+      <c r="E3" s="85">
+        <v>0</v>
+      </c>
+      <c r="F3" s="85">
+        <v>0</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="84">
+        <v>0</v>
+      </c>
+      <c r="C4" s="84">
+        <v>0</v>
+      </c>
+      <c r="D4" s="84">
+        <v>360741521.07023799</v>
+      </c>
+      <c r="E4" s="84">
+        <v>84431011.230018407</v>
+      </c>
+      <c r="F4" s="84">
+        <v>49739050.955082297</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="84">
+        <v>1632360712.4847901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="85">
+        <v>0.14525720067357201</v>
+      </c>
+      <c r="C5" s="85">
+        <v>0.146253309716354</v>
+      </c>
+      <c r="D5" s="85">
+        <v>0.128761742770439</v>
+      </c>
+      <c r="E5" s="85">
+        <v>0.16249495483923199</v>
+      </c>
+      <c r="F5" s="85">
+        <v>0.16843233262037399</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" s="85">
+        <v>0.17800243041385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="85">
+        <v>0.37278197944047903</v>
+      </c>
+      <c r="C6" s="85">
+        <v>0.95203209808329103</v>
+      </c>
+      <c r="D6" s="85">
+        <v>8.3100072777597206E-2</v>
+      </c>
+      <c r="E6" s="85">
+        <v>0.28619609334622498</v>
+      </c>
+      <c r="F6" s="85">
+        <v>6.5866392002208202E-2</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="85">
+        <v>0.80345251101301995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="21">
-        <v>0.22318934474818899</v>
-      </c>
-      <c r="D2" s="22">
-        <v>74940.299622176099</v>
-      </c>
-      <c r="E2" s="22">
-        <v>58346.431103176998</v>
-      </c>
-      <c r="F2" s="22">
-        <v>74348.838371835896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="B7" s="84">
+        <v>60130.8059573348</v>
+      </c>
+      <c r="C7" s="84">
+        <v>35808.189709903701</v>
+      </c>
+      <c r="D7" s="84">
+        <v>63597.937875456402</v>
+      </c>
+      <c r="E7" s="84">
+        <v>43053.112558089197</v>
+      </c>
+      <c r="F7" s="84">
+        <v>81516.036302404202</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="84">
+        <v>83174.682319047904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="85">
+        <v>4.0015955243993097E-3</v>
+      </c>
+      <c r="C8" s="85">
+        <v>7.1913576888991502E-3</v>
+      </c>
+      <c r="D8" s="85">
+        <v>6.0685144741670204E-3</v>
+      </c>
+      <c r="E8" s="85">
+        <v>1.4853960204054599E-4</v>
+      </c>
+      <c r="F8" s="85">
+        <v>3.1063345004036101E-3</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="85">
+        <v>1.01883183198073E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="85">
+        <v>0.61337513311998904</v>
+      </c>
+      <c r="C9" s="85">
+        <v>1.19837036780629</v>
+      </c>
+      <c r="D9" s="85">
+        <v>0.67234125082090002</v>
+      </c>
+      <c r="E9" s="85">
+        <v>0.75299378526420302</v>
+      </c>
+      <c r="F9" s="85">
+        <v>1.04621158017009</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="85">
+        <v>1.45108776982024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="85">
+        <v>0.15070626575034099</v>
+      </c>
+      <c r="C10" s="85">
+        <v>0.14532905412925201</v>
+      </c>
+      <c r="D10" s="85">
+        <v>0.169477927859916</v>
+      </c>
+      <c r="E10" s="85">
+        <v>6.28467326109967E-2</v>
+      </c>
+      <c r="F10" s="85">
+        <v>0.148774403568605</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="85">
+        <v>0.100677918077927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="85">
+        <v>0.97587452379521</v>
+      </c>
+      <c r="C11" s="85">
+        <v>0.59877223417221104</v>
+      </c>
+      <c r="D11" s="85">
+        <v>0.83569548954081296</v>
+      </c>
+      <c r="E11" s="85">
+        <v>0.80867529366339996</v>
+      </c>
+      <c r="F11" s="85">
+        <v>0.73331429132726</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="85">
+        <v>0.50384393465821598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="85">
+        <v>-5.4131738790636899</v>
+      </c>
+      <c r="C12" s="85">
+        <v>-3.5171905096294398</v>
+      </c>
+      <c r="D12" s="85">
+        <v>-2.5381992566073301</v>
+      </c>
+      <c r="E12" s="85">
+        <v>-4.9419433525018404</v>
+      </c>
+      <c r="F12" s="85">
+        <v>-4.4634405090054496</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="85">
+        <v>-4.1854265763657201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="85">
+        <v>-11.8387433704827</v>
+      </c>
+      <c r="C13" s="85">
+        <v>-8.6885231629665896</v>
+      </c>
+      <c r="D13" s="85">
+        <v>-5.7469871911685901</v>
+      </c>
+      <c r="E13" s="85">
+        <v>-9.2625712896976609</v>
+      </c>
+      <c r="F13" s="85">
+        <v>-10.499086247282101</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="85">
+        <v>-4.3808350221719596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="85">
+        <v>0.90700192631292198</v>
+      </c>
+      <c r="C14" s="85">
+        <v>0.73369181896618096</v>
+      </c>
+      <c r="D14" s="85">
+        <v>0.94856351111060899</v>
+      </c>
+      <c r="E14" s="85">
+        <v>0.96423144833697005</v>
+      </c>
+      <c r="F14" s="85">
+        <v>0.91576007111812896</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="85">
+        <v>0.82036342196958101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="85">
+        <v>2.8345690081360999</v>
+      </c>
+      <c r="C15" s="85">
+        <v>2.5494139513307399</v>
+      </c>
+      <c r="D15" s="85">
+        <v>2.2173646882412998</v>
+      </c>
+      <c r="E15" s="85">
+        <v>0.84821688259820005</v>
+      </c>
+      <c r="F15" s="85">
+        <v>0.831837241316013</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="85">
+        <v>1.6180484859427899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="85">
+        <v>0.66830348383821503</v>
+      </c>
+      <c r="C16" s="85">
+        <v>0.96637768305139604</v>
+      </c>
+      <c r="D16" s="85">
+        <v>0.75997967469366301</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0.77170113390078798</v>
+      </c>
+      <c r="F16" s="85">
+        <v>0.88611853740597102</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="85">
+        <v>0.72393005477497396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="85">
+        <v>0.90017008687718802</v>
+      </c>
+      <c r="C17" s="85">
+        <v>0.99126806282089097</v>
+      </c>
+      <c r="D17" s="85">
+        <v>0.98166967862634902</v>
+      </c>
+      <c r="E17" s="85">
+        <v>0.60553415379312403</v>
+      </c>
+      <c r="F17" s="85">
+        <v>0.91733558002859406</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="85">
+        <v>0.75248114775749897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="85">
+        <v>7.6432507175777598E-2</v>
+      </c>
+      <c r="C18" s="85">
+        <v>9.3600961209158395E-2</v>
+      </c>
+      <c r="D18" s="85">
+        <v>6.8306253815535504E-4</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.234706632444868</v>
+      </c>
+      <c r="F18" s="85">
+        <v>3.2541660375718498E-2</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="85">
+        <v>0.18570946656371201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="85">
+        <v>-8.3090461770771104E-2</v>
+      </c>
+      <c r="C19" s="85">
+        <v>-0.45884681975643599</v>
+      </c>
+      <c r="D19" s="85">
+        <v>-0.30368060062406599</v>
+      </c>
+      <c r="E19" s="85">
+        <v>-0.37368309019540902</v>
+      </c>
+      <c r="F19" s="85">
+        <v>-0.12553271243406899</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" s="85">
+        <v>-1.8439102998236201E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="85">
+        <v>2.5194229874585301</v>
+      </c>
+      <c r="C20" s="85">
+        <v>1.26146835491061</v>
+      </c>
+      <c r="D20" s="85">
+        <v>3.7647987063659798</v>
+      </c>
+      <c r="E20" s="85">
+        <v>2.17038353243028</v>
+      </c>
+      <c r="F20" s="85">
+        <v>1.31954557267367</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="85">
+        <v>3.71934811433777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="84">
+        <v>1703568.1557608801</v>
+      </c>
+      <c r="C21" s="84">
+        <v>1886104.0591285599</v>
+      </c>
+      <c r="D21" s="84">
+        <v>1483808.99750395</v>
+      </c>
+      <c r="E21" s="84">
+        <v>2332605.8458234202</v>
+      </c>
+      <c r="F21" s="84">
+        <v>1715481.3575558399</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21" s="84">
+        <v>1153287.6084442299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="85">
+        <v>2.5376871954876701</v>
+      </c>
+      <c r="C22" s="85">
+        <v>2.2249856785481099</v>
+      </c>
+      <c r="D22" s="85">
+        <v>2.5626131912536199</v>
+      </c>
+      <c r="E22" s="85">
+        <v>2.4050542658037699</v>
+      </c>
+      <c r="F22" s="85">
+        <v>2.09008688745147</v>
+      </c>
+      <c r="G22" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="85">
+        <v>2.09520862447796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="85">
+        <v>0.51497681153635499</v>
+      </c>
+      <c r="C23" s="85">
+        <v>0.56066994381160495</v>
+      </c>
+      <c r="D23" s="85">
+        <v>0.42599966902937703</v>
+      </c>
+      <c r="E23" s="85">
+        <v>0.483865894646966</v>
+      </c>
+      <c r="F23" s="85">
+        <v>0.303044038734748</v>
+      </c>
+      <c r="G23" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="85">
+        <v>0.571836746314075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="85">
+        <v>6.3883459694450702</v>
+      </c>
+      <c r="C24" s="85">
+        <v>11.1076221348834</v>
+      </c>
+      <c r="D24" s="85">
+        <v>5.7560923541779596</v>
+      </c>
+      <c r="E24" s="85">
+        <v>7.97729848265881</v>
+      </c>
+      <c r="F24" s="85">
+        <v>8.1952813799609405</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" s="85">
+        <v>9.4276127172750392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="85">
+        <v>2.52667116663878E-2</v>
+      </c>
+      <c r="C25" s="85">
+        <v>2.0550047843644E-2</v>
+      </c>
+      <c r="D25" s="85">
+        <v>2.13769444193459E-2</v>
+      </c>
+      <c r="E25" s="85">
+        <v>2.1766650091564799E-2</v>
+      </c>
+      <c r="F25" s="85">
+        <v>3.59962586512955E-2</v>
+      </c>
+      <c r="G25" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25" s="85">
+        <v>1.64359367210439E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="85">
+        <v>-7.9410373637080198</v>
+      </c>
+      <c r="C26" s="85">
+        <v>-8.9026568747405008</v>
+      </c>
+      <c r="D26" s="85">
+        <v>-5.7725875370204403</v>
+      </c>
+      <c r="E26" s="85">
+        <v>-9.1768886378128105</v>
+      </c>
+      <c r="F26" s="85">
+        <v>-8.4369287627190293</v>
+      </c>
+      <c r="G26" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="85">
+        <v>-7.2160544171556804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="85">
+        <v>0.61444662409077899</v>
+      </c>
+      <c r="C27" s="85">
+        <v>0.21711412268411401</v>
+      </c>
+      <c r="D27" s="85">
+        <v>0.10489589183463199</v>
+      </c>
+      <c r="E27" s="85">
+        <v>0.38878485698544002</v>
+      </c>
+      <c r="F27" s="85">
+        <v>0.18504075644037199</v>
+      </c>
+      <c r="G27" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H27" s="85">
+        <v>0.47994047625095099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="85">
+        <v>0.91646954554482396</v>
+      </c>
+      <c r="C28" s="85">
+        <v>0.113627908237977</v>
+      </c>
+      <c r="D28" s="85">
+        <v>0.44560117700486401</v>
+      </c>
+      <c r="E28" s="85">
+        <v>0.36112392119131997</v>
+      </c>
+      <c r="F28" s="85">
+        <v>0.92110653967363798</v>
+      </c>
+      <c r="G28" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28" s="85">
+        <v>0.88520822092774298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="85">
+        <v>0.76646310121752304</v>
+      </c>
+      <c r="C29" s="85">
+        <v>0.45904050793382301</v>
+      </c>
+      <c r="D29" s="85">
+        <v>0.39183545831241601</v>
+      </c>
+      <c r="E29" s="85">
+        <v>0.432075180913089</v>
+      </c>
+      <c r="F29" s="85">
+        <v>0.98951151818851901</v>
+      </c>
+      <c r="G29" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29" s="85">
+        <v>0.397677584746852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="85">
+        <v>0.81626616618130399</v>
+      </c>
+      <c r="C30" s="85">
+        <v>0.75335198322543895</v>
+      </c>
+      <c r="D30" s="85">
+        <v>0.64141189649002595</v>
+      </c>
+      <c r="E30" s="85">
+        <v>0.37600256055709902</v>
+      </c>
+      <c r="F30" s="85">
+        <v>0.59486316078109702</v>
+      </c>
+      <c r="G30" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" s="85">
+        <v>0.77223794243647703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="85">
+        <v>0.126797930150293</v>
+      </c>
+      <c r="C31" s="85">
+        <v>0.124866012629005</v>
+      </c>
+      <c r="D31" s="85">
+        <v>0.120169768387103</v>
+      </c>
+      <c r="E31" s="85">
+        <v>0.103223520983709</v>
+      </c>
+      <c r="F31" s="85">
+        <v>0.11195318897720399</v>
+      </c>
+      <c r="G31" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="85">
+        <v>0.14401744770747599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="85">
+        <v>8.9681228784262199E-2</v>
+      </c>
+      <c r="C32" s="85">
+        <v>0.13280596454825699</v>
+      </c>
+      <c r="D32" s="85">
+        <v>0.108402485081227</v>
+      </c>
+      <c r="E32" s="85">
+        <v>0.104334280970157</v>
+      </c>
+      <c r="F32" s="85">
+        <v>0.14736357866704899</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="85">
+        <v>8.0373425482423003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="85">
+        <v>9.0711121793603494E-2</v>
+      </c>
+      <c r="C33" s="85">
+        <v>0.13856734644819499</v>
+      </c>
+      <c r="D33" s="85">
+        <v>0.124707416688092</v>
+      </c>
+      <c r="E33" s="85">
+        <v>6.8990905657410603E-2</v>
+      </c>
+      <c r="F33" s="85">
+        <v>0.14573036819836099</v>
+      </c>
+      <c r="G33" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H33" s="85">
+        <v>6.7595288177486501E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="85">
+        <v>0.41558364541732001</v>
+      </c>
+      <c r="C34" s="85">
+        <v>0.369346688706987</v>
+      </c>
+      <c r="D34" s="85">
+        <v>0.492176971830043</v>
+      </c>
+      <c r="E34" s="85">
+        <v>0.40183568238902401</v>
+      </c>
+      <c r="F34" s="85">
+        <v>0.41917583280991499</v>
+      </c>
+      <c r="G34" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H34" s="85">
+        <v>0.51979064870941205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="85">
+        <v>0.249333599125966</v>
+      </c>
+      <c r="C35" s="85">
+        <v>0.29237012504367199</v>
+      </c>
+      <c r="D35" s="85">
+        <v>0.15530830888368699</v>
+      </c>
+      <c r="E35" s="85">
+        <v>0.25532340849033802</v>
+      </c>
+      <c r="F35" s="85">
+        <v>0.21269979246729101</v>
+      </c>
+      <c r="G35" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H35" s="85">
+        <v>0.27135845067724601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="85">
+        <v>0.32917279381952302</v>
+      </c>
+      <c r="C36" s="85">
+        <v>0.54638744435752695</v>
+      </c>
+      <c r="D36" s="85">
+        <v>0.51281126317046599</v>
+      </c>
+      <c r="E36" s="85">
+        <v>0.41231864711716798</v>
+      </c>
+      <c r="F36" s="85">
+        <v>0.45574965679459301</v>
+      </c>
+      <c r="G36" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H36" s="85">
+        <v>0.50015017918082905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="21">
-        <v>-0.17037563813571799</v>
-      </c>
-      <c r="D3" s="22">
-        <v>1.2517383469502701</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1.58904441762066</v>
-      </c>
-      <c r="F3" s="22">
-        <v>1.9797787662676301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="21">
-        <v>-0.13108552535352699</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.76092336103945002</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0.81303906753933697</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.39757026078458901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="B37" s="85">
+        <v>1.4461023597115501</v>
+      </c>
+      <c r="C37" s="85">
+        <v>1.66228337425921</v>
+      </c>
+      <c r="D37" s="85">
+        <v>1.3227720733768</v>
+      </c>
+      <c r="E37" s="85">
+        <v>0.88399623702255803</v>
+      </c>
+      <c r="F37" s="85">
+        <v>1.57046856187541</v>
+      </c>
+      <c r="G37" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H37" s="85">
+        <v>0.53778523651422006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="85">
+        <v>1.9051258732718801</v>
+      </c>
+      <c r="C38" s="85">
+        <v>1.4000497412498301</v>
+      </c>
+      <c r="D38" s="85">
+        <v>2.3016809614248701</v>
+      </c>
+      <c r="E38" s="85">
+        <v>1.06468872854388</v>
+      </c>
+      <c r="F38" s="85">
+        <v>0.51192366454021498</v>
+      </c>
+      <c r="G38" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" s="85">
+        <v>1.3603564701595099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="21">
-        <v>-0.130240801940706</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.3115809293724401</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1.56957507263463</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1.98090106493395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.10125507948644601</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.17044410880671301</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.15150639851360601</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0.18702973114195601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="21">
-        <v>9.9020112547010902E-2</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.45638433448730398</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.42780695964308302</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0.288601720490411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="21">
-        <v>8.8900118573121106E-2</v>
-      </c>
-      <c r="D8" s="22">
-        <v>-7.4694917935112501</v>
-      </c>
-      <c r="E8" s="22">
-        <v>-8.1771983299050497</v>
-      </c>
-      <c r="F8" s="22">
-        <v>7.96069282867946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="21">
-        <v>7.0186037764755904E-2</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1.80551374974923</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1.62005386864241</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2.6424042019357898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
-        <v>9</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="21">
-        <v>6.7226751455138595E-2</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0.10501642199742101</v>
-      </c>
-      <c r="E10" s="22">
-        <v>9.8335995157460401E-2</v>
-      </c>
-      <c r="F10" s="22">
-        <v>9.9371555152698396E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="21">
-        <v>-6.3276388979105799E-2</v>
-      </c>
-      <c r="D11" s="22">
-        <v>9.5286215034781505E-2</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.101603442757056</v>
-      </c>
-      <c r="F11" s="22">
-        <v>9.9835465079406299E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
-        <v>11</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="21">
-        <v>5.8921254685190702E-2</v>
-      </c>
-      <c r="D12" s="22">
-        <v>2.31559188420513</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2.2278161620568602</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1.48971237318765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
-        <v>12</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="21">
-        <v>5.84240453997927E-2</v>
-      </c>
-      <c r="D13" s="22">
-        <v>2.6306651654079301</v>
-      </c>
-      <c r="E13" s="22">
-        <v>2.4564455524522799</v>
-      </c>
-      <c r="F13" s="22">
-        <v>2.9819847592455302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="21">
-        <v>5.5184149413788297E-2</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.43149649358581998</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.41613702461475299</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0.27833117179893901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
-        <v>14</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="21">
-        <v>-5.3803349226961901E-2</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0.72986166196971902</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.75661422418238</v>
-      </c>
-      <c r="F15" s="22">
-        <v>0.49722856656764602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
-        <v>15</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="21">
-        <v>5.3681173669084703E-2</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.15402440469383499</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.14866865445918201</v>
-      </c>
-      <c r="F16" s="22">
-        <v>9.9769618817721506E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="21">
-        <v>-5.0167174964472698E-2</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.219388687204916</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0.22685975320806601</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0.148923394798301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
-        <v>17</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="21">
-        <v>-4.8076121938615102E-2</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0.46396282589368099</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.51174756066147997</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0.99393904584925596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="21">
-        <v>4.5360573411647599E-2</v>
-      </c>
-      <c r="D19" s="22">
-        <v>10.3385232715288</v>
-      </c>
-      <c r="E19" s="22">
-        <v>9.88619204313013</v>
-      </c>
-      <c r="F19" s="22">
-        <v>9.9719027864513894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
-        <v>19</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="21">
-        <v>4.53144153899942E-2</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0.103394215978235</v>
-      </c>
-      <c r="E20" s="22">
-        <v>9.8878299452171206E-2</v>
-      </c>
-      <c r="F20" s="22">
-        <v>9.9657393507077405E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="21">
-        <v>3.8521449796331E-2</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0.47009533661402803</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.44331271479282702</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.69526515649864495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="21">
-        <v>-2.45491996918695E-2</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0.48177785459726602</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0.50622402374762998</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0.99580309978337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
-        <v>22</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="21">
-        <v>-2.3243910220769499E-2</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.74135279709406898</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.75291540621337905</v>
-      </c>
-      <c r="F23" s="22">
-        <v>0.49744681550946601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
-        <v>23</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="21">
-        <v>-2.2178999836945702E-2</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1966941.0092583899</v>
-      </c>
-      <c r="E24" s="22">
-        <v>2011218.25334153</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1996358.9164824199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
-        <v>24</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="21">
-        <v>-2.1459276116648399E-2</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0.93261363592520596</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0.95608636529116997</v>
-      </c>
-      <c r="F25" s="22">
-        <v>1.0938267087095901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
-        <v>25</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1.9812321081650899E-2</v>
-      </c>
-      <c r="D26" s="22">
-        <v>-7.8813759019110297</v>
-      </c>
-      <c r="E26" s="22">
-        <v>-8.0392381267778603</v>
-      </c>
-      <c r="F26" s="22">
-        <v>7.9678814115841003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
-        <v>26</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="21">
-        <v>-1.8486548734765799E-2</v>
-      </c>
-      <c r="D27" s="22">
-        <v>2.4454082762457599E-2</v>
-      </c>
-      <c r="E27" s="22">
-        <v>2.4909107050426999E-2</v>
-      </c>
-      <c r="F27" s="22">
-        <v>2.4613804041944701E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
-        <v>27</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="21">
-        <v>-1.7219093902939402E-2</v>
-      </c>
-      <c r="D28" s="22">
-        <v>0.48707063653308402</v>
-      </c>
-      <c r="E28" s="22">
-        <v>0.50423835092301805</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0.99701613143552104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="21">
-        <v>1.69082195696738E-2</v>
-      </c>
-      <c r="D29" s="22">
-        <v>5.6382165320290698E-3</v>
-      </c>
-      <c r="E29" s="22">
-        <v>5.4533833454364598E-3</v>
-      </c>
-      <c r="F29" s="22">
-        <v>1.09315582182363E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
-        <v>29</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1.69060989755738E-2</v>
-      </c>
-      <c r="D30" s="22">
-        <v>-3.9499622959953702</v>
-      </c>
-      <c r="E30" s="22">
-        <v>-4.0171005493166199</v>
-      </c>
-      <c r="F30" s="22">
-        <v>3.97124454424717</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
-        <v>30</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="21">
-        <v>1.4488687135018699E-2</v>
-      </c>
-      <c r="D31" s="22">
-        <v>0.45326609100925302</v>
-      </c>
-      <c r="E31" s="22">
-        <v>0.44894015931162301</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0.29857306306064102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
-        <v>31</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="21">
-        <v>-1.1880421684131301E-2</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0.84735667217481603</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0.85090323033877202</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0.29852123588277002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
-        <v>32</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="21">
-        <v>1.18534295418312E-2</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1.52289074532812</v>
-      </c>
-      <c r="E33" s="22">
-        <v>1.4994090590576099</v>
-      </c>
-      <c r="F33" s="22">
-        <v>1.98100357264851</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
-        <v>33</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="21">
-        <v>1.0358221174562501E-2</v>
-      </c>
-      <c r="D34" s="22">
-        <v>-0.246114779105782</v>
-      </c>
-      <c r="E34" s="22">
-        <v>-0.25128679227951201</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0.49931480382278098</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
-        <v>34</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="21">
-        <v>-1.0268852518567601E-2</v>
-      </c>
-      <c r="D35" s="22">
-        <v>0.49235750836909298</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0.50257785979770897</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0.99527687345165805</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
-        <v>35</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="26">
-        <v>3.7583641481433801E-3</v>
-      </c>
-      <c r="D36" s="27">
-        <v>0.12572540192363099</v>
-      </c>
-      <c r="E36" s="27">
-        <v>0.12479147982252201</v>
-      </c>
-      <c r="F36" s="27">
-        <v>0.24849164804065399</v>
+      <c r="B39" s="86">
+        <v>2.04156617720029</v>
+      </c>
+      <c r="C39" s="86">
+        <v>0.59435666207274196</v>
+      </c>
+      <c r="D39" s="86">
+        <v>1.6561787853866701</v>
+      </c>
+      <c r="E39" s="86">
+        <v>1.9446016858942199</v>
+      </c>
+      <c r="F39" s="86">
+        <v>1.3340589027169401</v>
+      </c>
+      <c r="G39" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" s="86">
+        <v>0.61617944817069203</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
+++ b/models/dissertation-model/modelo-R/tabelas_analise_formatada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\ms-rdm-dissertation\models\dissertation-model\modelo-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ms-rdm-dissertation\models\dissertation-model\modelo-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B809D01-2CB0-4FB8-9AFD-09446F5E4E91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParametrosCalibracao" sheetId="1" r:id="rId1"/>
@@ -36,12 +37,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">RankingGeral_Modo2!$B$1:$S$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Variaveis_e_Nome_Amigável!$A$1:$B$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="314">
   <si>
     <t>Variavel</t>
   </si>
@@ -981,6 +990,9 @@
   <si>
     <t>Top 5?</t>
   </si>
+  <si>
+    <t>Strategy Code</t>
+  </si>
 </sst>
 </file>
 
@@ -1370,30 +1382,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1436,33 +1424,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="6" tint="0.39988402966399123"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <fgColor theme="6" tint="0.39985351115451523"/>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="6" tint="0.39991454817346722"/>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5112,296 +5108,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="80" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="78" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="78" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="78" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="78" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="78" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="78" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="78" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="78" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="78" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="78" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="78" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="78" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="78" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="78" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="78" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="78" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="78" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="78" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="78" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="78" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="78" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="78" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="78" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="78" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="78" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="78" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="78" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="78" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="78" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="78" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="78" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="78" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="78" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="78" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="78" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B36" xr:uid="{911719DF-7866-4476-B95E-BB6231320462}">
-    <sortState ref="A2:B36">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
       <sortCondition ref="A1:A36"/>
     </sortState>
   </autoFilter>
@@ -5433,7 +5429,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="str">
@@ -5442,7 +5438,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="75" t="s">
         <v>164</v>
       </c>
       <c r="B3" t="str">
@@ -5451,7 +5447,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="76" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="str">
@@ -5460,7 +5456,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="75" t="s">
         <v>167</v>
       </c>
       <c r="B5" t="str">
@@ -5469,7 +5465,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="76" t="s">
         <v>68</v>
       </c>
       <c r="B6" t="str">
@@ -5478,7 +5474,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="75" t="s">
         <v>160</v>
       </c>
       <c r="B7" t="str">
@@ -5487,7 +5483,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="76" t="s">
         <v>80</v>
       </c>
       <c r="B8" t="str">
@@ -5496,7 +5492,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="75" t="s">
         <v>87</v>
       </c>
       <c r="B9" t="str">
@@ -5505,7 +5501,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="76" t="s">
         <v>159</v>
       </c>
       <c r="B10" t="str">
@@ -5514,7 +5510,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="75" t="s">
         <v>158</v>
       </c>
       <c r="B11" t="str">
@@ -5523,7 +5519,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="76" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="str">
@@ -5532,7 +5528,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="75" t="s">
         <v>111</v>
       </c>
       <c r="B13" t="str">
@@ -5541,7 +5537,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="76" t="s">
         <v>163</v>
       </c>
       <c r="B14" t="str">
@@ -5550,7 +5546,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="75" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="str">
@@ -5559,7 +5555,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="76" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="str">
@@ -5568,7 +5564,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="75" t="s">
         <v>162</v>
       </c>
       <c r="B17" t="str">
@@ -5577,7 +5573,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="76" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="str">
@@ -5586,7 +5582,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="75" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="str">
@@ -5595,7 +5591,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="76" t="s">
         <v>154</v>
       </c>
       <c r="B20" t="str">
@@ -5604,7 +5600,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="75" t="s">
         <v>138</v>
       </c>
       <c r="B21" t="str">
@@ -5613,7 +5609,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="76" t="s">
         <v>152</v>
       </c>
       <c r="B22" t="str">
@@ -5622,7 +5618,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="75" t="s">
         <v>101</v>
       </c>
       <c r="B23" t="str">
@@ -5631,7 +5627,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="76" t="s">
         <v>113</v>
       </c>
       <c r="B24" t="str">
@@ -5640,7 +5636,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
       <c r="B25" t="str">
@@ -5649,7 +5645,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="76" t="s">
         <v>131</v>
       </c>
       <c r="B26" t="str">
@@ -5658,7 +5654,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="75" t="s">
         <v>124</v>
       </c>
       <c r="B27" t="str">
@@ -5667,7 +5663,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="76" t="s">
         <v>150</v>
       </c>
       <c r="B28" t="str">
@@ -5676,7 +5672,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="75" t="s">
         <v>58</v>
       </c>
       <c r="B29" t="str">
@@ -5685,7 +5681,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="76" t="s">
         <v>78</v>
       </c>
       <c r="B30" t="str">
@@ -5694,7 +5690,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="75" t="s">
         <v>118</v>
       </c>
       <c r="B31" t="str">
@@ -5703,7 +5699,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="76" t="s">
         <v>82</v>
       </c>
       <c r="B32" t="str">
@@ -5712,7 +5708,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="75" t="s">
         <v>166</v>
       </c>
       <c r="B33" t="str">
@@ -5721,7 +5717,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="76" t="s">
         <v>105</v>
       </c>
       <c r="B34" t="str">
@@ -5730,7 +5726,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="75" t="s">
         <v>153</v>
       </c>
       <c r="B35" t="str">
@@ -5739,7 +5735,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="77" t="s">
         <v>103</v>
       </c>
       <c r="B36" t="str">
@@ -7405,10 +7401,10 @@
       <c r="D24" s="22">
         <v>0.46503520384725</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="81">
         <v>2011218.25334153</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="81">
         <v>1966941.0092583899</v>
       </c>
       <c r="G24" s="20" t="str">
@@ -10084,7 +10080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B187AC-06E3-439A-B7D8-1EBFAABEB01E}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10147,1760 +10143,1760 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="b">
+    <row r="2" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="82" t="b">
         <f>OR(C2&lt;6,D2&lt;6,E2&lt;6,F2&lt;6)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="83" t="str">
         <f>VLOOKUP(I2,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Estratégia de Capac. Player 2</v>
       </c>
-      <c r="C2" s="92">
-        <f>VLOOKUP(I2,$J:$N,5,FALSE)</f>
+      <c r="C2" s="84">
+        <f t="shared" ref="C2:C36" si="0">VLOOKUP(I2,$J:$N,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="92">
-        <f>VLOOKUP(I2,$K:$N,4,FALSE)</f>
+      <c r="D2" s="84">
+        <f t="shared" ref="D2:D36" si="1">VLOOKUP(I2,$K:$N,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="92">
-        <f>VLOOKUP(I2,$L:$N,3,FALSE)</f>
+      <c r="E2" s="84">
+        <f t="shared" ref="E2:E36" si="2">VLOOKUP(I2,$L:$N,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="92">
-        <f>VLOOKUP(I2,$M:$N,2,FALSE)</f>
+      <c r="F2" s="84">
+        <f t="shared" ref="F2:F36" si="3">VLOOKUP(I2,$M:$N,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="93">
+      <c r="G2" s="85">
         <v>1.5</v>
       </c>
-      <c r="H2" s="93">
+      <c r="H2" s="85">
         <v>0.5</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="94">
+      <c r="N2" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="b">
-        <f t="shared" ref="A3:A37" si="0">OR(C3&lt;6,D3&lt;6,E3&lt;6,F3&lt;6)</f>
+    <row r="3" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="b">
+        <f t="shared" ref="A3:A36" si="4">OR(C3&lt;6,D3&lt;6,E3&lt;6,F3&lt;6)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="83" t="str">
         <f>VLOOKUP(I3,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Tamanho do Mercado de Referência</v>
       </c>
-      <c r="C3" s="92">
-        <f>VLOOKUP(I3,$J:$N,5,FALSE)</f>
+      <c r="C3" s="84">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D3" s="92">
-        <f>VLOOKUP(I3,$K:$N,4,FALSE)</f>
+      <c r="D3" s="84">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E3" s="92">
-        <f>VLOOKUP(I3,$L:$N,3,FALSE)</f>
+      <c r="E3" s="84">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F3" s="92">
-        <f>VLOOKUP(I3,$M:$N,2,FALSE)</f>
+      <c r="F3" s="84">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G3" s="93">
+      <c r="G3" s="85">
         <v>1.5</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="85">
         <v>0.5</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="b">
-        <f t="shared" si="0"/>
+    <row r="4" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B4" s="90" t="str">
+      <c r="B4" s="82" t="str">
         <f>VLOOKUP(I4,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Sensib. da Atratividade ao Preço</v>
       </c>
-      <c r="C4" s="94">
-        <f>VLOOKUP(I4,$J:$N,5,FALSE)</f>
+      <c r="C4" s="86">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4" s="94">
-        <f>VLOOKUP(I4,$K:$N,4,FALSE)</f>
+      <c r="D4" s="86">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E4" s="94">
-        <f>VLOOKUP(I4,$L:$N,3,FALSE)</f>
+      <c r="E4" s="86">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F4" s="94">
-        <f>VLOOKUP(I4,$M:$N,2,FALSE)</f>
+      <c r="F4" s="86">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G4" s="93">
+      <c r="G4" s="85">
         <v>5.25</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="85">
         <v>1.7853571071357126</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="90" t="s">
+      <c r="L4" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="86">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="b">
-        <f t="shared" si="0"/>
+    <row r="5" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B5" s="90" t="str">
+      <c r="B5" s="82" t="str">
         <f>VLOOKUP(I5,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Inclinação da Curva de Perform. X Patentes</v>
       </c>
-      <c r="C5" s="94">
-        <f>VLOOKUP(I5,$J:$N,5,FALSE)</f>
+      <c r="C5" s="86">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="94">
-        <f>VLOOKUP(I5,$K:$N,4,FALSE)</f>
+      <c r="D5" s="86">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E5" s="94">
-        <f>VLOOKUP(I5,$L:$N,3,FALSE)</f>
+      <c r="E5" s="86">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="F5" s="94">
-        <f>VLOOKUP(I5,$M:$N,2,FALSE)</f>
+      <c r="F5" s="86">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="G5" s="93">
+      <c r="G5" s="85">
         <v>15.75</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="85">
         <v>11.277743568639961</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="95" t="s">
+      <c r="J5" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="88">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="b">
-        <f t="shared" si="0"/>
+    <row r="6" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="82" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B6" s="90" t="str">
+      <c r="B6" s="82" t="str">
         <f>VLOOKUP(I6,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Estratégia de Capac. Player 4</v>
       </c>
-      <c r="C6" s="94">
-        <f>VLOOKUP(I6,$J:$N,5,FALSE)</f>
+      <c r="C6" s="86">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="94">
-        <f>VLOOKUP(I6,$K:$N,4,FALSE)</f>
+      <c r="D6" s="86">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E6" s="94">
-        <f>VLOOKUP(I6,$L:$N,3,FALSE)</f>
+      <c r="E6" s="86">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F6" s="94">
-        <f>VLOOKUP(I6,$M:$N,2,FALSE)</f>
+      <c r="F6" s="86">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="85">
         <v>4</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="85">
         <v>0.70710678118654757</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="86">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="b">
-        <f t="shared" si="0"/>
+    <row r="7" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B7" s="90" t="str">
+      <c r="B7" s="82" t="str">
         <f>VLOOKUP(I7,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Delay no Report de Demanda</v>
       </c>
-      <c r="C7" s="94">
-        <f>VLOOKUP(I7,$J:$N,5,FALSE)</f>
+      <c r="C7" s="86">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="94">
-        <f>VLOOKUP(I7,$K:$N,4,FALSE)</f>
+      <c r="D7" s="86">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E7" s="94">
-        <f>VLOOKUP(I7,$L:$N,3,FALSE)</f>
+      <c r="E7" s="86">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F7" s="94">
-        <f>VLOOKUP(I7,$M:$N,2,FALSE)</f>
+      <c r="F7" s="86">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="85">
         <v>6</v>
       </c>
-      <c r="H7" s="93">
+      <c r="H7" s="85">
         <v>0.70710678118654757</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="86">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="b">
-        <f t="shared" si="0"/>
+    <row r="8" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="82" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B8" s="90" t="str">
+      <c r="B8" s="82" t="str">
         <f>VLOOKUP(I8,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>% de Utilização da Capacidade</v>
       </c>
-      <c r="C8" s="94">
-        <f>VLOOKUP(I8,$J:$N,5,FALSE)</f>
+      <c r="C8" s="86">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="94">
-        <f>VLOOKUP(I8,$K:$N,4,FALSE)</f>
+      <c r="D8" s="86">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E8" s="94">
-        <f>VLOOKUP(I8,$L:$N,3,FALSE)</f>
+      <c r="E8" s="86">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F8" s="94">
-        <f>VLOOKUP(I8,$M:$N,2,FALSE)</f>
+      <c r="F8" s="86">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="85">
         <v>5.5</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="85">
         <v>2.598076211353316</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="J8" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="90" t="s">
+      <c r="M8" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="86">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="90" t="str">
+    <row r="9" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="82" t="str">
         <f>VLOOKUP(I9,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Tempo de Ajuste da Capacidade</v>
       </c>
-      <c r="C9" s="94">
-        <f>VLOOKUP(I9,$J:$N,5,FALSE)</f>
+      <c r="C9" s="86">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="94">
-        <f>VLOOKUP(I9,$K:$N,4,FALSE)</f>
+      <c r="D9" s="86">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E9" s="94">
-        <f>VLOOKUP(I9,$L:$N,3,FALSE)</f>
+      <c r="E9" s="86">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F9" s="94">
-        <f>VLOOKUP(I9,$M:$N,2,FALSE)</f>
+      <c r="F9" s="86">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="85">
         <v>10.75</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="85">
         <v>3.8324274291889728</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="L9" s="90" t="s">
+      <c r="L9" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="86">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" s="90" t="str">
+    <row r="10" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="82" t="str">
         <f>VLOOKUP(I10,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Razão de Custos Fixos/Custos Variáveis</v>
       </c>
-      <c r="C10" s="94">
-        <f>VLOOKUP(I10,$J:$N,5,FALSE)</f>
+      <c r="C10" s="86">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="94">
-        <f>VLOOKUP(I10,$K:$N,4,FALSE)</f>
+      <c r="D10" s="86">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E10" s="94">
-        <f>VLOOKUP(I10,$L:$N,3,FALSE)</f>
+      <c r="E10" s="86">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F10" s="94">
-        <f>VLOOKUP(I10,$M:$N,2,FALSE)</f>
+      <c r="F10" s="86">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="85">
         <v>8.75</v>
       </c>
-      <c r="H10" s="93">
+      <c r="H10" s="85">
         <v>0.82915619758884995</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="90" t="s">
+      <c r="J10" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="90" t="s">
+      <c r="L10" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="N10" s="94">
+      <c r="N10" s="86">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="90" t="str">
+    <row r="11" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="82" t="str">
         <f>VLOOKUP(I11,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Tempo de Realização do Inv. em P&amp;D</v>
       </c>
-      <c r="C11" s="94">
-        <f>VLOOKUP(I11,$J:$N,5,FALSE)</f>
+      <c r="C11" s="86">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="94">
-        <f>VLOOKUP(I11,$K:$N,4,FALSE)</f>
+      <c r="D11" s="86">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E11" s="94">
-        <f>VLOOKUP(I11,$L:$N,3,FALSE)</f>
+      <c r="E11" s="86">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F11" s="94">
-        <f>VLOOKUP(I11,$M:$N,2,FALSE)</f>
+      <c r="F11" s="86">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="85">
         <v>13.75</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="85">
         <v>4.815340071064556</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="90" t="s">
+      <c r="K11" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="90" t="s">
+      <c r="L11" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="86">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="b">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="82" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B12" s="90" t="str">
+      <c r="B12" s="82" t="str">
         <f>VLOOKUP(I12,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Market Share Desejado Player 2</v>
       </c>
-      <c r="C12" s="94">
-        <f>VLOOKUP(I12,$J:$N,5,FALSE)</f>
+      <c r="C12" s="86">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="94">
-        <f>VLOOKUP(I12,$K:$N,4,FALSE)</f>
+      <c r="D12" s="86">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E12" s="94">
-        <f>VLOOKUP(I12,$L:$N,3,FALSE)</f>
+      <c r="E12" s="86">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F12" s="94">
-        <f>VLOOKUP(I12,$M:$N,2,FALSE)</f>
+      <c r="F12" s="86">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="85">
         <v>7.5</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="85">
         <v>2.2912878474779199</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="L12" s="90" t="s">
+      <c r="L12" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="90" t="s">
+      <c r="M12" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="N12" s="94">
+      <c r="N12" s="86">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" s="90" t="str">
+    <row r="13" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="82" t="str">
         <f>VLOOKUP(I13,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Tempo de Avaliação de Patentes</v>
       </c>
-      <c r="C13" s="94">
-        <f>VLOOKUP(I13,$J:$N,5,FALSE)</f>
+      <c r="C13" s="86">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="94">
-        <f>VLOOKUP(I13,$K:$N,4,FALSE)</f>
+      <c r="D13" s="86">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E13" s="94">
-        <f>VLOOKUP(I13,$L:$N,3,FALSE)</f>
+      <c r="E13" s="86">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F13" s="94">
-        <f>VLOOKUP(I13,$M:$N,2,FALSE)</f>
+      <c r="F13" s="86">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="85">
         <v>12.5</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="85">
         <v>1.1180339887498949</v>
       </c>
-      <c r="I13" s="90" t="s">
+      <c r="I13" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="90" t="s">
+      <c r="J13" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="L13" s="90" t="s">
+      <c r="L13" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="M13" s="90" t="s">
+      <c r="M13" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="94">
+      <c r="N13" s="86">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B14" s="90" t="str">
+    <row r="14" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="82" t="str">
         <f>VLOOKUP(I14,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Market Share Desejado Player 3</v>
       </c>
-      <c r="C14" s="94">
-        <f>VLOOKUP(I14,$J:$N,5,FALSE)</f>
+      <c r="C14" s="86">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="94">
-        <f>VLOOKUP(I14,$K:$N,4,FALSE)</f>
+      <c r="D14" s="86">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E14" s="94">
-        <f>VLOOKUP(I14,$L:$N,3,FALSE)</f>
+      <c r="E14" s="86">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F14" s="94">
-        <f>VLOOKUP(I14,$M:$N,2,FALSE)</f>
+      <c r="F14" s="86">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="85">
         <v>14.5</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="85">
         <v>2.0615528128088303</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="J14" s="90" t="s">
+      <c r="J14" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="90" t="s">
+      <c r="K14" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="90" t="s">
+      <c r="L14" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="M14" s="90" t="s">
+      <c r="M14" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="94">
+      <c r="N14" s="86">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B15" s="90" t="str">
+    <row r="15" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="82" t="str">
         <f>VLOOKUP(I15,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Orçamento P&amp;D Player 4</v>
       </c>
-      <c r="C15" s="94">
-        <f>VLOOKUP(I15,$J:$N,5,FALSE)</f>
+      <c r="C15" s="86">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="94">
-        <f>VLOOKUP(I15,$K:$N,4,FALSE)</f>
+      <c r="D15" s="86">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="E15" s="94">
-        <f>VLOOKUP(I15,$L:$N,3,FALSE)</f>
+      <c r="E15" s="86">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F15" s="94">
-        <f>VLOOKUP(I15,$M:$N,2,FALSE)</f>
+      <c r="F15" s="86">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="85">
         <v>15.25</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="85">
         <v>8.1967981553775004</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="90" t="s">
+      <c r="J15" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="K15" s="90" t="s">
+      <c r="K15" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="90" t="s">
+      <c r="L15" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="90" t="s">
+      <c r="M15" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="94">
+      <c r="N15" s="86">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B16" s="90" t="str">
+    <row r="16" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="82" t="str">
         <f>VLOOKUP(I16,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Sensib. do Preço a Oferta e Demanda</v>
       </c>
-      <c r="C16" s="94">
-        <f>VLOOKUP(I16,$J:$N,5,FALSE)</f>
+      <c r="C16" s="86">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="94">
-        <f>VLOOKUP(I16,$K:$N,4,FALSE)</f>
+      <c r="D16" s="86">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="E16" s="94">
-        <f>VLOOKUP(I16,$L:$N,3,FALSE)</f>
+      <c r="E16" s="86">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="F16" s="94">
-        <f>VLOOKUP(I16,$M:$N,2,FALSE)</f>
+      <c r="F16" s="86">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="85">
         <v>29.75</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="85">
         <v>8.5256964524899672</v>
       </c>
-      <c r="I16" s="90" t="s">
+      <c r="I16" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="90" t="s">
+      <c r="J16" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="90" t="s">
+      <c r="K16" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="90" t="s">
+      <c r="L16" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="90" t="s">
+      <c r="M16" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="94">
+      <c r="N16" s="86">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="90" t="str">
+    <row r="17" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B17" s="82" t="str">
         <f>VLOOKUP(I17,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Fração de Descartes de Imp. 3D</v>
       </c>
-      <c r="C17" s="94">
-        <f>VLOOKUP(I17,$J:$N,5,FALSE)</f>
+      <c r="C17" s="86">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="94">
-        <f>VLOOKUP(I17,$K:$N,4,FALSE)</f>
+      <c r="D17" s="86">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="E17" s="94">
-        <f>VLOOKUP(I17,$L:$N,3,FALSE)</f>
+      <c r="E17" s="86">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="F17" s="94">
-        <f>VLOOKUP(I17,$M:$N,2,FALSE)</f>
+      <c r="F17" s="86">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="85">
         <v>19</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="85">
         <v>6.9641941385920596</v>
       </c>
-      <c r="I17" s="90" t="s">
+      <c r="I17" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="90" t="s">
+      <c r="J17" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="90" t="s">
+      <c r="K17" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="90" t="s">
+      <c r="L17" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="90" t="s">
+      <c r="M17" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="94">
+      <c r="N17" s="86">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B18" s="90" t="str">
+    <row r="18" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="82" t="str">
         <f>VLOOKUP(I18,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Elasticidade da Demanda</v>
       </c>
-      <c r="C18" s="94">
-        <f>VLOOKUP(I18,$J:$N,5,FALSE)</f>
+      <c r="C18" s="86">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="94">
-        <f>VLOOKUP(I18,$K:$N,4,FALSE)</f>
+      <c r="D18" s="86">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E18" s="94">
-        <f>VLOOKUP(I18,$L:$N,3,FALSE)</f>
+      <c r="E18" s="86">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F18" s="94">
-        <f>VLOOKUP(I18,$M:$N,2,FALSE)</f>
+      <c r="F18" s="86">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="85">
         <v>15.75</v>
       </c>
-      <c r="H18" s="93">
+      <c r="H18" s="85">
         <v>1.6393596310755001</v>
       </c>
-      <c r="I18" s="90" t="s">
+      <c r="I18" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="90" t="s">
+      <c r="J18" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="90" t="s">
+      <c r="K18" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="90" t="s">
+      <c r="L18" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="90" t="s">
+      <c r="M18" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="N18" s="94">
+      <c r="N18" s="86">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="90" t="str">
+    <row r="19" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B19" s="82" t="str">
         <f>VLOOKUP(I19,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Tempo de Inutilização da Patente</v>
       </c>
-      <c r="C19" s="94">
-        <f>VLOOKUP(I19,$J:$N,5,FALSE)</f>
+      <c r="C19" s="86">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="94">
-        <f>VLOOKUP(I19,$K:$N,4,FALSE)</f>
+      <c r="D19" s="86">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E19" s="94">
-        <f>VLOOKUP(I19,$L:$N,3,FALSE)</f>
+      <c r="E19" s="86">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F19" s="94">
-        <f>VLOOKUP(I19,$M:$N,2,FALSE)</f>
+      <c r="F19" s="86">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="85">
         <v>19.5</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="85">
         <v>2.0615528128088303</v>
       </c>
-      <c r="I19" s="90" t="s">
+      <c r="I19" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="90" t="s">
+      <c r="J19" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="90" t="s">
+      <c r="L19" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="90" t="s">
+      <c r="M19" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="94">
+      <c r="N19" s="86">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B20" s="90" t="str">
+    <row r="20" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="82" t="str">
         <f>VLOOKUP(I20,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>% de Pedidos Iniciais por Substituição</v>
       </c>
-      <c r="C20" s="94">
-        <f>VLOOKUP(I20,$J:$N,5,FALSE)</f>
+      <c r="C20" s="86">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="94">
-        <f>VLOOKUP(I20,$K:$N,4,FALSE)</f>
+      <c r="D20" s="86">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E20" s="94">
-        <f>VLOOKUP(I20,$L:$N,3,FALSE)</f>
+      <c r="E20" s="86">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F20" s="94">
-        <f>VLOOKUP(I20,$M:$N,2,FALSE)</f>
+      <c r="F20" s="86">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="85">
         <v>18.75</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="85">
         <v>1.6393596310755001</v>
       </c>
-      <c r="I20" s="90" t="s">
+      <c r="I20" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="90" t="s">
+      <c r="J20" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="90" t="s">
+      <c r="K20" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="M20" s="90" t="s">
+      <c r="M20" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="94">
+      <c r="N20" s="86">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B21" s="90" t="str">
+    <row r="21" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B21" s="82" t="str">
         <f>VLOOKUP(I21,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Sensib. da Atratividade à Performance</v>
       </c>
-      <c r="C21" s="94">
-        <f>VLOOKUP(I21,$J:$N,5,FALSE)</f>
+      <c r="C21" s="86">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="94">
-        <f>VLOOKUP(I21,$K:$N,4,FALSE)</f>
+      <c r="D21" s="86">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E21" s="94">
-        <f>VLOOKUP(I21,$L:$N,3,FALSE)</f>
+      <c r="E21" s="86">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="F21" s="94">
-        <f>VLOOKUP(I21,$M:$N,2,FALSE)</f>
+      <c r="F21" s="86">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="85">
         <v>20</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="85">
         <v>5.5226805085936306</v>
       </c>
-      <c r="I21" s="90" t="s">
+      <c r="I21" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="90" t="s">
+      <c r="J21" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="90" t="s">
+      <c r="K21" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="90" t="s">
+      <c r="L21" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="M21" s="90" t="s">
+      <c r="M21" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="N21" s="94">
+      <c r="N21" s="86">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="90" t="str">
+    <row r="22" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="82" t="str">
         <f>VLOOKUP(I22,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Sensib. do Preço a Custos</v>
       </c>
-      <c r="C22" s="94">
-        <f>VLOOKUP(I22,$J:$N,5,FALSE)</f>
+      <c r="C22" s="86">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D22" s="94">
-        <f>VLOOKUP(I22,$K:$N,4,FALSE)</f>
+      <c r="D22" s="86">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E22" s="94">
-        <f>VLOOKUP(I22,$L:$N,3,FALSE)</f>
+      <c r="E22" s="86">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F22" s="94">
-        <f>VLOOKUP(I22,$M:$N,2,FALSE)</f>
+      <c r="F22" s="86">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G22" s="85">
         <v>20.5</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="85">
         <v>2.0615528128088303</v>
       </c>
-      <c r="I22" s="90" t="s">
+      <c r="I22" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="90" t="s">
+      <c r="J22" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="90" t="s">
+      <c r="K22" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="M22" s="90" t="s">
+      <c r="M22" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="N22" s="94">
+      <c r="N22" s="86">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B23" s="90" t="str">
+    <row r="23" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="82" t="str">
         <f>VLOOKUP(I23,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Market Share Desejado Player 4</v>
       </c>
-      <c r="C23" s="94">
-        <f>VLOOKUP(I23,$J:$N,5,FALSE)</f>
+      <c r="C23" s="86">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D23" s="94">
-        <f>VLOOKUP(I23,$K:$N,4,FALSE)</f>
+      <c r="D23" s="86">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E23" s="94">
-        <f>VLOOKUP(I23,$L:$N,3,FALSE)</f>
+      <c r="E23" s="86">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F23" s="94">
-        <f>VLOOKUP(I23,$M:$N,2,FALSE)</f>
+      <c r="F23" s="86">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="85">
         <v>18.25</v>
       </c>
-      <c r="H23" s="93">
+      <c r="H23" s="85">
         <v>5.9319052588523364</v>
       </c>
-      <c r="I23" s="90" t="s">
+      <c r="I23" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="90" t="s">
+      <c r="J23" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="90" t="s">
+      <c r="K23" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="L23" s="90" t="s">
+      <c r="L23" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="90" t="s">
+      <c r="M23" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="94">
+      <c r="N23" s="86">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B24" s="90" t="str">
+    <row r="24" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B24" s="82" t="str">
         <f>VLOOKUP(I24,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Orçamento P&amp;D Player 3</v>
       </c>
-      <c r="C24" s="94">
-        <f>VLOOKUP(I24,$J:$N,5,FALSE)</f>
+      <c r="C24" s="86">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="94">
-        <f>VLOOKUP(I24,$K:$N,4,FALSE)</f>
+      <c r="D24" s="86">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E24" s="94">
-        <f>VLOOKUP(I24,$L:$N,3,FALSE)</f>
+      <c r="E24" s="86">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F24" s="94">
-        <f>VLOOKUP(I24,$M:$N,2,FALSE)</f>
+      <c r="F24" s="86">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G24" s="93">
+      <c r="G24" s="85">
         <v>15.75</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="85">
         <v>5.8470077817632502</v>
       </c>
-      <c r="I24" s="90" t="s">
+      <c r="I24" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="J24" s="90" t="s">
+      <c r="J24" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="K24" s="90" t="s">
+      <c r="K24" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="90" t="s">
+      <c r="L24" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="M24" s="90" t="s">
+      <c r="M24" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="94">
+      <c r="N24" s="86">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B25" s="90" t="str">
+    <row r="25" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="82" t="str">
         <f>VLOOKUP(I25,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Sensib. do Preço ao Market Share</v>
       </c>
-      <c r="C25" s="94">
-        <f>VLOOKUP(I25,$J:$N,5,FALSE)</f>
+      <c r="C25" s="86">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="94">
-        <f>VLOOKUP(I25,$K:$N,4,FALSE)</f>
+      <c r="D25" s="86">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E25" s="94">
-        <f>VLOOKUP(I25,$L:$N,3,FALSE)</f>
+      <c r="E25" s="86">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="F25" s="94">
-        <f>VLOOKUP(I25,$M:$N,2,FALSE)</f>
+      <c r="F25" s="86">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G25" s="93">
+      <c r="G25" s="85">
         <v>29</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="85">
         <v>4.5276925690687087</v>
       </c>
-      <c r="I25" s="90" t="s">
+      <c r="I25" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="90" t="s">
+      <c r="J25" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="90" t="s">
+      <c r="K25" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="L25" s="90" t="s">
+      <c r="L25" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="90" t="s">
+      <c r="M25" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="N25" s="94">
+      <c r="N25" s="86">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B26" s="90" t="str">
+    <row r="26" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="82" t="str">
         <f>VLOOKUP(I26,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>% P&amp;D Aberto Player 2</v>
       </c>
-      <c r="C26" s="94">
-        <f>VLOOKUP(I26,$J:$N,5,FALSE)</f>
+      <c r="C26" s="86">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="94">
-        <f>VLOOKUP(I26,$K:$N,4,FALSE)</f>
+      <c r="D26" s="86">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="E26" s="94">
-        <f>VLOOKUP(I26,$L:$N,3,FALSE)</f>
+      <c r="E26" s="86">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="F26" s="94">
-        <f>VLOOKUP(I26,$M:$N,2,FALSE)</f>
+      <c r="F26" s="86">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="G26" s="93">
+      <c r="G26" s="85">
         <v>27.75</v>
       </c>
-      <c r="H26" s="93">
+      <c r="H26" s="85">
         <v>3.1124748994971831</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="J26" s="90" t="s">
+      <c r="J26" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="90" t="s">
+      <c r="L26" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="90" t="s">
+      <c r="M26" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N26" s="94">
+      <c r="N26" s="86">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B27" s="90" t="str">
+    <row r="27" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B27" s="82" t="str">
         <f>VLOOKUP(I27,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Sensib. da Atratividade ao Tempo de Entrega</v>
       </c>
-      <c r="C27" s="94">
-        <f>VLOOKUP(I27,$J:$N,5,FALSE)</f>
+      <c r="C27" s="86">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D27" s="94">
-        <f>VLOOKUP(I27,$K:$N,4,FALSE)</f>
+      <c r="D27" s="86">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E27" s="94">
-        <f>VLOOKUP(I27,$L:$N,3,FALSE)</f>
+      <c r="E27" s="86">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="F27" s="94">
-        <f>VLOOKUP(I27,$M:$N,2,FALSE)</f>
+      <c r="F27" s="86">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="85">
         <v>25.75</v>
       </c>
-      <c r="H27" s="93">
+      <c r="H27" s="85">
         <v>4.0850336595920478</v>
       </c>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="90" t="s">
+      <c r="J27" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="90" t="s">
+      <c r="K27" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="L27" s="90" t="s">
+      <c r="L27" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="90" t="s">
+      <c r="M27" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="N27" s="94">
+      <c r="N27" s="86">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B28" s="90" t="str">
+    <row r="28" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B28" s="82" t="str">
         <f>VLOOKUP(I28,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Orçamento P&amp;D Player 2</v>
       </c>
-      <c r="C28" s="94">
-        <f>VLOOKUP(I28,$J:$N,5,FALSE)</f>
+      <c r="C28" s="86">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D28" s="94">
-        <f>VLOOKUP(I28,$K:$N,4,FALSE)</f>
+      <c r="D28" s="86">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E28" s="94">
-        <f>VLOOKUP(I28,$L:$N,3,FALSE)</f>
+      <c r="E28" s="86">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F28" s="94">
-        <f>VLOOKUP(I28,$M:$N,2,FALSE)</f>
+      <c r="F28" s="86">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G28" s="93">
+      <c r="G28" s="85">
         <v>19.75</v>
       </c>
-      <c r="H28" s="93">
+      <c r="H28" s="85">
         <v>4.4370598373247123</v>
       </c>
-      <c r="I28" s="90" t="s">
+      <c r="I28" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="90" t="s">
+      <c r="J28" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="90" t="s">
+      <c r="K28" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="L28" s="90" t="s">
+      <c r="L28" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="M28" s="90" t="s">
+      <c r="M28" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="94">
+      <c r="N28" s="86">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B29" s="90" t="str">
+    <row r="29" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="82" t="str">
         <f>VLOOKUP(I29,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Força da Difusão do Produto - Inovadores</v>
       </c>
-      <c r="C29" s="94">
-        <f>VLOOKUP(I29,$J:$N,5,FALSE)</f>
+      <c r="C29" s="86">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D29" s="94">
-        <f>VLOOKUP(I29,$K:$N,4,FALSE)</f>
+      <c r="D29" s="86">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E29" s="94">
-        <f>VLOOKUP(I29,$L:$N,3,FALSE)</f>
+      <c r="E29" s="86">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F29" s="94">
-        <f>VLOOKUP(I29,$M:$N,2,FALSE)</f>
+      <c r="F29" s="86">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="G29" s="93">
+      <c r="G29" s="85">
         <v>28.25</v>
       </c>
-      <c r="H29" s="93">
+      <c r="H29" s="85">
         <v>1.0897247358851685</v>
       </c>
-      <c r="I29" s="90" t="s">
+      <c r="I29" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="90" t="s">
+      <c r="J29" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="K29" s="90" t="s">
+      <c r="K29" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="L29" s="90" t="s">
+      <c r="L29" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="90" t="s">
+      <c r="M29" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="N29" s="94">
+      <c r="N29" s="86">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B30" s="90" t="str">
+    <row r="30" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B30" s="82" t="str">
         <f>VLOOKUP(I30,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Custo Médio da Patente</v>
       </c>
-      <c r="C30" s="94">
-        <f>VLOOKUP(I30,$J:$N,5,FALSE)</f>
+      <c r="C30" s="86">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D30" s="94">
-        <f>VLOOKUP(I30,$K:$N,4,FALSE)</f>
+      <c r="D30" s="86">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E30" s="94">
-        <f>VLOOKUP(I30,$L:$N,3,FALSE)</f>
+      <c r="E30" s="86">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F30" s="94">
-        <f>VLOOKUP(I30,$M:$N,2,FALSE)</f>
+      <c r="F30" s="86">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="G30" s="93">
+      <c r="G30" s="85">
         <v>23.25</v>
       </c>
-      <c r="H30" s="93">
+      <c r="H30" s="85">
         <v>3.897114317029974</v>
       </c>
-      <c r="I30" s="90" t="s">
+      <c r="I30" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="90" t="s">
+      <c r="J30" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="90" t="s">
+      <c r="K30" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="L30" s="90" t="s">
+      <c r="L30" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="90" t="s">
+      <c r="M30" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="N30" s="94">
+      <c r="N30" s="86">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B31" s="90" t="str">
+    <row r="31" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="82" t="str">
         <f>VLOOKUP(I31,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Força da Curva de Aprendizagem</v>
       </c>
-      <c r="C31" s="94">
-        <f>VLOOKUP(I31,$J:$N,5,FALSE)</f>
+      <c r="C31" s="86">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D31" s="94">
-        <f>VLOOKUP(I31,$K:$N,4,FALSE)</f>
+      <c r="D31" s="86">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E31" s="94">
-        <f>VLOOKUP(I31,$L:$N,3,FALSE)</f>
+      <c r="E31" s="86">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="F31" s="94">
-        <f>VLOOKUP(I31,$M:$N,2,FALSE)</f>
+      <c r="F31" s="86">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="G31" s="93">
+      <c r="G31" s="85">
         <v>30.25</v>
       </c>
-      <c r="H31" s="93">
+      <c r="H31" s="85">
         <v>1.479019945774904</v>
       </c>
-      <c r="I31" s="90" t="s">
+      <c r="I31" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="90" t="s">
+      <c r="J31" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="90" t="s">
+      <c r="L31" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="M31" s="90" t="s">
+      <c r="M31" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="N31" s="94">
+      <c r="N31" s="86">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B32" s="90" t="str">
+    <row r="32" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="82" t="str">
         <f>VLOOKUP(I32,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>% P&amp;D Aberto Player 3</v>
       </c>
-      <c r="C32" s="94">
-        <f>VLOOKUP(I32,$J:$N,5,FALSE)</f>
+      <c r="C32" s="86">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D32" s="94">
-        <f>VLOOKUP(I32,$K:$N,4,FALSE)</f>
+      <c r="D32" s="86">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E32" s="94">
-        <f>VLOOKUP(I32,$L:$N,3,FALSE)</f>
+      <c r="E32" s="86">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F32" s="94">
-        <f>VLOOKUP(I32,$M:$N,2,FALSE)</f>
+      <c r="F32" s="86">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="85">
         <v>24.25</v>
       </c>
-      <c r="H32" s="93">
+      <c r="H32" s="85">
         <v>4.0850336595920478</v>
       </c>
-      <c r="I32" s="90" t="s">
+      <c r="I32" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="J32" s="90" t="s">
+      <c r="J32" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="K32" s="90" t="s">
+      <c r="K32" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="90" t="s">
+      <c r="L32" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="90" t="s">
+      <c r="M32" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="N32" s="94">
+      <c r="N32" s="86">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B33" s="90" t="str">
+    <row r="33" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="82" t="str">
         <f>VLOOKUP(I33,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Força da Difusão do Produto - Imitadores</v>
       </c>
-      <c r="C33" s="94">
-        <f>VLOOKUP(I33,$J:$N,5,FALSE)</f>
+      <c r="C33" s="86">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D33" s="94">
-        <f>VLOOKUP(I33,$K:$N,4,FALSE)</f>
+      <c r="D33" s="86">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="E33" s="94">
-        <f>VLOOKUP(I33,$L:$N,3,FALSE)</f>
+      <c r="E33" s="86">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="F33" s="94">
-        <f>VLOOKUP(I33,$M:$N,2,FALSE)</f>
+      <c r="F33" s="86">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G33" s="85">
         <v>28.25</v>
       </c>
-      <c r="H33" s="93">
+      <c r="H33" s="85">
         <v>3.7666297933298409</v>
       </c>
-      <c r="I33" s="90" t="s">
+      <c r="I33" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="90" t="s">
+      <c r="J33" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="90" t="s">
+      <c r="K33" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="90" t="s">
+      <c r="L33" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="M33" s="90" t="s">
+      <c r="M33" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="N33" s="94">
+      <c r="N33" s="86">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B34" s="90" t="str">
+    <row r="34" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="82" t="str">
         <f>VLOOKUP(I34,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>Estratégia de Capac. Player 3</v>
       </c>
-      <c r="C34" s="94">
-        <f>VLOOKUP(I34,$J:$N,5,FALSE)</f>
+      <c r="C34" s="86">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D34" s="94">
-        <f>VLOOKUP(I34,$K:$N,4,FALSE)</f>
+      <c r="D34" s="86">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E34" s="94">
-        <f>VLOOKUP(I34,$L:$N,3,FALSE)</f>
+      <c r="E34" s="86">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F34" s="94">
-        <f>VLOOKUP(I34,$M:$N,2,FALSE)</f>
+      <c r="F34" s="86">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="G34" s="93">
+      <c r="G34" s="85">
         <v>30.75</v>
       </c>
-      <c r="H34" s="93">
+      <c r="H34" s="85">
         <v>2.2776083947860748</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="90" t="s">
+      <c r="J34" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="90" t="s">
+      <c r="K34" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="L34" s="90" t="s">
+      <c r="L34" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="M34" s="90" t="s">
+      <c r="M34" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="N34" s="94">
+      <c r="N34" s="86">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="90" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B35" s="90" t="str">
+    <row r="35" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="82" t="str">
         <f>VLOOKUP(I35,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>% P&amp;D Aberto Player 2</v>
       </c>
-      <c r="C35" s="94">
-        <f>VLOOKUP(I35,$J:$N,5,FALSE)</f>
+      <c r="C35" s="86">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D35" s="94">
-        <f>VLOOKUP(I35,$K:$N,4,FALSE)</f>
+      <c r="D35" s="86">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E35" s="94">
-        <f>VLOOKUP(I35,$L:$N,3,FALSE)</f>
+      <c r="E35" s="86">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="F35" s="94">
-        <f>VLOOKUP(I35,$M:$N,2,FALSE)</f>
+      <c r="F35" s="86">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="G35" s="93">
+      <c r="G35" s="85">
         <v>30.5</v>
       </c>
-      <c r="H35" s="93">
+      <c r="H35" s="85">
         <v>5.5</v>
       </c>
-      <c r="I35" s="90" t="s">
+      <c r="I35" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="J35" s="90" t="s">
+      <c r="J35" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="K35" s="90" t="s">
+      <c r="K35" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="90" t="s">
+      <c r="L35" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="M35" s="90" t="s">
+      <c r="M35" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="N35" s="94">
+      <c r="N35" s="86">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="90" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="97" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B36" s="97" t="str">
+    <row r="36" spans="1:14" s="82" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="89" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="89" t="str">
         <f>VLOOKUP(I36,Rankings_Nomes_Amigaveis!$A:$B,2,FALSE)</f>
         <v>% de Patentes Rejeitadas</v>
       </c>
-      <c r="C36" s="98">
-        <f>VLOOKUP(I36,$J:$N,5,FALSE)</f>
+      <c r="C36" s="90">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D36" s="98">
-        <f>VLOOKUP(I36,$K:$N,4,FALSE)</f>
+      <c r="D36" s="90">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E36" s="98">
-        <f>VLOOKUP(I36,$L:$N,3,FALSE)</f>
+      <c r="E36" s="90">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F36" s="98">
-        <f>VLOOKUP(I36,$M:$N,2,FALSE)</f>
+      <c r="F36" s="90">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="G36" s="99">
+      <c r="G36" s="91">
         <v>32.5</v>
       </c>
-      <c r="H36" s="99">
+      <c r="H36" s="91">
         <v>2.5</v>
       </c>
-      <c r="I36" s="97" t="s">
+      <c r="I36" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="97" t="s">
+      <c r="J36" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="K36" s="97" t="s">
+      <c r="K36" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="L36" s="97" t="s">
+      <c r="L36" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="97" t="s">
+      <c r="M36" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="N36" s="98">
+      <c r="N36" s="90">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:S37" xr:uid="{B0D2DAB5-D37D-4D5C-BA18-5B11277C3DF7}"/>
   <conditionalFormatting sqref="A2:F36">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13238,19 +13234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="12" t="s">
         <v>205</v>
       </c>
@@ -14195,51 +14191,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="10.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="79" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="I1" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="12" t="s">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>209</v>
@@ -14247,22 +14245,26 @@
       <c r="F2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="98"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="8" t="str">
+        <f>_xlfn.CONCAT(LEFT(D3,1),".",LEFT(TEXT(E3,"00%"),2),".R",LEFT(TEXT(F3,"00%"),2),".",LEFT(TEXT(G3,"00%"),2))</f>
+        <v>A.40.R05.00</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
       </c>
       <c r="E3" s="9">
         <v>0.4</v>
@@ -14270,14 +14272,17 @@
       <c r="F3" s="9">
         <v>0.05</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <v>211920013.14381999</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>0.32409874540366401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
@@ -14285,11 +14290,12 @@
       <c r="B4" s="8">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="8" t="str">
+        <f t="shared" ref="C4:C56" si="0">_xlfn.CONCAT(LEFT(D4,1),".",LEFT(TEXT(E4,"00%"),2),".R",LEFT(TEXT(F4,"00%"),2),".",LEFT(TEXT(G4,"00%"),2))</f>
+        <v>A.30.R05.00</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
       </c>
       <c r="E4" s="9">
         <v>0.3</v>
@@ -14297,26 +14303,30 @@
       <c r="F4" s="9">
         <v>0.05</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
         <v>258564860.78961101</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>0.25411648784220803</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ref="A5:A56" si="0">A4+1</f>
+        <f t="shared" ref="A5:A56" si="1">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R05.00</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
       </c>
       <c r="E5" s="9">
         <v>0.2</v>
@@ -14324,26 +14334,30 @@
       <c r="F5" s="9">
         <v>0.05</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <v>328221015.276694</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>0.37788669678589198</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="8">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R10.00</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
       </c>
       <c r="E6" s="9">
         <v>0.4</v>
@@ -14351,26 +14365,30 @@
       <c r="F6" s="9">
         <v>0.1</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <v>338723234.93655503</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>0.391308760647262</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R05.50</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.5</v>
       </c>
       <c r="E7" s="9">
         <v>0.3</v>
@@ -14378,26 +14396,30 @@
       <c r="F7" s="9">
         <v>0.05</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="10">
         <v>371287014.34751898</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>0.37629160535366502</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R05.50</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.5</v>
       </c>
       <c r="E8" s="9">
         <v>0.2</v>
@@ -14405,26 +14427,30 @@
       <c r="F8" s="9">
         <v>0.05</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="10">
         <v>378755033.39807498</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>0.47227357141550302</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R05.50</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.5</v>
       </c>
       <c r="E9" s="9">
         <v>0.4</v>
@@ -14432,26 +14458,30 @@
       <c r="F9" s="9">
         <v>0.05</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="10">
         <v>394291939.22979301</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>0.51242624327084196</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R10.00</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
       </c>
       <c r="E10" s="9">
         <v>0.3</v>
@@ -14459,26 +14489,30 @@
       <c r="F10" s="9">
         <v>0.1</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>397669158.87349099</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>0.40209566996988999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R10.00</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
       </c>
       <c r="E11" s="9">
         <v>0.2</v>
@@ -14486,26 +14520,30 @@
       <c r="F11" s="9">
         <v>0.1</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>401770485.50053</v>
       </c>
-      <c r="H11" s="11">
+      <c r="I11" s="11">
         <v>0.49687438679422502</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>29</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R05.90</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.9</v>
       </c>
       <c r="E12" s="9">
         <v>0.2</v>
@@ -14513,26 +14551,30 @@
       <c r="F12" s="9">
         <v>0.05</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="10">
         <v>453445430.57917798</v>
       </c>
-      <c r="H12" s="11">
+      <c r="I12" s="11">
         <v>0.57140012797849804</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="8">
         <v>23</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R05.90</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.9</v>
       </c>
       <c r="E13" s="9">
         <v>0.3</v>
@@ -14540,26 +14582,30 @@
       <c r="F13" s="9">
         <v>0.05</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="10">
         <v>460990080.95830703</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="11">
         <v>0.50296452841452299</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R05.00</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
       </c>
       <c r="E14" s="9">
         <v>0.4</v>
@@ -14567,26 +14613,30 @@
       <c r="F14" s="9">
         <v>0.05</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>502812847.40038902</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="11">
         <v>0.541227908475305</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>9</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R10.50</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.5</v>
       </c>
       <c r="E15" s="9">
         <v>0.2</v>
@@ -14594,26 +14644,30 @@
       <c r="F15" s="9">
         <v>0.1</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="10">
         <v>511690862.06272</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>0.59249085294473003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R10.50</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.5</v>
       </c>
       <c r="E16" s="9">
         <v>0.3</v>
@@ -14621,26 +14675,30 @@
       <c r="F16" s="9">
         <v>0.1</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="10">
         <v>513421791.27970701</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>0.50033312745518999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R10.50</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.5</v>
       </c>
       <c r="E17" s="9">
         <v>0.4</v>
@@ -14648,26 +14706,30 @@
       <c r="F17" s="9">
         <v>0.1</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="10">
         <v>519665788.695144</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>0.66198497229035602</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="8">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R05.00</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
       </c>
       <c r="E18" s="9">
         <v>0.3</v>
@@ -14675,26 +14737,30 @@
       <c r="F18" s="9">
         <v>0.05</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
         <v>524158136.67215502</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="11">
         <v>0.58071424417872697</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R05.90</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.9</v>
       </c>
       <c r="E19" s="9">
         <v>0.4</v>
@@ -14702,26 +14768,30 @@
       <c r="F19" s="9">
         <v>0.05</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="10">
         <v>536340848.57027698</v>
       </c>
-      <c r="H19" s="11">
+      <c r="I19" s="11">
         <v>0.61697708003584095</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="8">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R15.00</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
       </c>
       <c r="E20" s="9">
         <v>0.3</v>
@@ -14729,26 +14799,30 @@
       <c r="F20" s="9">
         <v>0.15</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
         <v>551000567.91225398</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="11">
         <v>0.63371381810354099</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>49</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R15.00</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
       </c>
       <c r="E21" s="9">
         <v>0.4</v>
@@ -14756,26 +14830,30 @@
       <c r="F21" s="9">
         <v>0.15</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
         <v>552772821.72310305</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="11">
         <v>0.71568014304106597</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R10.00</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
       </c>
       <c r="E22" s="9">
         <v>0.4</v>
@@ -14783,26 +14861,30 @@
       <c r="F22" s="9">
         <v>0.1</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>566776798.931494</v>
       </c>
-      <c r="H22" s="11">
+      <c r="I22" s="11">
         <v>0.66962866515945396</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>43</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R15.00</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
       </c>
       <c r="E23" s="9">
         <v>0.2</v>
@@ -14810,26 +14892,30 @@
       <c r="F23" s="9">
         <v>0.15</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
         <v>570902364.61977398</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>0.69110819938752099</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>34</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R05.50</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.5</v>
       </c>
       <c r="E24" s="9">
         <v>0.4</v>
@@ -14837,26 +14923,30 @@
       <c r="F24" s="9">
         <v>0.05</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="10">
         <v>573108270.75722504</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>0.64162954153481</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="8">
         <v>22</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R05.50</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.5</v>
       </c>
       <c r="E25" s="9">
         <v>0.3</v>
@@ -14864,26 +14954,30 @@
       <c r="F25" s="9">
         <v>0.05</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="10">
         <v>595083136.58746696</v>
       </c>
-      <c r="H25" s="11">
+      <c r="I25" s="11">
         <v>0.65703018223973597</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="8">
         <v>2</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R10.00</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0</v>
       </c>
       <c r="E26" s="9">
         <v>0.3</v>
@@ -14891,26 +14985,30 @@
       <c r="F26" s="9">
         <v>0.1</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
         <v>598903266.16527796</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>0.69561461091494403</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>5</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R10.90</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0.9</v>
       </c>
       <c r="E27" s="9">
         <v>0.3</v>
@@ -14918,26 +15016,30 @@
       <c r="F27" s="9">
         <v>0.1</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="10">
         <v>599902276.26773798</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>0.64289451533840603</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>11</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R10.90</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0.9</v>
       </c>
       <c r="E28" s="9">
         <v>0.2</v>
@@ -14945,26 +15047,30 @@
       <c r="F28" s="9">
         <v>0.1</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H28" s="10">
         <v>607302450.96454799</v>
       </c>
-      <c r="H28" s="11">
+      <c r="I28" s="11">
         <v>0.68991730576270105</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>26</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R05.00</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
       </c>
       <c r="E29" s="9">
         <v>0.2</v>
@@ -14972,26 +15078,30 @@
       <c r="F29" s="9">
         <v>0.05</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
         <v>624113607.03587794</v>
       </c>
-      <c r="H29" s="11">
+      <c r="I29" s="11">
         <v>0.69578768937228597</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="8">
         <v>17</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R10.90</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.9</v>
       </c>
       <c r="E30" s="9">
         <v>0.4</v>
@@ -14999,26 +15109,30 @@
       <c r="F30" s="9">
         <v>0.1</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="10">
         <v>643572766.33924103</v>
       </c>
-      <c r="H30" s="11">
+      <c r="I30" s="11">
         <v>0.76667133338827498</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>36</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R05.90</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.9</v>
       </c>
       <c r="E31" s="9">
         <v>0.4</v>
@@ -15026,26 +15140,30 @@
       <c r="F31" s="9">
         <v>0.05</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H31" s="10">
         <v>652652058.49633002</v>
       </c>
-      <c r="H31" s="11">
+      <c r="I31" s="11">
         <v>0.73284580964836299</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>16</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R10.50</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0.5</v>
       </c>
       <c r="E32" s="9">
         <v>0.4</v>
@@ -15053,26 +15171,30 @@
       <c r="F32" s="9">
         <v>0.1</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="10">
         <v>658564224.389835</v>
       </c>
-      <c r="H32" s="11">
+      <c r="I32" s="11">
         <v>0.74129734181418905</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="8">
         <v>24</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R05.90</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.9</v>
       </c>
       <c r="E33" s="9">
         <v>0.3</v>
@@ -15080,26 +15202,30 @@
       <c r="F33" s="9">
         <v>0.05</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H33" s="10">
         <v>669113969.70397305</v>
       </c>
-      <c r="H33" s="11">
+      <c r="I33" s="11">
         <v>0.74186184002451805</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="8">
         <v>39</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R15.50</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0.5</v>
       </c>
       <c r="E34" s="9">
         <v>0.3</v>
@@ -15107,26 +15233,30 @@
       <c r="F34" s="9">
         <v>0.15</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="10">
         <v>673690744.43246698</v>
       </c>
-      <c r="H34" s="11">
+      <c r="I34" s="11">
         <v>0.70437348031149505</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="8">
         <v>45</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R15.50</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0.5</v>
       </c>
       <c r="E35" s="9">
         <v>0.2</v>
@@ -15134,26 +15264,30 @@
       <c r="F35" s="9">
         <v>0.15</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="10">
         <v>674280251.74647903</v>
       </c>
-      <c r="H35" s="11">
+      <c r="I35" s="11">
         <v>0.75791702244103798</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>51</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R15.50</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.5</v>
       </c>
       <c r="E36" s="9">
         <v>0.4</v>
@@ -15161,26 +15295,30 @@
       <c r="F36" s="9">
         <v>0.15</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="10">
         <v>681086120.48464</v>
       </c>
-      <c r="H36" s="11">
+      <c r="I36" s="11">
         <v>0.86007346882525404</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="8">
         <v>4</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R10.50</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.5</v>
       </c>
       <c r="E37" s="9">
         <v>0.3</v>
@@ -15188,26 +15326,30 @@
       <c r="F37" s="9">
         <v>0.1</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="10">
         <v>693408604.21973801</v>
       </c>
-      <c r="H37" s="11">
+      <c r="I37" s="11">
         <v>0.75859721903953403</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="8">
         <v>28</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R05.50</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0.5</v>
       </c>
       <c r="E38" s="9">
         <v>0.2</v>
@@ -15215,26 +15357,30 @@
       <c r="F38" s="9">
         <v>0.05</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="10">
         <v>695682824.91155696</v>
       </c>
-      <c r="H38" s="11">
+      <c r="I38" s="11">
         <v>0.76967684131372804</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="8">
         <v>50</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R15.00</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
       </c>
       <c r="E39" s="9">
         <v>0.4</v>
@@ -15242,26 +15388,30 @@
       <c r="F39" s="9">
         <v>0.15</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
         <v>699698610.61429703</v>
       </c>
-      <c r="H39" s="11">
+      <c r="I39" s="11">
         <v>0.84677492111106101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="8">
         <v>8</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R10.00</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
       </c>
       <c r="E40" s="9">
         <v>0.2</v>
@@ -15269,26 +15419,30 @@
       <c r="F40" s="9">
         <v>0.1</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
         <v>701648012.70381105</v>
       </c>
-      <c r="H40" s="11">
+      <c r="I40" s="11">
         <v>0.79885963365771595</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R15.00</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0</v>
       </c>
       <c r="E41" s="9">
         <v>0.3</v>
@@ -15296,26 +15450,30 @@
       <c r="F41" s="9">
         <v>0.15</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
         <v>723791590.44237399</v>
       </c>
-      <c r="H41" s="11">
+      <c r="I41" s="11">
         <v>0.85286841630743304</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="8">
         <v>30</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R05.90</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0.9</v>
       </c>
       <c r="E42" s="9">
         <v>0.2</v>
@@ -15323,26 +15481,30 @@
       <c r="F42" s="9">
         <v>0.05</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H42" s="10">
         <v>754304002.32638597</v>
       </c>
-      <c r="H42" s="11">
+      <c r="I42" s="11">
         <v>0.83185214666297702</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="8">
         <v>18</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R10.90</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.9</v>
       </c>
       <c r="E43" s="9">
         <v>0.4</v>
@@ -15350,26 +15512,30 @@
       <c r="F43" s="9">
         <v>0.1</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H43" s="10">
         <v>761918523.92551994</v>
       </c>
-      <c r="H43" s="11">
+      <c r="I43" s="11">
         <v>0.82304427271908298</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>41</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.30.R15.90</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0.9</v>
       </c>
       <c r="E44" s="9">
         <v>0.3</v>
@@ -15377,26 +15543,30 @@
       <c r="F44" s="9">
         <v>0.15</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H44" s="10">
         <v>762670284.10181296</v>
       </c>
-      <c r="H44" s="11">
+      <c r="I44" s="11">
         <v>0.79219313547191506</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="8">
         <v>6</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R10.90</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0.9</v>
       </c>
       <c r="E45" s="9">
         <v>0.3</v>
@@ -15404,26 +15574,30 @@
       <c r="F45" s="9">
         <v>0.1</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="10">
         <v>768576892.78114295</v>
       </c>
-      <c r="H45" s="11">
+      <c r="I45" s="11">
         <v>0.84776601146345998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="8">
         <v>10</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R10.50</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D46" s="9">
-        <v>0.5</v>
       </c>
       <c r="E46" s="9">
         <v>0.2</v>
@@ -15431,26 +15605,30 @@
       <c r="F46" s="9">
         <v>0.1</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="10">
         <v>777519136.77871895</v>
       </c>
-      <c r="H46" s="11">
+      <c r="I46" s="11">
         <v>0.85034600693809503</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="8">
         <v>47</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.20.R15.90</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D47" s="9">
-        <v>0.9</v>
       </c>
       <c r="E47" s="9">
         <v>0.2</v>
@@ -15458,26 +15636,30 @@
       <c r="F47" s="9">
         <v>0.15</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H47" s="10">
         <v>795049983.06645894</v>
       </c>
-      <c r="H47" s="11">
+      <c r="I47" s="11">
         <v>0.86215458235035303</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="8">
         <v>52</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R15.50</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D48" s="9">
-        <v>0.5</v>
       </c>
       <c r="E48" s="9">
         <v>0.4</v>
@@ -15485,26 +15667,30 @@
       <c r="F48" s="9">
         <v>0.15</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="10">
         <v>798592893.09769905</v>
       </c>
-      <c r="H48" s="11">
+      <c r="I48" s="11">
         <v>0.90824721062091396</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="8">
         <v>44</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R15.00</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D49" s="9">
-        <v>0</v>
       </c>
       <c r="E49" s="9">
         <v>0.2</v>
@@ -15512,26 +15698,30 @@
       <c r="F49" s="9">
         <v>0.15</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
         <v>805859927.31309903</v>
       </c>
-      <c r="H49" s="11">
+      <c r="I49" s="11">
         <v>0.93253210266514897</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="8">
         <v>40</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R15.50</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D50" s="9">
-        <v>0.5</v>
       </c>
       <c r="E50" s="9">
         <v>0.3</v>
@@ -15539,26 +15729,30 @@
       <c r="F50" s="9">
         <v>0.15</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="10">
         <v>806799091.78989601</v>
       </c>
-      <c r="H50" s="11">
+      <c r="I50" s="11">
         <v>0.91046232247518599</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="8">
         <v>53</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>A.40.R15.90</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D51" s="9">
-        <v>0.9</v>
       </c>
       <c r="E51" s="9">
         <v>0.4</v>
@@ -15566,26 +15760,30 @@
       <c r="F51" s="9">
         <v>0.15</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H51" s="10">
         <v>846136460.97405803</v>
       </c>
-      <c r="H51" s="11">
+      <c r="I51" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="8">
         <v>12</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R10.90</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0.9</v>
       </c>
       <c r="E52" s="9">
         <v>0.2</v>
@@ -15593,26 +15791,30 @@
       <c r="F52" s="9">
         <v>0.1</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H52" s="10">
         <v>846287995.65861905</v>
       </c>
-      <c r="H52" s="11">
+      <c r="I52" s="11">
         <v>0.91039218527608801</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="8">
         <v>54</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.40.R15.90</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0.9</v>
       </c>
       <c r="E53" s="9">
         <v>0.4</v>
@@ -15620,26 +15822,30 @@
       <c r="F53" s="9">
         <v>0.15</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H53" s="10">
         <v>863780236.87830496</v>
       </c>
-      <c r="H53" s="11">
+      <c r="I53" s="11">
         <v>0.96362956052549098</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="8">
         <v>42</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.30.R15.90</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D54" s="9">
-        <v>0.9</v>
       </c>
       <c r="E54" s="9">
         <v>0.3</v>
@@ -15647,26 +15853,30 @@
       <c r="F54" s="9">
         <v>0.15</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H54" s="10">
         <v>877290789.64013195</v>
       </c>
-      <c r="H54" s="11">
+      <c r="I54" s="11">
         <v>0.96464069969507404</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="8">
         <v>46</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R15.50</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0.5</v>
       </c>
       <c r="E55" s="9">
         <v>0.2</v>
@@ -15674,26 +15884,30 @@
       <c r="F55" s="9">
         <v>0.15</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="10">
         <v>895893333.66558194</v>
       </c>
-      <c r="H55" s="11">
+      <c r="I55" s="11">
         <v>0.97334899128959895</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="15">
         <v>48</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C.20.R15.90</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="D56" s="16">
-        <v>0.9</v>
       </c>
       <c r="E56" s="16">
         <v>0.2</v>
@@ -15701,20 +15915,24 @@
       <c r="F56" s="16">
         <v>0.15</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H56" s="17">
         <v>947271828.94380295</v>
       </c>
-      <c r="H56" s="18">
+      <c r="I56" s="18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:F1"/>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -39715,15 +39933,15 @@
       <c r="A1" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
